--- a/pgc.xlsx
+++ b/pgc.xlsx
@@ -1,94 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leomurta/workspaces/perfil/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C2848D1-AAEF-7F4B-AF2E-5DB7CE76958A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="5400" windowWidth="28240" windowHeight="17560" xr2:uid="{B1C3C982-4E6A-A34E-A251-D126F750D4B5}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="pgc" localSheetId="0">Planilha1!$A$1:$AW$40</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{D3DD7374-6275-4A4C-8241-9356FCA8865B}" name="pgc" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="/Users/leomurta/workspaces/perfil/pgc.tsv" decimal="," thousands=".">
-      <textFields count="49">
-        <textField/>
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>Nome</t>
   </si>
@@ -237,349 +163,355 @@
     <t>H-Index (anual)</t>
   </si>
   <si>
+    <t>Publicações Indexadas JCR &gt;= 1,5 (total)</t>
+  </si>
+  <si>
+    <t>Publicações Indexadas JCR &gt;= 1,5</t>
+  </si>
+  <si>
     <t>Alexandre Plastino de Carvalho</t>
   </si>
   <si>
+    <t>Aline Marins Paes Carvalho</t>
+  </si>
+  <si>
+    <t>Anselmo Antunes Montenegro</t>
+  </si>
+  <si>
+    <t>Antonio Augusto de Aragao Rocha</t>
+  </si>
+  <si>
+    <t>Aura Conci</t>
+  </si>
+  <si>
+    <t>Bruno Lopes Vieira</t>
+  </si>
+  <si>
+    <t>Carlos Alberto de Jesus Martinhon</t>
+  </si>
+  <si>
+    <t>Célio Vinicius Neves de Albuquerque</t>
+  </si>
+  <si>
+    <t>Celso da Cruz Carneiro Ribeiro</t>
+  </si>
+  <si>
+    <t>Christiano de Oliveira Braga</t>
+  </si>
+  <si>
+    <t>Cristina Nader Vasconcelos</t>
+  </si>
+  <si>
+    <t>Daniel Cardoso Moraes de Oliveira</t>
+  </si>
+  <si>
+    <t>Daniela Gorski Trevisan</t>
+  </si>
+  <si>
+    <t>Debora Christina Muchaluat Saade</t>
+  </si>
+  <si>
+    <t>Diego Gimenez Passos</t>
+  </si>
+  <si>
+    <t>Esteban Walter Gonzalez Clua</t>
+  </si>
+  <si>
+    <t>Eugene Francis Vinod Rebello</t>
+  </si>
+  <si>
+    <t>Fábio Protti</t>
+  </si>
+  <si>
+    <t>Igor Monteiro Moraes</t>
+  </si>
+  <si>
+    <t>Jose Ricardo de Almeida Torreao</t>
+  </si>
+  <si>
+    <t>José Viterbo Filho</t>
+  </si>
+  <si>
+    <t>Julio Cesar Stacchini de Souza</t>
+  </si>
+  <si>
+    <t>Leandro Augusto Frata Fernandes</t>
+  </si>
+  <si>
+    <t>Leonardo Gresta Paulino Murta</t>
+  </si>
+  <si>
+    <t>Loana Tito Nogueira</t>
+  </si>
+  <si>
+    <t>Lúcia Maria de Assumpção Drummond</t>
+  </si>
+  <si>
+    <t>Luciana Cardoso de Castro Salgado</t>
+  </si>
+  <si>
+    <t>Luis Antonio Brasil Kowada</t>
+  </si>
+  <si>
+    <t>Luis Martí Orosa</t>
+  </si>
+  <si>
+    <t>Luiz André Portes Paes Leme</t>
+  </si>
+  <si>
+    <t>Luiz Satoru Ochi</t>
+  </si>
+  <si>
+    <t>Marcos de Oliveira Lage Ferreira</t>
+  </si>
+  <si>
+    <t>Milton Brown Do Coutto Filho</t>
+  </si>
+  <si>
+    <t>Orlando Gomes Loques Filho</t>
+  </si>
+  <si>
+    <t>Simone de Lima Martins</t>
+  </si>
+  <si>
+    <t>Uéverton dos Santos Souza</t>
+  </si>
+  <si>
+    <t>Vanessa Braganholo Murta</t>
+  </si>
+  <si>
+    <t>Viviane Torres da Silva</t>
+  </si>
+  <si>
+    <t>Yuri Abitbol de Menezes Frota</t>
+  </si>
+  <si>
     <t>4985266524417261</t>
   </si>
   <si>
+    <t>0506389215528790</t>
+  </si>
+  <si>
+    <t>3518240071127311</t>
+  </si>
+  <si>
+    <t>5784860269030800</t>
+  </si>
+  <si>
+    <t>5601388085745497</t>
+  </si>
+  <si>
+    <t>7793315334001237</t>
+  </si>
+  <si>
+    <t>2822582595834942</t>
+  </si>
+  <si>
+    <t>4641684220602580</t>
+  </si>
+  <si>
+    <t>3614186131432854</t>
+  </si>
+  <si>
+    <t>0535266455387139</t>
+  </si>
+  <si>
+    <t>4504954763260364</t>
+  </si>
+  <si>
+    <t>0743793296062293</t>
+  </si>
+  <si>
+    <t>4282224955491397</t>
+  </si>
+  <si>
+    <t>2448703093928632</t>
+  </si>
+  <si>
+    <t>4380871234657190</t>
+  </si>
+  <si>
+    <t>4791589931798048</t>
+  </si>
+  <si>
+    <t>8795680989708219</t>
+  </si>
+  <si>
+    <t>5898801580033554</t>
+  </si>
+  <si>
+    <t>1342924024681635</t>
+  </si>
+  <si>
+    <t>4234623363518888</t>
+  </si>
+  <si>
+    <t>8721187139726277</t>
+  </si>
+  <si>
+    <t>8691314378381640</t>
+  </si>
+  <si>
+    <t>4616848792501359</t>
+  </si>
+  <si>
+    <t>1565296529736448</t>
+  </si>
+  <si>
+    <t>2537709612833688</t>
+  </si>
+  <si>
+    <t>9314029648579658</t>
+  </si>
+  <si>
+    <t>9126192988265844</t>
+  </si>
+  <si>
+    <t>6067936254653853</t>
+  </si>
+  <si>
+    <t>5462583890910082</t>
+  </si>
+  <si>
+    <t>4109516731400241</t>
+  </si>
+  <si>
+    <t>9171815778534257</t>
+  </si>
+  <si>
+    <t>1679486689581930</t>
+  </si>
+  <si>
+    <t>1162538732000822</t>
+  </si>
+  <si>
+    <t>9433123288261141</t>
+  </si>
+  <si>
+    <t>5202429302236084</t>
+  </si>
+  <si>
+    <t>1131927171712708</t>
+  </si>
+  <si>
+    <t>0060120644445370</t>
+  </si>
+  <si>
+    <t>7802814360038820</t>
+  </si>
+  <si>
+    <t>9628405562792982</t>
+  </si>
+  <si>
     <t>axlvTZoAAAAJ</t>
   </si>
   <si>
-    <t>Aline Marins Paes Carvalho</t>
-  </si>
-  <si>
-    <t>0506389215528790</t>
-  </si>
-  <si>
     <t>PXVlXCEAAAAJ</t>
   </si>
   <si>
-    <t>Anselmo Antunes Montenegro</t>
-  </si>
-  <si>
-    <t>3518240071127311</t>
-  </si>
-  <si>
     <t>Q_FnDrcAAAAJ</t>
   </si>
   <si>
-    <t>Antonio Augusto de Aragao Rocha</t>
-  </si>
-  <si>
-    <t>5784860269030800</t>
-  </si>
-  <si>
     <t>C_3SJ4oAAAAJ</t>
   </si>
   <si>
-    <t>Aura Conci</t>
-  </si>
-  <si>
-    <t>5601388085745497</t>
-  </si>
-  <si>
     <t>lojRGVgAAAAJ</t>
   </si>
   <si>
-    <t>Bruno Lopes Vieira</t>
-  </si>
-  <si>
-    <t>7793315334001237</t>
-  </si>
-  <si>
     <t>iWm5AjYAAAAJ</t>
   </si>
   <si>
-    <t>Carlos Alberto de Jesus Martinhon</t>
-  </si>
-  <si>
-    <t>2822582595834942</t>
-  </si>
-  <si>
     <t>343VizIAAAAJ</t>
   </si>
   <si>
-    <t>Célio Vinicius Neves de Albuquerque</t>
-  </si>
-  <si>
-    <t>4641684220602580</t>
-  </si>
-  <si>
     <t>cB78oMQAAAAJ</t>
   </si>
   <si>
-    <t>Celso da Cruz Carneiro Ribeiro</t>
-  </si>
-  <si>
-    <t>3614186131432854</t>
-  </si>
-  <si>
     <t>yGl1MwgAAAAJ</t>
   </si>
   <si>
-    <t>Christiano de Oliveira Braga</t>
-  </si>
-  <si>
-    <t>0535266455387139</t>
-  </si>
-  <si>
     <t>zYumbMwAAAAJ</t>
   </si>
   <si>
-    <t>Cristina Nader Vasconcelos</t>
-  </si>
-  <si>
-    <t>4504954763260364</t>
-  </si>
-  <si>
     <t>tFHkg5MAAAAJ</t>
   </si>
   <si>
-    <t>Daniel Cardoso Moraes de Oliveira</t>
-  </si>
-  <si>
-    <t>0743793296062293</t>
-  </si>
-  <si>
     <t>T_YePXEAAAAJ</t>
   </si>
   <si>
-    <t>Daniela Gorski Trevisan</t>
-  </si>
-  <si>
-    <t>4282224955491397</t>
-  </si>
-  <si>
     <t>Jr1C8ZIAAAAJ</t>
   </si>
   <si>
-    <t>Debora Christina Muchaluat Saade</t>
-  </si>
-  <si>
-    <t>2448703093928632</t>
-  </si>
-  <si>
     <t>cWpEpdcAAAAJ</t>
   </si>
   <si>
-    <t>Diego Gimenez Passos</t>
-  </si>
-  <si>
-    <t>4380871234657190</t>
-  </si>
-  <si>
     <t>qVJsMvYAAAAJ</t>
   </si>
   <si>
-    <t>Esteban Walter Gonzalez Clua</t>
-  </si>
-  <si>
-    <t>4791589931798048</t>
-  </si>
-  <si>
     <t>p1-e5NMAAAAJ</t>
   </si>
   <si>
-    <t>Eugene Francis Vinod Rebello</t>
-  </si>
-  <si>
-    <t>8795680989708219</t>
-  </si>
-  <si>
     <t>ZvHr9LEAAAAJ</t>
   </si>
   <si>
-    <t>Fábio Protti</t>
-  </si>
-  <si>
-    <t>5898801580033554</t>
-  </si>
-  <si>
     <t>_kEAhAwAAAAJ</t>
   </si>
   <si>
-    <t>Igor Monteiro Moraes</t>
-  </si>
-  <si>
-    <t>1342924024681635</t>
-  </si>
-  <si>
     <t>zFaRYScAAAAJ</t>
   </si>
   <si>
-    <t>Jose Ricardo de Almeida Torreao</t>
-  </si>
-  <si>
-    <t>4234623363518888</t>
-  </si>
-  <si>
-    <t>José Viterbo Filho</t>
-  </si>
-  <si>
-    <t>8721187139726277</t>
-  </si>
-  <si>
     <t>twAYAPsAAAAJ</t>
   </si>
   <si>
-    <t>Julio Cesar Stacchini de Souza</t>
-  </si>
-  <si>
-    <t>8691314378381640</t>
-  </si>
-  <si>
     <t>qYDmVFQAAAAJ</t>
   </si>
   <si>
-    <t>Leandro Augusto Frata Fernandes</t>
-  </si>
-  <si>
-    <t>4616848792501359</t>
-  </si>
-  <si>
     <t>4OcyYJ4AAAAJ</t>
   </si>
   <si>
-    <t>Leonardo Gresta Paulino Murta</t>
-  </si>
-  <si>
-    <t>1565296529736448</t>
-  </si>
-  <si>
     <t>VEbJeB8AAAAJ</t>
   </si>
   <si>
-    <t>Loana Tito Nogueira</t>
-  </si>
-  <si>
-    <t>2537709612833688</t>
-  </si>
-  <si>
     <t>AQsF0MYAAAAJ</t>
   </si>
   <si>
-    <t>Lúcia Maria de Assumpção Drummond</t>
-  </si>
-  <si>
-    <t>9314029648579658</t>
-  </si>
-  <si>
     <t>UhYdnvYAAAAJ</t>
   </si>
   <si>
-    <t>Luciana Cardoso de Castro Salgado</t>
-  </si>
-  <si>
-    <t>9126192988265844</t>
-  </si>
-  <si>
     <t>exVgvFgAAAAJ</t>
   </si>
   <si>
-    <t>Luis Antonio Brasil Kowada</t>
-  </si>
-  <si>
-    <t>6067936254653853</t>
-  </si>
-  <si>
     <t>8DN4mmEAAAAJ</t>
   </si>
   <si>
-    <t>Luis Martí Orosa</t>
-  </si>
-  <si>
-    <t>5462583890910082</t>
-  </si>
-  <si>
     <t>rT0Cow8AAAAJ</t>
   </si>
   <si>
-    <t>Luiz André Portes Paes Leme</t>
-  </si>
-  <si>
-    <t>4109516731400241</t>
-  </si>
-  <si>
     <t>QPaL2bEAAAAJ</t>
   </si>
   <si>
-    <t>Luiz Satoru Ochi</t>
-  </si>
-  <si>
-    <t>9171815778534257</t>
-  </si>
-  <si>
     <t>w3KB2MoAAAAJ</t>
   </si>
   <si>
-    <t>Marcos de Oliveira Lage Ferreira</t>
-  </si>
-  <si>
-    <t>1679486689581930</t>
-  </si>
-  <si>
     <t>ltxcRtwAAAAJ</t>
   </si>
   <si>
-    <t>Milton Brown Do Coutto Filho</t>
-  </si>
-  <si>
-    <t>1162538732000822</t>
-  </si>
-  <si>
     <t>C7WY29gAAAAJ</t>
   </si>
   <si>
-    <t>Orlando Gomes Loques Filho</t>
-  </si>
-  <si>
-    <t>9433123288261141</t>
-  </si>
-  <si>
     <t>KlPc9LgAAAAJ</t>
   </si>
   <si>
-    <t>Simone de Lima Martins</t>
-  </si>
-  <si>
-    <t>5202429302236084</t>
-  </si>
-  <si>
     <t>oEIT_KQAAAAJ</t>
   </si>
   <si>
-    <t>Uéverton dos Santos Souza</t>
-  </si>
-  <si>
-    <t>1131927171712708</t>
-  </si>
-  <si>
     <t>9nD5N4AAAAAJ</t>
   </si>
   <si>
-    <t>Vanessa Braganholo Murta</t>
-  </si>
-  <si>
-    <t>0060120644445370</t>
-  </si>
-  <si>
     <t>QT9-AZ4AAAAJ</t>
   </si>
   <si>
-    <t>Viviane Torres da Silva</t>
-  </si>
-  <si>
-    <t>7802814360038820</t>
-  </si>
-  <si>
     <t>9fnrfZsAAAAJ</t>
-  </si>
-  <si>
-    <t>Yuri Abitbol de Menezes Frota</t>
-  </si>
-  <si>
-    <t>9628405562792982</t>
   </si>
   <si>
     <t>fTsmjYkAAAAJ</t>
@@ -588,10 +520,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -606,12 +546,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -620,30 +575,20 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pgc" connectionId="1" xr16:uid="{494A5A59-114E-564A-9ED2-B5C4DAA694F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -653,44 +598,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -717,32 +662,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -769,24 +696,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -798,203 +707,179 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFB1DE5-2E0D-2D45-BC51-BCAE4BE9A8B7}">
-  <dimension ref="A1:AW40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AY40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="23" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="30" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:51">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1003,154 +888,160 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
       </c>
       <c r="D2">
         <v>2000</v>
@@ -1168,34 +1059,34 @@
         <v>7</v>
       </c>
       <c r="I2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>7</v>
       </c>
       <c r="K2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1210,96 +1101,102 @@
         <v>3</v>
       </c>
       <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
         <v>5</v>
       </c>
-      <c r="X2">
-        <v>8</v>
-      </c>
       <c r="Y2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z2">
         <v>8</v>
       </c>
       <c r="AA2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AD2">
+        <v>8</v>
+      </c>
+      <c r="AE2">
+        <v>22</v>
+      </c>
+      <c r="AF2">
+        <v>756</v>
+      </c>
+      <c r="AG2">
+        <v>15</v>
+      </c>
+      <c r="AH2">
+        <v>277</v>
+      </c>
+      <c r="AI2">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AJ2">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="AK2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AL2">
+        <v>1.388888888888889</v>
+      </c>
+      <c r="AM2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AN2">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="AO2">
+        <v>2.277777777777778</v>
+      </c>
+      <c r="AP2">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="AQ2">
+        <v>3.388888888888889</v>
+      </c>
+      <c r="AR2">
         <v>4</v>
       </c>
-      <c r="AE2">
-        <v>20</v>
-      </c>
-      <c r="AF2">
-        <v>670</v>
-      </c>
-      <c r="AG2">
-        <v>13</v>
-      </c>
-      <c r="AH2">
-        <v>244</v>
-      </c>
-      <c r="AI2">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="AJ2">
-        <v>0.27777777777777701</v>
-      </c>
-      <c r="AK2">
-        <v>0.38888888888888801</v>
-      </c>
-      <c r="AL2">
-        <v>1.2777777777777699</v>
-      </c>
-      <c r="AM2">
-        <v>0.38888888888888801</v>
-      </c>
-      <c r="AN2">
-        <v>1.6666666666666601</v>
-      </c>
-      <c r="AO2">
-        <v>2.2222222222222201</v>
-      </c>
-      <c r="AP2">
-        <v>1.05555555555555</v>
-      </c>
-      <c r="AQ2">
-        <v>3.2777777777777701</v>
-      </c>
-      <c r="AR2">
-        <v>3.7777777777777701</v>
-      </c>
       <c r="AS2">
-        <v>1.38888888888888</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="AT2">
-        <v>0.72222222222222199</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>5.1666666666666599</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="AV2">
-        <v>37.2222222222222</v>
+        <v>42</v>
       </c>
       <c r="AW2">
-        <v>0.72222222222222199</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AX2">
+        <v>11</v>
+      </c>
+      <c r="AY2">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
       </c>
       <c r="D3">
         <v>2011</v>
@@ -1317,138 +1214,144 @@
         <v>12</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>37</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>44</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
         <v>8</v>
       </c>
-      <c r="O3">
-        <v>32</v>
-      </c>
-      <c r="P3">
-        <v>6</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-      <c r="R3">
-        <v>38</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>3</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>4</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>5</v>
-      </c>
       <c r="AB3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC3">
         <v>4</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF3">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="AG3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AI3">
-        <v>1.1428571428571399</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AJ3">
-        <v>0.57142857142857095</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AK3">
-        <v>1.71428571428571</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="AL3">
-        <v>0.28571428571428498</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AM3">
-        <v>0.14285714285714199</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AN3">
-        <v>0.42857142857142799</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AO3">
-        <v>0.85714285714285698</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="AP3">
-        <v>0.28571428571428498</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AQ3">
-        <v>1.1428571428571399</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="AR3">
-        <v>4.5714285714285703</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="AS3">
-        <v>0.85714285714285698</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0.42857142857142799</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AU3">
-        <v>5.4285714285714199</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="AV3">
-        <v>21.857142857142801</v>
+        <v>24.57142857142857</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>1.142857142857143</v>
+      </c>
+      <c r="AX3">
+        <v>3</v>
+      </c>
+      <c r="AY3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
       </c>
       <c r="D4">
         <v>2003</v>
@@ -1478,22 +1381,22 @@
         <v>31</v>
       </c>
       <c r="M4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q4">
         <v>5</v>
       </c>
       <c r="R4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1505,99 +1408,105 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z4">
+        <v>9</v>
+      </c>
+      <c r="AA4">
         <v>12</v>
       </c>
-      <c r="AA4">
-        <v>16</v>
-      </c>
       <c r="AB4">
+        <v>9</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
         <v>12</v>
       </c>
-      <c r="AC4">
-        <v>3</v>
-      </c>
-      <c r="AD4">
-        <v>2</v>
-      </c>
-      <c r="AE4">
-        <v>15</v>
-      </c>
       <c r="AF4">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="AG4">
         <v>13</v>
       </c>
       <c r="AH4">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AI4">
-        <v>0.66666666666666596</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AJ4">
         <v>0.2</v>
       </c>
       <c r="AK4">
-        <v>0.86666666666666603</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AL4">
-        <v>0.86666666666666603</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AM4">
         <v>0.2</v>
       </c>
       <c r="AN4">
-        <v>1.06666666666666</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="AO4">
-        <v>2.0666666666666602</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="AP4">
-        <v>1.3333333333333299</v>
+        <v>1.6</v>
       </c>
       <c r="AQ4">
-        <v>3.4</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="AR4">
-        <v>4.0666666666666602</v>
+        <v>4.2</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="AT4">
-        <v>0.33333333333333298</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AU4">
-        <v>5.0666666666666602</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="AV4">
-        <v>34.4</v>
+        <v>36.33333333333334</v>
       </c>
       <c r="AW4">
-        <v>0.86666666666666603</v>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AX4">
+        <v>3</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
       </c>
       <c r="D5">
         <v>2010</v>
@@ -1648,46 +1557,46 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB5">
+        <v>7</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>7</v>
+      </c>
+      <c r="AF5">
+        <v>520</v>
+      </c>
+      <c r="AG5">
         <v>11</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>11</v>
-      </c>
-      <c r="AF5">
-        <v>455</v>
-      </c>
-      <c r="AG5">
-        <v>10</v>
       </c>
       <c r="AH5">
         <v>112</v>
@@ -1732,21 +1641,27 @@
         <v>5.5</v>
       </c>
       <c r="AV5">
-        <v>56.875</v>
+        <v>65</v>
       </c>
       <c r="AW5">
-        <v>1.25</v>
+        <v>1.375</v>
+      </c>
+      <c r="AX5">
+        <v>4</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
       </c>
       <c r="D6">
         <v>1988</v>
@@ -1755,147 +1670,153 @@
         <v>30</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="N6">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="O6">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P6">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q6">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="R6">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6">
         <v>4</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>4</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>6</v>
       </c>
       <c r="X6">
         <v>8</v>
       </c>
       <c r="Y6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AB6">
         <v>24</v>
       </c>
       <c r="AC6">
+        <v>17</v>
+      </c>
+      <c r="AD6">
+        <v>11</v>
+      </c>
+      <c r="AE6">
+        <v>41</v>
+      </c>
+      <c r="AF6">
+        <v>2423</v>
+      </c>
+      <c r="AG6">
+        <v>27</v>
+      </c>
+      <c r="AH6">
+        <v>736</v>
+      </c>
+      <c r="AI6">
+        <v>0.4</v>
+      </c>
+      <c r="AJ6">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="AK6">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="AL6">
+        <v>1.5</v>
+      </c>
+      <c r="AM6">
+        <v>0.5</v>
+      </c>
+      <c r="AN6">
+        <v>2</v>
+      </c>
+      <c r="AO6">
+        <v>1.966666666666667</v>
+      </c>
+      <c r="AP6">
+        <v>1.566666666666667</v>
+      </c>
+      <c r="AQ6">
+        <v>3.533333333333333</v>
+      </c>
+      <c r="AR6">
+        <v>6.933333333333334</v>
+      </c>
+      <c r="AS6">
+        <v>2.1</v>
+      </c>
+      <c r="AT6">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="AU6">
+        <v>9.033333333333333</v>
+      </c>
+      <c r="AV6">
+        <v>80.76666666666667</v>
+      </c>
+      <c r="AW6">
+        <v>0.9</v>
+      </c>
+      <c r="AX6">
+        <v>24</v>
+      </c>
+      <c r="AY6">
         <v>7</v>
       </c>
-      <c r="AD6">
-        <v>6</v>
-      </c>
-      <c r="AE6">
-        <v>31</v>
-      </c>
-      <c r="AF6">
-        <v>2117</v>
-      </c>
-      <c r="AG6">
-        <v>25</v>
-      </c>
-      <c r="AH6">
-        <v>697</v>
-      </c>
-      <c r="AI6">
-        <v>0.1</v>
-      </c>
-      <c r="AJ6">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="AK6">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="AL6">
-        <v>1.43333333333333</v>
-      </c>
-      <c r="AM6">
-        <v>0.46666666666666601</v>
-      </c>
-      <c r="AN6">
-        <v>1.9</v>
-      </c>
-      <c r="AO6">
-        <v>1.7333333333333301</v>
-      </c>
-      <c r="AP6">
-        <v>1.36666666666666</v>
-      </c>
-      <c r="AQ6">
-        <v>3.1</v>
-      </c>
-      <c r="AR6">
-        <v>6.36666666666666</v>
-      </c>
-      <c r="AS6">
-        <v>1.7</v>
-      </c>
-      <c r="AT6">
-        <v>0.9</v>
-      </c>
-      <c r="AU6">
-        <v>8.0666666666666593</v>
-      </c>
-      <c r="AV6">
-        <v>70.566666666666606</v>
-      </c>
-      <c r="AW6">
-        <v>0.83333333333333304</v>
-      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -1922,64 +1843,64 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>26</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
         <v>7</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>23</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC7">
         <v>3</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF7">
         <v>68</v>
@@ -1988,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="AH7">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="AI7">
         <v>2.75</v>
@@ -2009,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP7">
         <v>0.25</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AR7">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AS7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AU7">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="AV7">
         <v>17</v>
@@ -2035,16 +1956,22 @@
       <c r="AW7">
         <v>1</v>
       </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
       </c>
       <c r="D8">
         <v>1998</v>
@@ -2062,22 +1989,22 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O8">
         <v>28</v>
@@ -2092,46 +2019,46 @@
         <v>42</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>2</v>
       </c>
       <c r="Y8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z8">
         <v>5</v>
       </c>
       <c r="AA8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF8">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="AG8">
         <v>10</v>
@@ -2149,22 +2076,22 @@
         <v>0.45</v>
       </c>
       <c r="AL8">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AM8">
         <v>0.15</v>
       </c>
       <c r="AN8">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="AO8">
-        <v>1.1000000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="AP8">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AQ8">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AR8">
         <v>1.4</v>
@@ -2173,27 +2100,33 @@
         <v>0.7</v>
       </c>
       <c r="AT8">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AU8">
         <v>2.1</v>
       </c>
       <c r="AV8">
-        <v>15.35</v>
+        <v>17.15</v>
       </c>
       <c r="AW8">
         <v>0.5</v>
       </c>
+      <c r="AX8">
+        <v>4</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -2211,34 +2144,34 @@
         <v>19</v>
       </c>
       <c r="I9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
       <c r="K9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M9">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>119</v>
+      </c>
+      <c r="O9">
+        <v>111</v>
+      </c>
+      <c r="P9">
         <v>35</v>
       </c>
-      <c r="N9">
-        <v>110</v>
-      </c>
-      <c r="O9">
-        <v>103</v>
-      </c>
-      <c r="P9">
-        <v>31</v>
-      </c>
       <c r="Q9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R9">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2259,90 +2192,96 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB9">
+        <v>20</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+      <c r="AE9">
+        <v>27</v>
+      </c>
+      <c r="AF9">
+        <v>2111</v>
+      </c>
+      <c r="AG9">
         <v>22</v>
       </c>
-      <c r="AC9">
-        <v>8</v>
-      </c>
-      <c r="AD9">
-        <v>6</v>
-      </c>
-      <c r="AE9">
-        <v>30</v>
-      </c>
-      <c r="AF9">
-        <v>1901</v>
-      </c>
-      <c r="AG9">
-        <v>21</v>
-      </c>
       <c r="AH9">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AI9">
-        <v>0.44444444444444398</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AJ9">
-        <v>0.61111111111111105</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="AK9">
-        <v>1.05555555555555</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="AL9">
-        <v>1.3333333333333299</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="AM9">
-        <v>0.38888888888888801</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="AN9">
-        <v>1.7222222222222201</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="AO9">
-        <v>4.1666666666666599</v>
+        <v>4.388888888888889</v>
       </c>
       <c r="AP9">
-        <v>1.94444444444444</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="AQ9">
-        <v>6.1111111111111098</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="AR9">
-        <v>5.7222222222222197</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="AS9">
-        <v>1.7222222222222201</v>
+        <v>1.944444444444444</v>
       </c>
       <c r="AT9">
-        <v>1.1111111111111101</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="AU9">
-        <v>7.4444444444444402</v>
+        <v>8.111111111111111</v>
       </c>
       <c r="AV9">
-        <v>105.611111111111</v>
+        <v>117.2777777777778</v>
       </c>
       <c r="AW9">
-        <v>1.1666666666666601</v>
+        <v>1.222222222222222</v>
+      </c>
+      <c r="AX9">
+        <v>17</v>
+      </c>
+      <c r="AY9">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
       </c>
       <c r="D10">
         <v>1983</v>
@@ -2360,34 +2299,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L10">
         <v>10</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O10">
         <v>57</v>
       </c>
       <c r="P10">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2399,25 +2338,25 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AC10">
         <v>13</v>
@@ -2426,16 +2365,16 @@
         <v>11</v>
       </c>
       <c r="AE10">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AF10">
-        <v>9200</v>
+        <v>9119</v>
       </c>
       <c r="AG10">
         <v>47</v>
       </c>
       <c r="AH10">
-        <v>1715</v>
+        <v>1523</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -2447,51 +2386,57 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1.02857142857142</v>
+        <v>1.057142857142857</v>
       </c>
       <c r="AM10">
-        <v>0.71428571428571397</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="AN10">
-        <v>1.74285714285714</v>
+        <v>1.828571428571429</v>
       </c>
       <c r="AO10">
-        <v>0.28571428571428498</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AP10">
-        <v>0.51428571428571401</v>
+        <v>0.6</v>
       </c>
       <c r="AQ10">
-        <v>0.8</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="AR10">
-        <v>1.6285714285714199</v>
+        <v>1.628571428571429</v>
       </c>
       <c r="AS10">
-        <v>3.8571428571428501</v>
+        <v>3.942857142857143</v>
       </c>
       <c r="AT10">
-        <v>2.5714285714285698</v>
+        <v>2.657142857142857</v>
       </c>
       <c r="AU10">
-        <v>5.4857142857142804</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="AV10">
-        <v>262.85714285714198</v>
+        <v>260.5428571428571</v>
       </c>
       <c r="AW10">
-        <v>1.3428571428571401</v>
+        <v>1.342857142857143</v>
+      </c>
+      <c r="AX10">
+        <v>56</v>
+      </c>
+      <c r="AY10">
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
       </c>
       <c r="D11">
         <v>2001</v>
@@ -2500,34 +2445,34 @@
         <v>17</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M11">
         <v>8</v>
       </c>
       <c r="N11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11">
         <v>15</v>
@@ -2536,111 +2481,117 @@
         <v>5</v>
       </c>
       <c r="R11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>1</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z11">
         <v>1</v>
       </c>
       <c r="AA11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AF11">
-        <v>564</v>
+        <v>678</v>
       </c>
       <c r="AG11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH11">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AI11">
-        <v>1.1764705882352899</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="AJ11">
-        <v>0.17647058823529399</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="AK11">
-        <v>1.3529411764705801</v>
+        <v>1.470588235294118</v>
       </c>
       <c r="AL11">
-        <v>0.29411764705882298</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="AM11">
-        <v>5.8823529411764698E-2</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="AN11">
-        <v>0.35294117647058798</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="AO11">
-        <v>0.47058823529411697</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AP11">
-        <v>0.47058823529411697</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="AQ11">
-        <v>0.94117647058823495</v>
+        <v>1.058823529411765</v>
       </c>
       <c r="AR11">
-        <v>2.1176470588235201</v>
+        <v>2.176470588235294</v>
       </c>
       <c r="AS11">
-        <v>0.88235294117647001</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="AT11">
-        <v>0.29411764705882298</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="AU11">
-        <v>3</v>
+        <v>3.058823529411764</v>
       </c>
       <c r="AV11">
-        <v>33.176470588235297</v>
+        <v>39.88235294117647</v>
       </c>
       <c r="AW11">
-        <v>0.82352941176470495</v>
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="AX11">
+        <v>2</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
       </c>
       <c r="D12">
         <v>2009</v>
@@ -2700,22 +2651,22 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2724,72 +2675,78 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF12">
-        <v>143</v>
+        <v>417</v>
       </c>
       <c r="AG12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH12">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="AI12">
-        <v>0.33333333333333298</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AJ12">
-        <v>0.22222222222222199</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AK12">
-        <v>0.55555555555555503</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0.11111111111111099</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AN12">
-        <v>0.11111111111111099</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AO12">
-        <v>1.3333333333333299</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AP12">
-        <v>0.33333333333333298</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ12">
-        <v>1.6666666666666601</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AR12">
-        <v>4.2222222222222197</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="AS12">
-        <v>0.11111111111111099</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AT12">
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>4.3333333333333304</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="AV12">
-        <v>15.8888888888888</v>
+        <v>46.33333333333334</v>
       </c>
       <c r="AW12">
-        <v>0.55555555555555503</v>
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
       </c>
       <c r="D13">
         <v>2012</v>
@@ -2807,138 +2764,144 @@
         <v>16</v>
       </c>
       <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>15</v>
+      </c>
+      <c r="L13">
+        <v>34</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>54</v>
+      </c>
+      <c r="O13">
+        <v>120</v>
+      </c>
+      <c r="P13">
+        <v>33</v>
+      </c>
+      <c r="Q13">
+        <v>17</v>
+      </c>
+      <c r="R13">
+        <v>153</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <v>11</v>
+      </c>
+      <c r="Y13">
+        <v>19</v>
+      </c>
+      <c r="Z13">
+        <v>17</v>
+      </c>
+      <c r="AA13">
+        <v>36</v>
+      </c>
+      <c r="AB13">
+        <v>38</v>
+      </c>
+      <c r="AC13">
+        <v>11</v>
+      </c>
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13">
+        <v>49</v>
+      </c>
+      <c r="AF13">
+        <v>1977</v>
+      </c>
+      <c r="AG13">
+        <v>22</v>
+      </c>
+      <c r="AH13">
+        <v>807</v>
+      </c>
+      <c r="AI13">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="AJ13">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AK13">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="AL13">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AM13">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AN13">
+        <v>2.5</v>
+      </c>
+      <c r="AO13">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AP13">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="AQ13">
+        <v>9</v>
+      </c>
+      <c r="AR13">
+        <v>20</v>
+      </c>
+      <c r="AS13">
+        <v>5.5</v>
+      </c>
+      <c r="AT13">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="AU13">
+        <v>25.5</v>
+      </c>
+      <c r="AV13">
+        <v>329.5</v>
+      </c>
+      <c r="AW13">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="AX13">
+        <v>11</v>
+      </c>
+      <c r="AY13">
         <v>6</v>
       </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>9</v>
-      </c>
-      <c r="L13">
-        <v>24</v>
-      </c>
-      <c r="M13">
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <v>38</v>
-      </c>
-      <c r="O13">
-        <v>105</v>
-      </c>
-      <c r="P13">
-        <v>31</v>
-      </c>
-      <c r="Q13">
-        <v>16</v>
-      </c>
-      <c r="R13">
-        <v>136</v>
-      </c>
-      <c r="S13">
-        <v>3</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>6</v>
-      </c>
-      <c r="V13">
-        <v>4</v>
-      </c>
-      <c r="W13">
-        <v>3</v>
-      </c>
-      <c r="X13">
-        <v>7</v>
-      </c>
-      <c r="Y13">
-        <v>15</v>
-      </c>
-      <c r="Z13">
-        <v>14</v>
-      </c>
-      <c r="AA13">
-        <v>29</v>
-      </c>
-      <c r="AB13">
-        <v>31</v>
-      </c>
-      <c r="AC13">
-        <v>13</v>
-      </c>
-      <c r="AD13">
-        <v>9</v>
-      </c>
-      <c r="AE13">
-        <v>44</v>
-      </c>
-      <c r="AF13">
-        <v>1702</v>
-      </c>
-      <c r="AG13">
-        <v>21</v>
-      </c>
-      <c r="AH13">
-        <v>785</v>
-      </c>
-      <c r="AI13">
-        <v>1.8333333333333299</v>
-      </c>
-      <c r="AJ13">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AK13">
-        <v>2.6666666666666599</v>
-      </c>
-      <c r="AL13">
-        <v>1</v>
-      </c>
-      <c r="AM13">
-        <v>0.5</v>
-      </c>
-      <c r="AN13">
-        <v>1.5</v>
-      </c>
-      <c r="AO13">
-        <v>4</v>
-      </c>
-      <c r="AP13">
-        <v>2.3333333333333299</v>
-      </c>
-      <c r="AQ13">
-        <v>6.3333333333333304</v>
-      </c>
-      <c r="AR13">
-        <v>17.5</v>
-      </c>
-      <c r="AS13">
-        <v>5.1666666666666599</v>
-      </c>
-      <c r="AT13">
-        <v>2.6666666666666599</v>
-      </c>
-      <c r="AU13">
-        <v>22.6666666666666</v>
-      </c>
-      <c r="AV13">
-        <v>283.666666666666</v>
-      </c>
-      <c r="AW13">
-        <v>3.5</v>
-      </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
       </c>
       <c r="D14">
         <v>2006</v>
@@ -2956,34 +2919,34 @@
         <v>12</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>14</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O14">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q14">
         <v>4</v>
       </c>
       <c r="R14">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2995,43 +2958,43 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y14">
         <v>9</v>
       </c>
       <c r="Z14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA14">
+        <v>14</v>
+      </c>
+      <c r="AB14">
+        <v>16</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>17</v>
+      </c>
+      <c r="AF14">
+        <v>648</v>
+      </c>
+      <c r="AG14">
         <v>12</v>
       </c>
-      <c r="AB14">
-        <v>23</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>23</v>
-      </c>
-      <c r="AF14">
-        <v>592</v>
-      </c>
-      <c r="AG14">
-        <v>11</v>
-      </c>
       <c r="AH14">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="AI14">
         <v>0.75</v>
@@ -3043,51 +3006,57 @@
         <v>1</v>
       </c>
       <c r="AL14">
-        <v>0.66666666666666596</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AM14">
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>0.66666666666666596</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AO14">
-        <v>1.1666666666666601</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AQ14">
-        <v>1.6666666666666601</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="AR14">
-        <v>4.0833333333333304</v>
+        <v>4.5</v>
       </c>
       <c r="AS14">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="AT14">
-        <v>0.33333333333333298</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AU14">
-        <v>4.5833333333333304</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="AV14">
-        <v>49.3333333333333</v>
+        <v>54</v>
       </c>
       <c r="AW14">
-        <v>0.91666666666666596</v>
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
       </c>
       <c r="D15">
         <v>2003</v>
@@ -3099,10 +3068,10 @@
         <v>17</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -3114,16 +3083,16 @@
         <v>21</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O15">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="P15">
         <v>26</v>
@@ -3132,7 +3101,7 @@
         <v>14</v>
       </c>
       <c r="R15">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -3147,49 +3116,49 @@
         <v>1</v>
       </c>
       <c r="W15">
+        <v>4</v>
+      </c>
+      <c r="X15">
         <v>5</v>
-      </c>
-      <c r="X15">
-        <v>6</v>
       </c>
       <c r="Y15">
         <v>7</v>
       </c>
       <c r="Z15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA15">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB15">
         <v>24</v>
       </c>
       <c r="AC15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AF15">
-        <v>1404</v>
+        <v>1556</v>
       </c>
       <c r="AG15">
         <v>17</v>
       </c>
       <c r="AH15">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="AI15">
-        <v>1.13333333333333</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="AJ15">
-        <v>1.06666666666666</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="AK15">
-        <v>2.2000000000000002</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="AL15">
         <v>1</v>
@@ -3201,42 +3170,48 @@
         <v>1.4</v>
       </c>
       <c r="AO15">
-        <v>2.93333333333333</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="AP15">
-        <v>1.4666666666666599</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="AQ15">
-        <v>4.4000000000000004</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AR15">
-        <v>6.6</v>
+        <v>7.266666666666667</v>
       </c>
       <c r="AS15">
-        <v>1.7333333333333301</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="AT15">
-        <v>0.93333333333333302</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="AU15">
-        <v>8.3333333333333304</v>
+        <v>9</v>
       </c>
       <c r="AV15">
-        <v>93.6</v>
+        <v>103.7333333333333</v>
       </c>
       <c r="AW15">
-        <v>1.13333333333333</v>
+        <v>1.133333333333333</v>
+      </c>
+      <c r="AX15">
+        <v>9</v>
+      </c>
+      <c r="AY15">
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
       </c>
       <c r="D16">
         <v>2013</v>
@@ -3263,73 +3238,73 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O16">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q16">
+        <v>11</v>
+      </c>
+      <c r="R16">
+        <v>48</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>8</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>8</v>
+      </c>
+      <c r="AB16">
         <v>9</v>
       </c>
-      <c r="R16">
-        <v>43</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>3</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>3</v>
-      </c>
-      <c r="Y16">
-        <v>6</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>6</v>
-      </c>
-      <c r="AB16">
-        <v>10</v>
-      </c>
       <c r="AC16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16">
-        <v>822</v>
+        <v>930</v>
       </c>
       <c r="AG16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH16">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AI16">
         <v>0.4</v>
@@ -3350,42 +3325,48 @@
         <v>0.6</v>
       </c>
       <c r="AO16">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AP16">
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AR16">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AS16">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AT16">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AU16">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AV16">
-        <v>164.4</v>
+        <v>186</v>
       </c>
       <c r="AW16">
-        <v>2</v>
+        <v>2.2</v>
+      </c>
+      <c r="AX16">
+        <v>11</v>
+      </c>
+      <c r="AY16">
+        <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51">
       <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
       </c>
       <c r="D17">
         <v>2004</v>
@@ -3397,49 +3378,49 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17">
         <v>18</v>
       </c>
       <c r="J17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L17">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N17">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O17">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="P17">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R17">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17">
         <v>2</v>
@@ -3451,90 +3432,96 @@
         <v>8</v>
       </c>
       <c r="Y17">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Z17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA17">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AB17">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AC17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE17">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AF17">
-        <v>1331</v>
+        <v>1501</v>
       </c>
       <c r="AG17">
         <v>20</v>
       </c>
       <c r="AH17">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="AI17">
-        <v>0.28571428571428498</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AJ17">
-        <v>1.71428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="AK17">
-        <v>2</v>
+        <v>2.071428571428572</v>
       </c>
       <c r="AL17">
-        <v>1.28571428571428</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="AM17">
-        <v>0.78571428571428503</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="AN17">
-        <v>2.0714285714285698</v>
+        <v>2.214285714285714</v>
       </c>
       <c r="AO17">
-        <v>6.5714285714285703</v>
+        <v>6.642857142857143</v>
       </c>
       <c r="AP17">
-        <v>3.2857142857142798</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="AQ17">
-        <v>9.8571428571428505</v>
+        <v>10.21428571428571</v>
       </c>
       <c r="AR17">
-        <v>12.0714285714285</v>
+        <v>12.57142857142857</v>
       </c>
       <c r="AS17">
-        <v>2.4285714285714199</v>
+        <v>3</v>
       </c>
       <c r="AT17">
-        <v>0.57142857142857095</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AU17">
-        <v>14.5</v>
+        <v>15.57142857142857</v>
       </c>
       <c r="AV17">
-        <v>95.071428571428498</v>
+        <v>107.2142857142857</v>
       </c>
       <c r="AW17">
-        <v>1.4285714285714199</v>
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AX17">
+        <v>7</v>
+      </c>
+      <c r="AY17">
+        <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51">
       <c r="A18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
       </c>
       <c r="D18">
         <v>1996</v>
@@ -3552,25 +3539,25 @@
         <v>23</v>
       </c>
       <c r="I18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18">
         <v>18</v>
       </c>
       <c r="N18">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O18">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18">
         <v>11</v>
@@ -3579,111 +3566,117 @@
         <v>8</v>
       </c>
       <c r="R18">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V18">
         <v>2</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB18">
         <v>7</v>
       </c>
       <c r="AC18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF18">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="AG18">
         <v>14</v>
       </c>
       <c r="AH18">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="AI18">
         <v>0.5</v>
       </c>
       <c r="AJ18">
-        <v>0.54545454545454497</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="AK18">
-        <v>1.0454545454545401</v>
+        <v>1.045454545454545</v>
       </c>
       <c r="AL18">
-        <v>0.81818181818181801</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="AM18">
-        <v>0.31818181818181801</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AN18">
-        <v>1.13636363636363</v>
+        <v>1.227272727272727</v>
       </c>
       <c r="AO18">
-        <v>1.27272727272727</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="AP18">
-        <v>0.81818181818181801</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="AQ18">
-        <v>2.0909090909090899</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="AR18">
-        <v>2.22727272727272</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="AS18">
         <v>0.5</v>
       </c>
       <c r="AT18">
-        <v>0.36363636363636298</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AU18">
-        <v>2.72727272727272</v>
+        <v>2.772727272727273</v>
       </c>
       <c r="AV18">
-        <v>27.909090909090899</v>
+        <v>28.77272727272727</v>
       </c>
       <c r="AW18">
-        <v>0.63636363636363602</v>
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="AX18">
+        <v>3</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51">
       <c r="A19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
       </c>
       <c r="D19">
         <v>1998</v>
@@ -3704,31 +3697,31 @@
         <v>25</v>
       </c>
       <c r="J19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K19">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N19">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O19">
         <v>54</v>
       </c>
       <c r="P19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q19">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R19">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -3743,40 +3736,40 @@
         <v>2</v>
       </c>
       <c r="W19">
+        <v>7</v>
+      </c>
+      <c r="X19">
+        <v>9</v>
+      </c>
+      <c r="Y19">
         <v>6</v>
       </c>
-      <c r="X19">
-        <v>8</v>
-      </c>
-      <c r="Y19">
-        <v>4</v>
-      </c>
       <c r="Z19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA19">
         <v>15</v>
       </c>
       <c r="AB19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AC19">
+        <v>17</v>
+      </c>
+      <c r="AD19">
         <v>15</v>
       </c>
-      <c r="AD19">
-        <v>14</v>
-      </c>
       <c r="AE19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF19">
-        <v>1055</v>
+        <v>1164</v>
       </c>
       <c r="AG19">
         <v>17</v>
       </c>
       <c r="AH19">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="AI19">
         <v>0.1</v>
@@ -3791,48 +3784,54 @@
         <v>1.25</v>
       </c>
       <c r="AM19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AN19">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AO19">
-        <v>2.4500000000000002</v>
+        <v>2.65</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ19">
-        <v>4.45</v>
+        <v>4.85</v>
       </c>
       <c r="AR19">
         <v>2.7</v>
       </c>
       <c r="AS19">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AT19">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AU19">
-        <v>5.95</v>
+        <v>6.3</v>
       </c>
       <c r="AV19">
-        <v>52.75</v>
+        <v>58.2</v>
       </c>
       <c r="AW19">
         <v>0.85</v>
       </c>
+      <c r="AX19">
+        <v>11</v>
+      </c>
+      <c r="AY19">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51">
       <c r="A20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>105</v>
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
       </c>
       <c r="D20">
         <v>2009</v>
@@ -3841,13 +3840,13 @@
         <v>9</v>
       </c>
       <c r="F20">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I20">
         <v>9</v>
@@ -3859,55 +3858,55 @@
         <v>13</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N20">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="O20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R20">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U20">
+        <v>6</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
         <v>5</v>
       </c>
-      <c r="V20">
-        <v>3</v>
-      </c>
-      <c r="W20">
-        <v>3</v>
-      </c>
-      <c r="X20">
+      <c r="Y20">
         <v>6</v>
       </c>
-      <c r="Y20">
-        <v>7</v>
-      </c>
       <c r="Z20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB20">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AC20">
         <v>5</v>
@@ -3916,69 +3915,75 @@
         <v>3</v>
       </c>
       <c r="AE20">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AF20">
-        <v>1138</v>
+        <v>1229</v>
       </c>
       <c r="AG20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH20">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="AI20">
-        <v>2.55555555555555</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AJ20">
-        <v>0.77777777777777701</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="AK20">
-        <v>3.3333333333333299</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
-        <v>0.44444444444444398</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AN20">
-        <v>1.44444444444444</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="AO20">
-        <v>2.4444444444444402</v>
+        <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.77777777777777701</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="AQ20">
-        <v>3.2222222222222201</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AR20">
-        <v>5.55555555555555</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="AS20">
-        <v>1.88888888888888</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="AT20">
-        <v>1.44444444444444</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AU20">
-        <v>7.4444444444444402</v>
+        <v>7.888888888888889</v>
       </c>
       <c r="AV20">
-        <v>126.444444444444</v>
+        <v>136.5555555555555</v>
       </c>
       <c r="AW20">
-        <v>1.44444444444444</v>
+        <v>1.555555555555556</v>
+      </c>
+      <c r="AX20">
+        <v>8</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51">
       <c r="A21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>107</v>
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
       </c>
       <c r="D21">
         <v>1989</v>
@@ -3999,22 +4004,22 @@
         <v>11</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L21">
         <v>22</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O21">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P21">
         <v>27</v>
@@ -4023,7 +4028,7 @@
         <v>14</v>
       </c>
       <c r="R21">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -4038,10 +4043,10 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <v>1</v>
@@ -4053,13 +4058,13 @@
         <v>2</v>
       </c>
       <c r="AB21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE21">
         <v>5</v>
@@ -4074,45 +4079,51 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>0.37931034482758602</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="AM21">
-        <v>0.13793103448275801</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="AN21">
-        <v>0.51724137931034397</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="AO21">
-        <v>0.75862068965517204</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="AP21">
-        <v>0.51724137931034397</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="AQ21">
-        <v>1.27586206896551</v>
+        <v>1.310344827586207</v>
       </c>
       <c r="AR21">
-        <v>1.3103448275862</v>
+        <v>1.344827586206897</v>
       </c>
       <c r="AS21">
-        <v>0.93103448275862</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="AT21">
-        <v>0.48275862068965503</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="AU21">
-        <v>2.2413793103448199</v>
+        <v>2.275862068965517</v>
+      </c>
+      <c r="AX21">
+        <v>9</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51">
       <c r="A22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
       </c>
       <c r="D22">
         <v>2009</v>
@@ -4133,31 +4144,31 @@
         <v>10</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
+        <v>11</v>
+      </c>
+      <c r="L22">
+        <v>52</v>
+      </c>
+      <c r="M22">
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <v>64</v>
+      </c>
+      <c r="O22">
+        <v>76</v>
+      </c>
+      <c r="P22">
         <v>10</v>
-      </c>
-      <c r="L22">
-        <v>46</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
-      <c r="N22">
-        <v>56</v>
-      </c>
-      <c r="O22">
-        <v>61</v>
-      </c>
-      <c r="P22">
-        <v>9</v>
       </c>
       <c r="Q22">
         <v>4</v>
       </c>
       <c r="R22">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -4169,99 +4180,105 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y22">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA22">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB22">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AC22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD22">
         <v>1</v>
       </c>
       <c r="AE22">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AF22">
-        <v>356</v>
+        <v>448</v>
       </c>
       <c r="AG22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH22">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="AI22">
-        <v>0.66666666666666596</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AJ22">
         <v>0</v>
       </c>
       <c r="AK22">
-        <v>0.66666666666666596</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AL22">
-        <v>1.1111111111111101</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AN22">
-        <v>1.1111111111111101</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="AO22">
-        <v>5.1111111111111098</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="AP22">
-        <v>1.1111111111111101</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AQ22">
-        <v>6.2222222222222197</v>
+        <v>7.111111111111111</v>
       </c>
       <c r="AR22">
-        <v>6.7777777777777697</v>
+        <v>8.444444444444445</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="AT22">
-        <v>0.44444444444444398</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AU22">
-        <v>7.7777777777777697</v>
+        <v>9.555555555555555</v>
       </c>
       <c r="AV22">
-        <v>39.5555555555555</v>
+        <v>49.77777777777778</v>
       </c>
       <c r="AW22">
-        <v>1.1111111111111101</v>
+        <v>1.222222222222222</v>
+      </c>
+      <c r="AX22">
+        <v>4</v>
+      </c>
+      <c r="AY22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>113</v>
+      <c r="C23" t="s">
+        <v>149</v>
       </c>
       <c r="D23">
         <v>1996</v>
@@ -4279,34 +4296,34 @@
         <v>16</v>
       </c>
       <c r="I23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23">
         <v>9</v>
       </c>
       <c r="K23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L23">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N23">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O23">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P23">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q23">
         <v>22</v>
       </c>
       <c r="R23">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -4318,10 +4335,10 @@
         <v>2</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X23">
         <v>3</v>
@@ -4336,10 +4353,10 @@
         <v>16</v>
       </c>
       <c r="AB23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD23">
         <v>3</v>
@@ -4348,69 +4365,75 @@
         <v>13</v>
       </c>
       <c r="AF23">
-        <v>1340</v>
+        <v>2201</v>
       </c>
       <c r="AG23">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AH23">
-        <v>445</v>
+        <v>774</v>
       </c>
       <c r="AI23">
-        <v>0.13636363636363599</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="AJ23">
-        <v>0.59090909090909005</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="AK23">
-        <v>0.72727272727272696</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AL23">
-        <v>1.0909090909090899</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="AM23">
-        <v>0.40909090909090901</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AN23">
-        <v>1.5</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="AO23">
-        <v>3.0909090909090899</v>
+        <v>3.227272727272727</v>
       </c>
       <c r="AP23">
-        <v>1.1818181818181801</v>
+        <v>1.227272727272727</v>
       </c>
       <c r="AQ23">
-        <v>4.2727272727272698</v>
+        <v>4.454545454545454</v>
       </c>
       <c r="AR23">
-        <v>5.8181818181818103</v>
+        <v>5.863636363636363</v>
       </c>
       <c r="AS23">
-        <v>1.6818181818181801</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="AT23">
         <v>1</v>
       </c>
       <c r="AU23">
-        <v>7.5</v>
+        <v>7.590909090909091</v>
       </c>
       <c r="AV23">
-        <v>60.909090909090899</v>
+        <v>100.0454545454545</v>
       </c>
       <c r="AW23">
-        <v>0.86363636363636298</v>
+        <v>1.181818181818182</v>
+      </c>
+      <c r="AX23">
+        <v>21</v>
+      </c>
+      <c r="AY23">
+        <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51">
       <c r="A24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>150</v>
       </c>
       <c r="D24">
         <v>2010</v>
@@ -4422,31 +4445,31 @@
         <v>6</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L24">
         <v>16</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N24">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P24">
         <v>12</v>
@@ -4455,85 +4478,85 @@
         <v>9</v>
       </c>
       <c r="R24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
         <v>4</v>
       </c>
-      <c r="Y24">
-        <v>6</v>
-      </c>
       <c r="Z24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
         <v>5</v>
       </c>
       <c r="AF24">
-        <v>838</v>
+        <v>751</v>
       </c>
       <c r="AG24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AH24">
-        <v>359</v>
+        <v>236</v>
       </c>
       <c r="AI24">
         <v>0.75</v>
       </c>
       <c r="AJ24">
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="AK24">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="AM24">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AN24">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO24">
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="AQ24">
-        <v>3.5</v>
+        <v>3.875</v>
       </c>
       <c r="AR24">
-        <v>2.125</v>
+        <v>2.25</v>
       </c>
       <c r="AS24">
         <v>1.5</v>
@@ -4542,24 +4565,30 @@
         <v>1.125</v>
       </c>
       <c r="AU24">
-        <v>3.625</v>
+        <v>3.75</v>
       </c>
       <c r="AV24">
-        <v>104.75</v>
+        <v>93.875</v>
       </c>
       <c r="AW24">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>8</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51">
       <c r="A25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
       </c>
       <c r="D25">
         <v>2006</v>
@@ -4571,144 +4600,150 @@
         <v>14</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25">
         <v>19</v>
       </c>
       <c r="J25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L25">
         <v>35</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N25">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O25">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P25">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R25">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="S25">
         <v>1</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>6</v>
       </c>
       <c r="X25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA25">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AB25">
         <v>15</v>
       </c>
       <c r="AC25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF25">
-        <v>1615</v>
+        <v>1805</v>
       </c>
       <c r="AG25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH25">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="AI25">
-        <v>1.1666666666666601</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="AJ25">
-        <v>0.58333333333333304</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AK25">
-        <v>1.75</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="AL25">
-        <v>1.5833333333333299</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="AM25">
-        <v>0.66666666666666596</v>
+        <v>0.75</v>
       </c>
       <c r="AN25">
-        <v>2.25</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AO25">
-        <v>2.9166666666666599</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="AP25">
-        <v>1.3333333333333299</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="AQ25">
-        <v>4.25</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="AR25">
-        <v>10.9166666666666</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="AS25">
-        <v>2.6666666666666599</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="AT25">
-        <v>1.1666666666666601</v>
+        <v>1.5</v>
       </c>
       <c r="AU25">
-        <v>13.5833333333333</v>
+        <v>14.41666666666667</v>
       </c>
       <c r="AV25">
-        <v>134.583333333333</v>
+        <v>150.4166666666667</v>
       </c>
       <c r="AW25">
-        <v>1.75</v>
+        <v>1.833333333333333</v>
+      </c>
+      <c r="AX25">
+        <v>11</v>
+      </c>
+      <c r="AY25">
+        <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
       </c>
       <c r="D26">
         <v>2003</v>
@@ -4768,19 +4803,19 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <v>2</v>
@@ -4795,69 +4830,75 @@
         <v>3</v>
       </c>
       <c r="AF26">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="AG26">
         <v>9</v>
       </c>
       <c r="AH26">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AI26">
-        <v>6.6666666666666596E-2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AJ26">
-        <v>0.46666666666666601</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AK26">
-        <v>0.53333333333333299</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AL26">
-        <v>0.73333333333333295</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="AM26">
-        <v>0.133333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AN26">
-        <v>0.86666666666666603</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AO26">
         <v>0.8</v>
       </c>
       <c r="AP26">
-        <v>0.33333333333333298</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ26">
-        <v>1.13333333333333</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="AR26">
-        <v>1.13333333333333</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="AS26">
-        <v>0.93333333333333302</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="AT26">
-        <v>0.66666666666666596</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AU26">
-        <v>2.0666666666666602</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="AV26">
-        <v>19.6666666666666</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="AW26">
         <v>0.6</v>
       </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51">
       <c r="A27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>125</v>
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
       </c>
       <c r="D27">
         <v>1994</v>
@@ -4878,31 +4919,31 @@
         <v>24</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N27">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O27">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P27">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R27">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -4917,96 +4958,102 @@
         <v>4</v>
       </c>
       <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>6</v>
+      </c>
+      <c r="Z27">
         <v>4</v>
       </c>
-      <c r="X27">
-        <v>8</v>
-      </c>
-      <c r="Y27">
-        <v>4</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
       <c r="AA27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AB27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC27">
         <v>8</v>
       </c>
       <c r="AD27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE27">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF27">
-        <v>1067</v>
+        <v>1144</v>
       </c>
       <c r="AG27">
         <v>16</v>
       </c>
       <c r="AH27">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="AI27">
         <v>0.375</v>
       </c>
       <c r="AJ27">
-        <v>0.16666666666666599</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AK27">
-        <v>0.54166666666666596</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
-        <v>0.29166666666666602</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AN27">
-        <v>1.2916666666666601</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AO27">
-        <v>0.91666666666666596</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="AP27">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AQ27">
-        <v>1.6666666666666601</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="AR27">
-        <v>2.9583333333333299</v>
+        <v>3.041666666666667</v>
       </c>
       <c r="AS27">
-        <v>0.95833333333333304</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="AT27">
-        <v>0.83333333333333304</v>
+        <v>0.875</v>
       </c>
       <c r="AU27">
-        <v>3.9166666666666599</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="AV27">
-        <v>44.4583333333333</v>
+        <v>47.66666666666666</v>
       </c>
       <c r="AW27">
-        <v>0.66666666666666596</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AX27">
+        <v>11</v>
+      </c>
+      <c r="AY27">
+        <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51">
       <c r="A28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
       </c>
       <c r="D28">
         <v>2011</v>
@@ -5042,7 +5089,7 @@
         <v>3</v>
       </c>
       <c r="O28">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P28">
         <v>3</v>
@@ -5051,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -5072,16 +5119,16 @@
         <v>2</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
       <c r="AA28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB28">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AC28">
         <v>1</v>
@@ -5090,72 +5137,78 @@
         <v>1</v>
       </c>
       <c r="AE28">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AF28">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="AG28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH28">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="AI28">
-        <v>0.57142857142857095</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AJ28">
-        <v>0.42857142857142799</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AK28">
         <v>1</v>
       </c>
       <c r="AL28">
-        <v>0.42857142857142799</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AM28">
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>0.42857142857142799</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AO28">
-        <v>0.28571428571428498</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AP28">
-        <v>0.14285714285714199</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AQ28">
-        <v>0.42857142857142799</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AR28">
-        <v>2.71428571428571</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="AS28">
-        <v>0.42857142857142799</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AT28">
-        <v>0.14285714285714199</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AU28">
-        <v>3.1428571428571401</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="AV28">
-        <v>21</v>
+        <v>27.85714285714286</v>
       </c>
       <c r="AW28">
-        <v>1</v>
+        <v>1.142857142857143</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51">
       <c r="A29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>131</v>
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
       </c>
       <c r="D29">
         <v>2006</v>
@@ -5173,13 +5226,13 @@
         <v>12</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -5191,7 +5244,7 @@
         <v>8</v>
       </c>
       <c r="O29">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P29">
         <v>14</v>
@@ -5200,25 +5253,25 @@
         <v>7</v>
       </c>
       <c r="R29">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>1</v>
       </c>
       <c r="X29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -5230,81 +5283,87 @@
         <v>2</v>
       </c>
       <c r="AB29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF29">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AG29">
         <v>4</v>
       </c>
       <c r="AH29">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI29">
-        <v>0.66666666666666596</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AJ29">
-        <v>0.33333333333333298</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AK29">
         <v>1</v>
       </c>
       <c r="AL29">
-        <v>0.33333333333333298</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AM29">
-        <v>0.16666666666666599</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AN29">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="AO29">
-        <v>0.41666666666666602</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AP29">
         <v>0.25</v>
       </c>
       <c r="AQ29">
-        <v>0.66666666666666596</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AR29">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AS29">
-        <v>1.1666666666666601</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="AT29">
-        <v>0.58333333333333304</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="AU29">
-        <v>2.6666666666666599</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="AV29">
-        <v>5.3333333333333304</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="AW29">
-        <v>0.33333333333333298</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51">
       <c r="A30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>134</v>
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>156</v>
       </c>
       <c r="D30">
         <v>2011</v>
@@ -5313,13 +5372,13 @@
         <v>7</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5343,117 +5402,123 @@
         <v>28</v>
       </c>
       <c r="P30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q30">
         <v>9</v>
       </c>
       <c r="R30">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
         <v>4</v>
       </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30">
+      <c r="AC30">
+        <v>7</v>
+      </c>
+      <c r="AD30">
         <v>5</v>
       </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>2</v>
-      </c>
-      <c r="Y30">
-        <v>2</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>2</v>
-      </c>
-      <c r="AB30">
-        <v>7</v>
-      </c>
-      <c r="AC30">
-        <v>9</v>
-      </c>
-      <c r="AD30">
-        <v>7</v>
-      </c>
       <c r="AE30">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AF30">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AG30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH30">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AI30">
-        <v>2</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="AJ30">
-        <v>0.42857142857142799</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AK30">
-        <v>2.4285714285714199</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="AL30">
-        <v>0.14285714285714199</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AM30">
-        <v>0.14285714285714199</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AN30">
-        <v>0.28571428571428498</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AO30">
-        <v>0.28571428571428498</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AP30">
         <v>0</v>
       </c>
       <c r="AQ30">
-        <v>0.28571428571428498</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR30">
         <v>4</v>
       </c>
       <c r="AS30">
-        <v>1.5714285714285701</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="AT30">
-        <v>1.28571428571428</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="AU30">
-        <v>5.5714285714285703</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="AV30">
-        <v>60.857142857142797</v>
+        <v>68.14285714285714</v>
       </c>
       <c r="AW30">
-        <v>1.5714285714285701</v>
+        <v>1.714285714285714</v>
+      </c>
+      <c r="AX30">
+        <v>5</v>
+      </c>
+      <c r="AY30">
+        <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51">
       <c r="A31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>137</v>
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
       </c>
       <c r="D31">
         <v>2009</v>
@@ -5489,7 +5554,7 @@
         <v>14</v>
       </c>
       <c r="O31">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P31">
         <v>9</v>
@@ -5498,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="R31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -5522,87 +5587,93 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF31">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="AG31">
         <v>10</v>
       </c>
       <c r="AH31">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AI31">
-        <v>0.55555555555555503</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AJ31">
-        <v>0.22222222222222199</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AK31">
-        <v>0.77777777777777701</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="AL31">
-        <v>0.11111111111111099</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AM31">
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>0.11111111111111099</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AO31">
-        <v>0.77777777777777701</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="AP31">
-        <v>0.77777777777777701</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="AQ31">
-        <v>1.55555555555555</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="AR31">
-        <v>2.7777777777777701</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="AS31">
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>0.22222222222222199</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AU31">
-        <v>3.7777777777777701</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AV31">
-        <v>26.7777777777777</v>
+        <v>32.88888888888889</v>
       </c>
       <c r="AW31">
-        <v>1.1111111111111101</v>
+        <v>1.111111111111111</v>
+      </c>
+      <c r="AX31">
+        <v>1</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51">
       <c r="A32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
       </c>
       <c r="D32">
         <v>1989</v>
@@ -5614,144 +5685,150 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H32">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I32">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J32">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K32">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L32">
         <v>156</v>
       </c>
       <c r="M32">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N32">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O32">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="P32">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="R32">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X32">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y32">
         <v>1</v>
       </c>
       <c r="Z32">
+        <v>13</v>
+      </c>
+      <c r="AA32">
+        <v>14</v>
+      </c>
+      <c r="AB32">
+        <v>22</v>
+      </c>
+      <c r="AC32">
         <v>19</v>
       </c>
-      <c r="AA32">
-        <v>20</v>
-      </c>
-      <c r="AB32">
-        <v>28</v>
-      </c>
-      <c r="AC32">
-        <v>17</v>
-      </c>
       <c r="AD32">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE32">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AF32">
-        <v>2472</v>
+        <v>2764</v>
       </c>
       <c r="AG32">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH32">
-        <v>978</v>
+        <v>992</v>
       </c>
       <c r="AI32">
-        <v>6.8965517241379296E-2</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="AJ32">
-        <v>0.55172413793103403</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="AK32">
-        <v>0.62068965517241304</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="AL32">
-        <v>1.7586206896551699</v>
+        <v>1.793103448275862</v>
       </c>
       <c r="AM32">
-        <v>0.75862068965517204</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="AN32">
-        <v>2.5172413793103399</v>
+        <v>2.724137931034483</v>
       </c>
       <c r="AO32">
-        <v>5.3793103448275801</v>
+        <v>5.379310344827586</v>
       </c>
       <c r="AP32">
-        <v>3.7931034482758599</v>
+        <v>3.827586206896552</v>
       </c>
       <c r="AQ32">
-        <v>9.1724137931034395</v>
+        <v>9.206896551724139</v>
       </c>
       <c r="AR32">
-        <v>7.1724137931034404</v>
+        <v>7.448275862068965</v>
       </c>
       <c r="AS32">
-        <v>2.6551724137931001</v>
+        <v>2.896551724137931</v>
       </c>
       <c r="AT32">
-        <v>1.1034482758620601</v>
+        <v>1.275862068965517</v>
       </c>
       <c r="AU32">
-        <v>9.8275862068965498</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="AV32">
-        <v>85.241379310344797</v>
+        <v>95.31034482758621</v>
       </c>
       <c r="AW32">
-        <v>0.86206896551724099</v>
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="AX32">
+        <v>30</v>
+      </c>
+      <c r="AY32">
+        <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:51">
       <c r="A33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>143</v>
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
       </c>
       <c r="D33">
         <v>2009</v>
@@ -5769,64 +5846,64 @@
         <v>9</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33">
         <v>4</v>
       </c>
       <c r="N33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <v>11</v>
+      </c>
+      <c r="R33">
+        <v>29</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>7</v>
+      </c>
+      <c r="Z33">
+        <v>3</v>
+      </c>
+      <c r="AA33">
         <v>10</v>
       </c>
-      <c r="Q33">
-        <v>9</v>
-      </c>
-      <c r="R33">
-        <v>25</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>2</v>
-      </c>
-      <c r="Y33">
-        <v>6</v>
-      </c>
-      <c r="Z33">
-        <v>3</v>
-      </c>
-      <c r="AA33">
-        <v>9</v>
-      </c>
       <c r="AB33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC33">
         <v>5</v>
@@ -5835,72 +5912,78 @@
         <v>5</v>
       </c>
       <c r="AE33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF33">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="AG33">
         <v>7</v>
       </c>
       <c r="AH33">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="AI33">
-        <v>0.66666666666666596</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AJ33">
-        <v>0.33333333333333298</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AK33">
         <v>1</v>
       </c>
       <c r="AL33">
-        <v>0.77777777777777701</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="AM33">
         <v>0</v>
       </c>
       <c r="AN33">
-        <v>0.77777777777777701</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="AO33">
-        <v>1.88888888888888</v>
+        <v>2</v>
       </c>
       <c r="AP33">
-        <v>0.44444444444444398</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AQ33">
-        <v>2.3333333333333299</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="AR33">
-        <v>1.6666666666666601</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="AS33">
-        <v>1.1111111111111101</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="AU33">
-        <v>2.7777777777777701</v>
+        <v>3.222222222222222</v>
       </c>
       <c r="AV33">
-        <v>18.1111111111111</v>
+        <v>25</v>
       </c>
       <c r="AW33">
-        <v>0.77777777777777701</v>
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="AX33">
+        <v>9</v>
+      </c>
+      <c r="AY33">
+        <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:51">
       <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>160</v>
       </c>
       <c r="D34">
         <v>1983</v>
@@ -5918,34 +6001,34 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J34">
         <v>8</v>
       </c>
       <c r="K34">
+        <v>41</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>157</v>
+      </c>
+      <c r="P34">
         <v>40</v>
       </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>2</v>
-      </c>
-      <c r="O34">
-        <v>153</v>
-      </c>
-      <c r="P34">
-        <v>37</v>
-      </c>
       <c r="Q34">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R34">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -5957,10 +6040,10 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X34">
         <v>3</v>
@@ -5975,81 +6058,87 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE34">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AF34">
-        <v>1280</v>
+        <v>1425</v>
       </c>
       <c r="AG34">
         <v>19</v>
       </c>
       <c r="AH34">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AI34">
-        <v>8.5714285714285701E-2</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="AJ34">
         <v>0</v>
       </c>
       <c r="AK34">
-        <v>8.5714285714285701E-2</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="AL34">
-        <v>0.91428571428571404</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="AM34">
-        <v>0.22857142857142801</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="AN34">
-        <v>1.1428571428571399</v>
+        <v>1.171428571428571</v>
       </c>
       <c r="AO34">
-        <v>2.8571428571428501E-2</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="AP34">
-        <v>2.8571428571428501E-2</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="AQ34">
-        <v>5.7142857142857099E-2</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="AR34">
-        <v>4.3714285714285701</v>
+        <v>4.485714285714286</v>
       </c>
       <c r="AS34">
-        <v>1.0571428571428501</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AT34">
-        <v>0.628571428571428</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="AU34">
-        <v>5.4285714285714199</v>
+        <v>5.628571428571429</v>
       </c>
       <c r="AV34">
-        <v>36.571428571428498</v>
+        <v>40.71428571428572</v>
       </c>
       <c r="AW34">
-        <v>0.54285714285714204</v>
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="AX34">
+        <v>21</v>
+      </c>
+      <c r="AY34">
+        <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>149</v>
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>161</v>
       </c>
       <c r="D35">
         <v>1984</v>
@@ -6106,99 +6195,105 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35">
         <v>2</v>
       </c>
       <c r="X35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF35">
-        <v>1107</v>
+        <v>1145</v>
       </c>
       <c r="AG35">
         <v>20</v>
       </c>
       <c r="AH35">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AI35">
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>0.38235294117647001</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="AK35">
-        <v>0.38235294117647001</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="AL35">
-        <v>1.29411764705882</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="AM35">
-        <v>0.23529411764705799</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AN35">
-        <v>1.52941176470588</v>
+        <v>1.529411764705882</v>
       </c>
       <c r="AO35">
-        <v>0.26470588235294101</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="AP35">
-        <v>0.23529411764705799</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AQ35">
         <v>0.5</v>
       </c>
       <c r="AR35">
-        <v>3.3529411764705799</v>
+        <v>3.352941176470588</v>
       </c>
       <c r="AS35">
-        <v>0.61764705882352899</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="AT35">
-        <v>0.20588235294117599</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="AU35">
-        <v>3.9705882352941102</v>
+        <v>3.970588235294118</v>
       </c>
       <c r="AV35">
-        <v>32.558823529411697</v>
+        <v>33.6764705882353</v>
       </c>
       <c r="AW35">
-        <v>0.58823529411764697</v>
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="AX35">
+        <v>2</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>152</v>
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
       </c>
       <c r="D36">
         <v>1999</v>
@@ -6225,25 +6320,25 @@
         <v>13</v>
       </c>
       <c r="L36">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N36">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O36">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R36">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -6264,90 +6359,96 @@
         <v>2</v>
       </c>
       <c r="Y36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF36">
-        <v>1036</v>
+        <v>1125</v>
       </c>
       <c r="AG36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH36">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="AI36">
-        <v>0.21052631578947301</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AJ36">
-        <v>0.26315789473684198</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="AK36">
-        <v>0.47368421052631499</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AL36">
-        <v>0.47368421052631499</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AM36">
-        <v>0.21052631578947301</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AN36">
-        <v>0.68421052631578905</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AO36">
-        <v>2.5263157894736801</v>
+        <v>2.736842105263158</v>
       </c>
       <c r="AP36">
-        <v>1.84210526315789</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>4.3684210526315699</v>
+        <v>4.736842105263158</v>
       </c>
       <c r="AR36">
-        <v>2.3157894736842102</v>
+        <v>2.473684210526316</v>
       </c>
       <c r="AS36">
-        <v>0.89473684210526305</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="AT36">
-        <v>0.47368421052631499</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AU36">
-        <v>3.2105263157894699</v>
+        <v>3.526315789473684</v>
       </c>
       <c r="AV36">
-        <v>54.5263157894736</v>
+        <v>59.21052631578947</v>
       </c>
       <c r="AW36">
-        <v>0.94736842105263097</v>
+        <v>1</v>
+      </c>
+      <c r="AX36">
+        <v>11</v>
+      </c>
+      <c r="AY36">
+        <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>155</v>
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
       </c>
       <c r="D37">
         <v>2014</v>
@@ -6365,34 +6466,34 @@
         <v>6</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M37">
         <v>2</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O37">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P37">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R37">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -6404,43 +6505,43 @@
         <v>3</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37">
         <v>1</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z37">
         <v>2</v>
       </c>
       <c r="AA37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB37">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD37">
         <v>10</v>
       </c>
       <c r="AE37">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF37">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="AG37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH37">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="AI37">
         <v>0.5</v>
@@ -6452,51 +6553,57 @@
         <v>1.5</v>
       </c>
       <c r="AL37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM37">
         <v>0.25</v>
       </c>
       <c r="AN37">
+        <v>1.25</v>
+      </c>
+      <c r="AO37">
         <v>0.75</v>
-      </c>
-      <c r="AO37">
-        <v>0.25</v>
       </c>
       <c r="AP37">
         <v>0.5</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AS37">
-        <v>4.75</v>
+        <v>6.25</v>
       </c>
       <c r="AT37">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU37">
-        <v>11.75</v>
+        <v>14.75</v>
       </c>
       <c r="AV37">
-        <v>21.5</v>
+        <v>34</v>
       </c>
       <c r="AW37">
-        <v>1.25</v>
+        <v>1.75</v>
+      </c>
+      <c r="AX37">
+        <v>2</v>
+      </c>
+      <c r="AY37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:51">
       <c r="A38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>158</v>
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
       </c>
       <c r="D38">
         <v>2004</v>
@@ -6505,147 +6612,153 @@
         <v>14</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>25</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>29</v>
+      </c>
+      <c r="L38">
+        <v>28</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>33</v>
+      </c>
+      <c r="O38">
+        <v>77</v>
+      </c>
+      <c r="P38">
+        <v>28</v>
+      </c>
+      <c r="Q38">
+        <v>12</v>
+      </c>
+      <c r="R38">
+        <v>105</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>4</v>
+      </c>
+      <c r="W38">
+        <v>3</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <v>4</v>
+      </c>
+      <c r="Z38">
+        <v>3</v>
+      </c>
+      <c r="AA38">
+        <v>7</v>
+      </c>
+      <c r="AB38">
+        <v>13</v>
+      </c>
+      <c r="AC38">
+        <v>7</v>
+      </c>
+      <c r="AD38">
+        <v>4</v>
+      </c>
+      <c r="AE38">
+        <v>20</v>
+      </c>
+      <c r="AF38">
+        <v>1283</v>
+      </c>
+      <c r="AG38">
+        <v>19</v>
+      </c>
+      <c r="AH38">
+        <v>320</v>
+      </c>
+      <c r="AI38">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AJ38">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AK38">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AL38">
+        <v>1.785714285714286</v>
+      </c>
+      <c r="AM38">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AN38">
+        <v>2.071428571428572</v>
+      </c>
+      <c r="AO38">
+        <v>2</v>
+      </c>
+      <c r="AP38">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="AQ38">
+        <v>2.357142857142857</v>
+      </c>
+      <c r="AR38">
+        <v>5.5</v>
+      </c>
+      <c r="AS38">
+        <v>2</v>
+      </c>
+      <c r="AT38">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AU38">
+        <v>7.5</v>
+      </c>
+      <c r="AV38">
+        <v>91.64285714285714</v>
+      </c>
+      <c r="AW38">
+        <v>1.357142857142857</v>
+      </c>
+      <c r="AX38">
         <v>6</v>
       </c>
-      <c r="H38">
-        <v>14</v>
-      </c>
-      <c r="I38">
-        <v>24</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38">
-        <v>27</v>
-      </c>
-      <c r="L38">
-        <v>26</v>
-      </c>
-      <c r="M38">
-        <v>4</v>
-      </c>
-      <c r="N38">
-        <v>30</v>
-      </c>
-      <c r="O38">
-        <v>74</v>
-      </c>
-      <c r="P38">
-        <v>26</v>
-      </c>
-      <c r="Q38">
-        <v>10</v>
-      </c>
-      <c r="R38">
-        <v>100</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>5</v>
-      </c>
-      <c r="W38">
-        <v>3</v>
-      </c>
-      <c r="X38">
-        <v>8</v>
-      </c>
-      <c r="Y38">
-        <v>2</v>
-      </c>
-      <c r="Z38">
-        <v>3</v>
-      </c>
-      <c r="AA38">
-        <v>5</v>
-      </c>
-      <c r="AB38">
-        <v>11</v>
-      </c>
-      <c r="AC38">
-        <v>6</v>
-      </c>
-      <c r="AD38">
-        <v>2</v>
-      </c>
-      <c r="AE38">
-        <v>17</v>
-      </c>
-      <c r="AF38">
-        <v>1172</v>
-      </c>
-      <c r="AG38">
-        <v>18</v>
-      </c>
-      <c r="AH38">
-        <v>305</v>
-      </c>
-      <c r="AI38">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="AJ38">
-        <v>0.42857142857142799</v>
-      </c>
-      <c r="AK38">
-        <v>1</v>
-      </c>
-      <c r="AL38">
-        <v>1.71428571428571</v>
-      </c>
-      <c r="AM38">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="AN38">
-        <v>1.9285714285714199</v>
-      </c>
-      <c r="AO38">
-        <v>1.8571428571428501</v>
-      </c>
-      <c r="AP38">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="AQ38">
-        <v>2.1428571428571401</v>
-      </c>
-      <c r="AR38">
-        <v>5.2857142857142803</v>
-      </c>
-      <c r="AS38">
-        <v>1.8571428571428501</v>
-      </c>
-      <c r="AT38">
-        <v>0.71428571428571397</v>
-      </c>
-      <c r="AU38">
-        <v>7.1428571428571397</v>
-      </c>
-      <c r="AV38">
-        <v>83.714285714285694</v>
-      </c>
-      <c r="AW38">
-        <v>1.28571428571428</v>
+      <c r="AY38">
+        <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:51">
       <c r="A39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>161</v>
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
       </c>
       <c r="D39">
         <v>2004</v>
@@ -6663,13 +6776,13 @@
         <v>22</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K39">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L39">
         <v>15</v>
@@ -6681,7 +6794,7 @@
         <v>22</v>
       </c>
       <c r="O39">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P39">
         <v>16</v>
@@ -6690,7 +6803,7 @@
         <v>8</v>
       </c>
       <c r="R39">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -6702,13 +6815,13 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -6720,81 +6833,87 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF39">
-        <v>1181</v>
+        <v>1213</v>
       </c>
       <c r="AG39">
         <v>18</v>
       </c>
       <c r="AH39">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="AI39">
-        <v>0.92857142857142805</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="AJ39">
-        <v>0.64285714285714202</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AK39">
-        <v>1.5714285714285701</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="AL39">
-        <v>0.71428571428571397</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AM39">
-        <v>0.14285714285714199</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AN39">
-        <v>0.85714285714285698</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AO39">
-        <v>1.0714285714285701</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AP39">
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>1.5714285714285701</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="AR39">
-        <v>5.4285714285714199</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="AS39">
-        <v>1.1428571428571399</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AT39">
-        <v>0.57142857142857095</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AU39">
-        <v>6.5714285714285703</v>
+        <v>6.714285714285714</v>
       </c>
       <c r="AV39">
-        <v>84.357142857142804</v>
+        <v>86.64285714285714</v>
       </c>
       <c r="AW39">
-        <v>1.28571428571428</v>
+        <v>1.285714285714286</v>
+      </c>
+      <c r="AX39">
+        <v>7</v>
+      </c>
+      <c r="AY39">
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>164</v>
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
       </c>
       <c r="D40">
         <v>2008</v>
@@ -6812,82 +6931,82 @@
         <v>1</v>
       </c>
       <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>23</v>
+      </c>
+      <c r="P40">
+        <v>16</v>
+      </c>
+      <c r="Q40">
+        <v>14</v>
+      </c>
+      <c r="R40">
+        <v>39</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>9</v>
+      </c>
+      <c r="AC40">
+        <v>7</v>
+      </c>
+      <c r="AD40">
         <v>5</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>6</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>18</v>
-      </c>
-      <c r="P40">
-        <v>13</v>
-      </c>
-      <c r="Q40">
-        <v>11</v>
-      </c>
-      <c r="R40">
-        <v>31</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>10</v>
-      </c>
-      <c r="AC40">
-        <v>5</v>
-      </c>
-      <c r="AD40">
-        <v>3</v>
-      </c>
       <c r="AE40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF40">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="AG40">
         <v>9</v>
       </c>
       <c r="AH40">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="AI40">
         <v>0.1</v>
@@ -6899,13 +7018,13 @@
         <v>0.1</v>
       </c>
       <c r="AL40">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM40">
         <v>0.1</v>
       </c>
       <c r="AN40">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -6917,25 +7036,31 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AS40">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AT40">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="AU40">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="AV40">
-        <v>25.6</v>
+        <v>31</v>
       </c>
       <c r="AW40">
         <v>0.9</v>
       </c>
+      <c r="AX40">
+        <v>6</v>
+      </c>
+      <c r="AY40">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pgc.xlsx
+++ b/pgc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>Nome</t>
   </si>
@@ -167,6 +167,24 @@
   </si>
   <si>
     <t>Publicações Indexadas JCR &gt;= 1,5</t>
+  </si>
+  <si>
+    <t>Publicações JCR (total)</t>
+  </si>
+  <si>
+    <t>Publicações JCR &gt; 1,5 (total)</t>
+  </si>
+  <si>
+    <t>Publicações JCR</t>
+  </si>
+  <si>
+    <t>Publicações JCR &gt; 1,5</t>
+  </si>
+  <si>
+    <t>Aceitações JCR &gt; 1,5</t>
+  </si>
+  <si>
+    <t>Artigos JCR &gt; 1,5</t>
   </si>
   <si>
     <t>Alexandre Plastino de Carvalho</t>
@@ -872,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY40"/>
+  <dimension ref="A1:BE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,16 +1050,34 @@
       <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D2">
         <v>2000</v>
@@ -1128,13 +1164,13 @@
         <v>22</v>
       </c>
       <c r="AF2">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="AG2">
         <v>15</v>
       </c>
       <c r="AH2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AI2">
         <v>0.1111111111111111</v>
@@ -1176,7 +1212,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="AV2">
-        <v>42</v>
+        <v>42.33333333333334</v>
       </c>
       <c r="AW2">
         <v>0.8333333333333334</v>
@@ -1187,16 +1223,34 @@
       <c r="AY2">
         <v>4</v>
       </c>
+      <c r="AZ2">
+        <v>18</v>
+      </c>
+      <c r="BA2">
+        <v>11</v>
+      </c>
+      <c r="BB2">
+        <v>8</v>
+      </c>
+      <c r="BC2">
+        <v>4</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D3">
         <v>2011</v>
@@ -1342,16 +1396,34 @@
       <c r="AY3">
         <v>2</v>
       </c>
+      <c r="AZ3">
+        <v>4</v>
+      </c>
+      <c r="BA3">
+        <v>3</v>
+      </c>
+      <c r="BB3">
+        <v>3</v>
+      </c>
+      <c r="BC3">
+        <v>2</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D4">
         <v>2003</v>
@@ -1497,16 +1569,34 @@
       <c r="AY4">
         <v>0</v>
       </c>
+      <c r="AZ4">
+        <v>5</v>
+      </c>
+      <c r="BA4">
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:57">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D5">
         <v>2010</v>
@@ -1652,16 +1742,34 @@
       <c r="AY5">
         <v>0</v>
       </c>
+      <c r="AZ5">
+        <v>4</v>
+      </c>
+      <c r="BA5">
+        <v>4</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:57">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D6">
         <v>1988</v>
@@ -1748,13 +1856,13 @@
         <v>41</v>
       </c>
       <c r="AF6">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="AG6">
         <v>27</v>
       </c>
       <c r="AH6">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AI6">
         <v>0.4</v>
@@ -1796,7 +1904,7 @@
         <v>9.033333333333333</v>
       </c>
       <c r="AV6">
-        <v>80.76666666666667</v>
+        <v>80.83333333333333</v>
       </c>
       <c r="AW6">
         <v>0.9</v>
@@ -1807,16 +1915,34 @@
       <c r="AY6">
         <v>7</v>
       </c>
+      <c r="AZ6">
+        <v>34</v>
+      </c>
+      <c r="BA6">
+        <v>24</v>
+      </c>
+      <c r="BB6">
+        <v>11</v>
+      </c>
+      <c r="BC6">
+        <v>7</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:57">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -1962,16 +2088,34 @@
       <c r="AY7">
         <v>0</v>
       </c>
+      <c r="AZ7">
+        <v>2</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:57">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D8">
         <v>1998</v>
@@ -2117,16 +2261,34 @@
       <c r="AY8">
         <v>1</v>
       </c>
+      <c r="AZ8">
+        <v>11</v>
+      </c>
+      <c r="BA8">
+        <v>4</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:57">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -2213,13 +2375,13 @@
         <v>27</v>
       </c>
       <c r="AF9">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="AG9">
         <v>22</v>
       </c>
       <c r="AH9">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AI9">
         <v>0.4444444444444444</v>
@@ -2261,7 +2423,7 @@
         <v>8.111111111111111</v>
       </c>
       <c r="AV9">
-        <v>117.2777777777778</v>
+        <v>117.3888888888889</v>
       </c>
       <c r="AW9">
         <v>1.222222222222222</v>
@@ -2272,16 +2434,34 @@
       <c r="AY9">
         <v>4</v>
       </c>
+      <c r="AZ9">
+        <v>21</v>
+      </c>
+      <c r="BA9">
+        <v>17</v>
+      </c>
+      <c r="BB9">
+        <v>5</v>
+      </c>
+      <c r="BC9">
+        <v>4</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:57">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D10">
         <v>1983</v>
@@ -2368,13 +2548,13 @@
         <v>17</v>
       </c>
       <c r="AF10">
-        <v>9119</v>
+        <v>9121</v>
       </c>
       <c r="AG10">
         <v>47</v>
       </c>
       <c r="AH10">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -2416,7 +2596,7 @@
         <v>5.571428571428571</v>
       </c>
       <c r="AV10">
-        <v>260.5428571428571</v>
+        <v>260.6</v>
       </c>
       <c r="AW10">
         <v>1.342857142857143</v>
@@ -2427,16 +2607,34 @@
       <c r="AY10">
         <v>10</v>
       </c>
+      <c r="AZ10">
+        <v>93</v>
+      </c>
+      <c r="BA10">
+        <v>56</v>
+      </c>
+      <c r="BB10">
+        <v>11</v>
+      </c>
+      <c r="BC10">
+        <v>10</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:57">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D11">
         <v>2001</v>
@@ -2523,13 +2721,13 @@
         <v>7</v>
       </c>
       <c r="AF11">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AG11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AI11">
         <v>1.294117647058824</v>
@@ -2571,10 +2769,10 @@
         <v>3.058823529411764</v>
       </c>
       <c r="AV11">
-        <v>39.88235294117647</v>
+        <v>39.76470588235294</v>
       </c>
       <c r="AW11">
-        <v>0.9411764705882353</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="AX11">
         <v>2</v>
@@ -2582,16 +2780,34 @@
       <c r="AY11">
         <v>0</v>
       </c>
+      <c r="AZ11">
+        <v>5</v>
+      </c>
+      <c r="BA11">
+        <v>2</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:57">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D12">
         <v>2009</v>
@@ -2737,16 +2953,34 @@
       <c r="AY12">
         <v>0</v>
       </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:57">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D13">
         <v>2012</v>
@@ -2833,13 +3067,13 @@
         <v>49</v>
       </c>
       <c r="AF13">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="AG13">
         <v>22</v>
       </c>
       <c r="AH13">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AI13">
         <v>1.833333333333333</v>
@@ -2881,7 +3115,7 @@
         <v>25.5</v>
       </c>
       <c r="AV13">
-        <v>329.5</v>
+        <v>329.1666666666667</v>
       </c>
       <c r="AW13">
         <v>3.666666666666667</v>
@@ -2892,16 +3126,34 @@
       <c r="AY13">
         <v>6</v>
       </c>
+      <c r="AZ13">
+        <v>17</v>
+      </c>
+      <c r="BA13">
+        <v>11</v>
+      </c>
+      <c r="BB13">
+        <v>8</v>
+      </c>
+      <c r="BC13">
+        <v>6</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:57">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D14">
         <v>2006</v>
@@ -3047,16 +3299,34 @@
       <c r="AY14">
         <v>0</v>
       </c>
+      <c r="AZ14">
+        <v>4</v>
+      </c>
+      <c r="BA14">
+        <v>2</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:57">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D15">
         <v>2003</v>
@@ -3143,13 +3413,13 @@
         <v>29</v>
       </c>
       <c r="AF15">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AG15">
         <v>17</v>
       </c>
       <c r="AH15">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI15">
         <v>1.133333333333333</v>
@@ -3191,7 +3461,7 @@
         <v>9</v>
       </c>
       <c r="AV15">
-        <v>103.7333333333333</v>
+        <v>103.8</v>
       </c>
       <c r="AW15">
         <v>1.133333333333333</v>
@@ -3202,16 +3472,34 @@
       <c r="AY15">
         <v>2</v>
       </c>
+      <c r="AZ15">
+        <v>14</v>
+      </c>
+      <c r="BA15">
+        <v>9</v>
+      </c>
+      <c r="BB15">
+        <v>3</v>
+      </c>
+      <c r="BC15">
+        <v>2</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:57">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D16">
         <v>2013</v>
@@ -3357,16 +3645,34 @@
       <c r="AY16">
         <v>3</v>
       </c>
+      <c r="AZ16">
+        <v>11</v>
+      </c>
+      <c r="BA16">
+        <v>11</v>
+      </c>
+      <c r="BB16">
+        <v>3</v>
+      </c>
+      <c r="BC16">
+        <v>3</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:57">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D17">
         <v>2004</v>
@@ -3453,13 +3759,13 @@
         <v>49</v>
       </c>
       <c r="AF17">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="AG17">
         <v>20</v>
       </c>
       <c r="AH17">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AI17">
         <v>0.2857142857142857</v>
@@ -3501,7 +3807,7 @@
         <v>15.57142857142857</v>
       </c>
       <c r="AV17">
-        <v>107.2142857142857</v>
+        <v>107.2857142857143</v>
       </c>
       <c r="AW17">
         <v>1.428571428571429</v>
@@ -3512,16 +3818,34 @@
       <c r="AY17">
         <v>3</v>
       </c>
+      <c r="AZ17">
+        <v>12</v>
+      </c>
+      <c r="BA17">
+        <v>7</v>
+      </c>
+      <c r="BB17">
+        <v>6</v>
+      </c>
+      <c r="BC17">
+        <v>3</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:57">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D18">
         <v>1996</v>
@@ -3608,13 +3932,13 @@
         <v>8</v>
       </c>
       <c r="AF18">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG18">
         <v>14</v>
       </c>
       <c r="AH18">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18">
         <v>0.5</v>
@@ -3656,7 +3980,7 @@
         <v>2.772727272727273</v>
       </c>
       <c r="AV18">
-        <v>28.77272727272727</v>
+        <v>28.81818181818182</v>
       </c>
       <c r="AW18">
         <v>0.6363636363636364</v>
@@ -3667,16 +3991,34 @@
       <c r="AY18">
         <v>1</v>
       </c>
+      <c r="AZ18">
+        <v>8</v>
+      </c>
+      <c r="BA18">
+        <v>3</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <v>1</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:57">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D19">
         <v>1998</v>
@@ -3763,13 +4105,13 @@
         <v>24</v>
       </c>
       <c r="AF19">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="AG19">
         <v>17</v>
       </c>
       <c r="AH19">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI19">
         <v>0.1</v>
@@ -3811,7 +4153,7 @@
         <v>6.3</v>
       </c>
       <c r="AV19">
-        <v>58.2</v>
+        <v>58.25</v>
       </c>
       <c r="AW19">
         <v>0.85</v>
@@ -3822,16 +4164,34 @@
       <c r="AY19">
         <v>4</v>
       </c>
+      <c r="AZ19">
+        <v>56</v>
+      </c>
+      <c r="BA19">
+        <v>11</v>
+      </c>
+      <c r="BB19">
+        <v>15</v>
+      </c>
+      <c r="BC19">
+        <v>4</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:57">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D20">
         <v>2009</v>
@@ -3918,13 +4278,13 @@
         <v>14</v>
       </c>
       <c r="AF20">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="AG20">
         <v>14</v>
       </c>
       <c r="AH20">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI20">
         <v>2.777777777777778</v>
@@ -3966,7 +4326,7 @@
         <v>7.888888888888889</v>
       </c>
       <c r="AV20">
-        <v>136.5555555555555</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="AW20">
         <v>1.555555555555556</v>
@@ -3977,13 +4337,31 @@
       <c r="AY20">
         <v>1</v>
       </c>
+      <c r="AZ20">
+        <v>15</v>
+      </c>
+      <c r="BA20">
+        <v>8</v>
+      </c>
+      <c r="BB20">
+        <v>3</v>
+      </c>
+      <c r="BC20">
+        <v>1</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:57">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D21">
         <v>1989</v>
@@ -4114,16 +4492,34 @@
       <c r="AY21">
         <v>0</v>
       </c>
+      <c r="AZ21">
+        <v>14</v>
+      </c>
+      <c r="BA21">
+        <v>9</v>
+      </c>
+      <c r="BB21">
+        <v>2</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:57">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D22">
         <v>2009</v>
@@ -4210,13 +4606,13 @@
         <v>43</v>
       </c>
       <c r="AF22">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG22">
         <v>11</v>
       </c>
       <c r="AH22">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AI22">
         <v>0.6666666666666666</v>
@@ -4258,7 +4654,7 @@
         <v>9.555555555555555</v>
       </c>
       <c r="AV22">
-        <v>49.77777777777778</v>
+        <v>49.88888888888889</v>
       </c>
       <c r="AW22">
         <v>1.222222222222222</v>
@@ -4269,16 +4665,34 @@
       <c r="AY22">
         <v>1</v>
       </c>
+      <c r="AZ22">
+        <v>4</v>
+      </c>
+      <c r="BA22">
+        <v>4</v>
+      </c>
+      <c r="BB22">
+        <v>1</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:57">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D23">
         <v>1996</v>
@@ -4365,13 +4779,13 @@
         <v>13</v>
       </c>
       <c r="AF23">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="AG23">
         <v>26</v>
       </c>
       <c r="AH23">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AI23">
         <v>0.1363636363636364</v>
@@ -4413,7 +4827,7 @@
         <v>7.590909090909091</v>
       </c>
       <c r="AV23">
-        <v>100.0454545454545</v>
+        <v>100</v>
       </c>
       <c r="AW23">
         <v>1.181818181818182</v>
@@ -4424,16 +4838,34 @@
       <c r="AY23">
         <v>3</v>
       </c>
+      <c r="AZ23">
+        <v>22</v>
+      </c>
+      <c r="BA23">
+        <v>21</v>
+      </c>
+      <c r="BB23">
+        <v>3</v>
+      </c>
+      <c r="BC23">
+        <v>3</v>
+      </c>
+      <c r="BD23">
+        <v>1</v>
+      </c>
+      <c r="BE23">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:57">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D24">
         <v>2010</v>
@@ -4520,13 +4952,13 @@
         <v>5</v>
       </c>
       <c r="AF24">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG24">
         <v>8</v>
       </c>
       <c r="AH24">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AI24">
         <v>0.75</v>
@@ -4568,7 +5000,7 @@
         <v>3.75</v>
       </c>
       <c r="AV24">
-        <v>93.875</v>
+        <v>94</v>
       </c>
       <c r="AW24">
         <v>1</v>
@@ -4579,16 +5011,34 @@
       <c r="AY24">
         <v>1</v>
       </c>
+      <c r="AZ24">
+        <v>9</v>
+      </c>
+      <c r="BA24">
+        <v>8</v>
+      </c>
+      <c r="BB24">
+        <v>1</v>
+      </c>
+      <c r="BC24">
+        <v>1</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:57">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D25">
         <v>2006</v>
@@ -4675,13 +5125,13 @@
         <v>26</v>
       </c>
       <c r="AF25">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="AG25">
         <v>22</v>
       </c>
       <c r="AH25">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AI25">
         <v>1.166666666666667</v>
@@ -4723,7 +5173,7 @@
         <v>14.41666666666667</v>
       </c>
       <c r="AV25">
-        <v>150.4166666666667</v>
+        <v>150.25</v>
       </c>
       <c r="AW25">
         <v>1.833333333333333</v>
@@ -4734,16 +5184,34 @@
       <c r="AY25">
         <v>7</v>
       </c>
+      <c r="AZ25">
+        <v>18</v>
+      </c>
+      <c r="BA25">
+        <v>11</v>
+      </c>
+      <c r="BB25">
+        <v>8</v>
+      </c>
+      <c r="BC25">
+        <v>7</v>
+      </c>
+      <c r="BD25">
+        <v>1</v>
+      </c>
+      <c r="BE25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:57">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D26">
         <v>2003</v>
@@ -4889,16 +5357,34 @@
       <c r="AY26">
         <v>0</v>
       </c>
+      <c r="AZ26">
+        <v>10</v>
+      </c>
+      <c r="BA26">
+        <v>1</v>
+      </c>
+      <c r="BB26">
+        <v>1</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:57">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D27">
         <v>1994</v>
@@ -4985,7 +5471,7 @@
         <v>19</v>
       </c>
       <c r="AF27">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="AG27">
         <v>16</v>
@@ -5033,7 +5519,7 @@
         <v>4.083333333333333</v>
       </c>
       <c r="AV27">
-        <v>47.66666666666666</v>
+        <v>47.70833333333334</v>
       </c>
       <c r="AW27">
         <v>0.6666666666666666</v>
@@ -5044,16 +5530,34 @@
       <c r="AY27">
         <v>3</v>
       </c>
+      <c r="AZ27">
+        <v>21</v>
+      </c>
+      <c r="BA27">
+        <v>11</v>
+      </c>
+      <c r="BB27">
+        <v>6</v>
+      </c>
+      <c r="BC27">
+        <v>3</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:57">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D28">
         <v>2011</v>
@@ -5199,16 +5703,34 @@
       <c r="AY28">
         <v>0</v>
       </c>
+      <c r="AZ28">
+        <v>1</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>1</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:57">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D29">
         <v>2006</v>
@@ -5354,16 +5876,34 @@
       <c r="AY29">
         <v>0</v>
       </c>
+      <c r="AZ29">
+        <v>7</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:57">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D30">
         <v>2011</v>
@@ -5509,16 +6049,34 @@
       <c r="AY30">
         <v>4</v>
       </c>
+      <c r="AZ30">
+        <v>9</v>
+      </c>
+      <c r="BA30">
+        <v>5</v>
+      </c>
+      <c r="BB30">
+        <v>5</v>
+      </c>
+      <c r="BC30">
+        <v>4</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:57">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D31">
         <v>2009</v>
@@ -5664,16 +6222,34 @@
       <c r="AY31">
         <v>0</v>
       </c>
+      <c r="AZ31">
+        <v>2</v>
+      </c>
+      <c r="BA31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:57">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D32">
         <v>1989</v>
@@ -5766,7 +6342,7 @@
         <v>27</v>
       </c>
       <c r="AH32">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AI32">
         <v>0.06896551724137931</v>
@@ -5819,16 +6395,34 @@
       <c r="AY32">
         <v>12</v>
       </c>
+      <c r="AZ32">
+        <v>37</v>
+      </c>
+      <c r="BA32">
+        <v>30</v>
+      </c>
+      <c r="BB32">
+        <v>14</v>
+      </c>
+      <c r="BC32">
+        <v>12</v>
+      </c>
+      <c r="BD32">
+        <v>2</v>
+      </c>
+      <c r="BE32">
+        <v>14</v>
+      </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:57">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D33">
         <v>2009</v>
@@ -5915,13 +6509,13 @@
         <v>8</v>
       </c>
       <c r="AF33">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG33">
         <v>7</v>
       </c>
       <c r="AH33">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI33">
         <v>0.6666666666666666</v>
@@ -5963,7 +6557,7 @@
         <v>3.222222222222222</v>
       </c>
       <c r="AV33">
-        <v>25</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="AW33">
         <v>0.7777777777777778</v>
@@ -5974,16 +6568,34 @@
       <c r="AY33">
         <v>4</v>
       </c>
+      <c r="AZ33">
+        <v>11</v>
+      </c>
+      <c r="BA33">
+        <v>9</v>
+      </c>
+      <c r="BB33">
+        <v>5</v>
+      </c>
+      <c r="BC33">
+        <v>4</v>
+      </c>
+      <c r="BD33">
+        <v>1</v>
+      </c>
+      <c r="BE33">
+        <v>5</v>
+      </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:57">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D34">
         <v>1983</v>
@@ -6070,13 +6682,13 @@
         <v>16</v>
       </c>
       <c r="AF34">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="AG34">
         <v>19</v>
       </c>
       <c r="AH34">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AI34">
         <v>0.08571428571428572</v>
@@ -6118,7 +6730,7 @@
         <v>5.628571428571429</v>
       </c>
       <c r="AV34">
-        <v>40.71428571428572</v>
+        <v>40.62857142857143</v>
       </c>
       <c r="AW34">
         <v>0.5428571428571428</v>
@@ -6129,16 +6741,34 @@
       <c r="AY34">
         <v>2</v>
       </c>
+      <c r="AZ34">
+        <v>24</v>
+      </c>
+      <c r="BA34">
+        <v>21</v>
+      </c>
+      <c r="BB34">
+        <v>3</v>
+      </c>
+      <c r="BC34">
+        <v>2</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>2</v>
+      </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:57">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D35">
         <v>1984</v>
@@ -6225,13 +6855,13 @@
         <v>1</v>
       </c>
       <c r="AF35">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="AG35">
         <v>20</v>
       </c>
       <c r="AH35">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AI35">
         <v>0</v>
@@ -6273,7 +6903,7 @@
         <v>3.970588235294118</v>
       </c>
       <c r="AV35">
-        <v>33.6764705882353</v>
+        <v>33.70588235294117</v>
       </c>
       <c r="AW35">
         <v>0.5882352941176471</v>
@@ -6284,16 +6914,34 @@
       <c r="AY35">
         <v>0</v>
       </c>
+      <c r="AZ35">
+        <v>7</v>
+      </c>
+      <c r="BA35">
+        <v>2</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:57">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D36">
         <v>1999</v>
@@ -6380,13 +7028,13 @@
         <v>10</v>
       </c>
       <c r="AF36">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="AG36">
         <v>19</v>
       </c>
       <c r="AH36">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AI36">
         <v>0.2105263157894737</v>
@@ -6428,7 +7076,7 @@
         <v>3.526315789473684</v>
       </c>
       <c r="AV36">
-        <v>59.21052631578947</v>
+        <v>59.26315789473684</v>
       </c>
       <c r="AW36">
         <v>1</v>
@@ -6439,16 +7087,34 @@
       <c r="AY36">
         <v>3</v>
       </c>
+      <c r="AZ36">
+        <v>12</v>
+      </c>
+      <c r="BA36">
+        <v>11</v>
+      </c>
+      <c r="BB36">
+        <v>3</v>
+      </c>
+      <c r="BC36">
+        <v>3</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:57">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D37">
         <v>2014</v>
@@ -6535,13 +7201,13 @@
         <v>33</v>
       </c>
       <c r="AF37">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG37">
         <v>7</v>
       </c>
       <c r="AH37">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI37">
         <v>0.5</v>
@@ -6583,7 +7249,7 @@
         <v>14.75</v>
       </c>
       <c r="AV37">
-        <v>34</v>
+        <v>33.75</v>
       </c>
       <c r="AW37">
         <v>1.75</v>
@@ -6594,16 +7260,34 @@
       <c r="AY37">
         <v>1</v>
       </c>
+      <c r="AZ37">
+        <v>14</v>
+      </c>
+      <c r="BA37">
+        <v>2</v>
+      </c>
+      <c r="BB37">
+        <v>10</v>
+      </c>
+      <c r="BC37">
+        <v>1</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:57">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D38">
         <v>2004</v>
@@ -6690,13 +7374,13 @@
         <v>20</v>
       </c>
       <c r="AF38">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="AG38">
         <v>19</v>
       </c>
       <c r="AH38">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AI38">
         <v>0.7142857142857143</v>
@@ -6738,7 +7422,7 @@
         <v>7.5</v>
       </c>
       <c r="AV38">
-        <v>91.64285714285714</v>
+        <v>91.5</v>
       </c>
       <c r="AW38">
         <v>1.357142857142857</v>
@@ -6749,16 +7433,34 @@
       <c r="AY38">
         <v>3</v>
       </c>
+      <c r="AZ38">
+        <v>12</v>
+      </c>
+      <c r="BA38">
+        <v>6</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
+        <v>3</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:57">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D39">
         <v>2004</v>
@@ -6845,7 +7547,7 @@
         <v>8</v>
       </c>
       <c r="AF39">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="AG39">
         <v>18</v>
@@ -6893,7 +7595,7 @@
         <v>6.714285714285714</v>
       </c>
       <c r="AV39">
-        <v>86.64285714285714</v>
+        <v>86.28571428571429</v>
       </c>
       <c r="AW39">
         <v>1.285714285714286</v>
@@ -6904,16 +7606,34 @@
       <c r="AY39">
         <v>1</v>
       </c>
+      <c r="AZ39">
+        <v>8</v>
+      </c>
+      <c r="BA39">
+        <v>7</v>
+      </c>
+      <c r="BB39">
+        <v>1</v>
+      </c>
+      <c r="BC39">
+        <v>1</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:57">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D40">
         <v>2008</v>
@@ -7057,6 +7777,24 @@
         <v>6</v>
       </c>
       <c r="AY40">
+        <v>4</v>
+      </c>
+      <c r="AZ40">
+        <v>14</v>
+      </c>
+      <c r="BA40">
+        <v>6</v>
+      </c>
+      <c r="BB40">
+        <v>5</v>
+      </c>
+      <c r="BC40">
+        <v>4</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
         <v>4</v>
       </c>
     </row>

--- a/pgc.xlsx
+++ b/pgc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Nome</t>
   </si>
@@ -64,12 +64,15 @@
     <t>Publicações em Periódicos (total)</t>
   </si>
   <si>
-    <t>Publicações Indexadas JCR (total)</t>
-  </si>
-  <si>
     <t>Publicações (total)</t>
   </si>
   <si>
+    <t>Publicações JCR (total)</t>
+  </si>
+  <si>
+    <t>Publicações JCR &gt; 1,5 (total)</t>
+  </si>
+  <si>
     <t>Participações em Projetos</t>
   </si>
   <si>
@@ -103,12 +106,21 @@
     <t>Publicações em Periódicos</t>
   </si>
   <si>
-    <t>Publicações Indexadas JCR</t>
-  </si>
-  <si>
     <t>Publicações</t>
   </si>
   <si>
+    <t>Publicações JCR</t>
+  </si>
+  <si>
+    <t>Publicações JCR &gt; 1,5</t>
+  </si>
+  <si>
+    <t>Aceitações JCR &gt; 1,5</t>
+  </si>
+  <si>
+    <t>Artigos JCR &gt; 1,5</t>
+  </si>
+  <si>
     <t>Citações (total)</t>
   </si>
   <si>
@@ -151,9 +163,6 @@
     <t>Publicações em Periódicos (anual)</t>
   </si>
   <si>
-    <t>Publicações Indexadas JCR (anual)</t>
-  </si>
-  <si>
     <t>Publicações (anual)</t>
   </si>
   <si>
@@ -161,30 +170,6 @@
   </si>
   <si>
     <t>H-Index (anual)</t>
-  </si>
-  <si>
-    <t>Publicações Indexadas JCR &gt;= 1,5 (total)</t>
-  </si>
-  <si>
-    <t>Publicações Indexadas JCR &gt;= 1,5</t>
-  </si>
-  <si>
-    <t>Publicações JCR (total)</t>
-  </si>
-  <si>
-    <t>Publicações JCR &gt; 1,5 (total)</t>
-  </si>
-  <si>
-    <t>Publicações JCR</t>
-  </si>
-  <si>
-    <t>Publicações JCR &gt; 1,5</t>
-  </si>
-  <si>
-    <t>Aceitações JCR &gt; 1,5</t>
-  </si>
-  <si>
-    <t>Artigos JCR &gt; 1,5</t>
   </si>
   <si>
     <t>Alexandre Plastino de Carvalho</t>
@@ -890,13 +875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE40"/>
+  <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,31 +1038,16 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:52">
+      <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D2">
         <v>2000</v>
@@ -1119,13 +1089,13 @@
         <v>32</v>
       </c>
       <c r="Q2">
+        <v>104</v>
+      </c>
+      <c r="R2">
         <v>18</v>
       </c>
-      <c r="R2">
-        <v>104</v>
-      </c>
       <c r="S2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1134,123 +1104,108 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
         <v>5</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>7</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>8</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>15</v>
-      </c>
-      <c r="AB2">
-        <v>11</v>
       </c>
       <c r="AC2">
         <v>11</v>
       </c>
       <c r="AD2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE2">
         <v>22</v>
       </c>
       <c r="AF2">
+        <v>8</v>
+      </c>
+      <c r="AG2">
+        <v>4</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>4</v>
+      </c>
+      <c r="AJ2">
         <v>762</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <v>15</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <v>283</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <v>0.1111111111111111</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <v>0.2777777777777778</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <v>0.3888888888888889</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <v>1.388888888888889</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <v>0.3888888888888889</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <v>1.777777777777778</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <v>2.277777777777778</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <v>1.111111111111111</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <v>3.388888888888889</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <v>4</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <v>1.777777777777778</v>
       </c>
-      <c r="AT2">
-        <v>1</v>
-      </c>
-      <c r="AU2">
+      <c r="AX2">
         <v>5.777777777777778</v>
       </c>
-      <c r="AV2">
+      <c r="AY2">
         <v>42.33333333333334</v>
       </c>
-      <c r="AW2">
+      <c r="AZ2">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AX2">
-        <v>11</v>
-      </c>
-      <c r="AY2">
-        <v>4</v>
-      </c>
-      <c r="AZ2">
-        <v>18</v>
-      </c>
-      <c r="BA2">
-        <v>11</v>
-      </c>
-      <c r="BB2">
-        <v>8</v>
-      </c>
-      <c r="BC2">
-        <v>4</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:52">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D3">
         <v>2011</v>
@@ -1292,138 +1247,123 @@
         <v>7</v>
       </c>
       <c r="Q3">
+        <v>44</v>
+      </c>
+      <c r="R3">
         <v>4</v>
       </c>
-      <c r="R3">
-        <v>44</v>
-      </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>3</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
         <v>4</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>7</v>
       </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
       <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
         <v>8</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>12</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>4</v>
-      </c>
-      <c r="AD3">
-        <v>3</v>
       </c>
       <c r="AE3">
         <v>16</v>
       </c>
       <c r="AF3">
+        <v>3</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
+      </c>
+      <c r="AJ3">
         <v>172</v>
       </c>
-      <c r="AG3">
+      <c r="AK3">
         <v>8</v>
       </c>
-      <c r="AH3">
+      <c r="AL3">
         <v>41</v>
       </c>
-      <c r="AI3">
+      <c r="AM3">
         <v>1.142857142857143</v>
       </c>
-      <c r="AJ3">
+      <c r="AN3">
         <v>0.5714285714285714</v>
       </c>
-      <c r="AK3">
+      <c r="AO3">
         <v>1.714285714285714</v>
       </c>
-      <c r="AL3">
+      <c r="AP3">
         <v>0.7142857142857143</v>
       </c>
-      <c r="AM3">
+      <c r="AQ3">
         <v>0.1428571428571428</v>
       </c>
-      <c r="AN3">
+      <c r="AR3">
         <v>0.8571428571428571</v>
       </c>
-      <c r="AO3">
+      <c r="AS3">
         <v>1.428571428571429</v>
       </c>
-      <c r="AP3">
+      <c r="AT3">
         <v>0.4285714285714285</v>
       </c>
-      <c r="AQ3">
+      <c r="AU3">
         <v>1.857142857142857</v>
       </c>
-      <c r="AR3">
+      <c r="AV3">
         <v>5.285714285714286</v>
       </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="AU3">
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
         <v>6.285714285714286</v>
       </c>
-      <c r="AV3">
+      <c r="AY3">
         <v>24.57142857142857</v>
       </c>
-      <c r="AW3">
+      <c r="AZ3">
         <v>1.142857142857143</v>
       </c>
-      <c r="AX3">
-        <v>3</v>
-      </c>
-      <c r="AY3">
-        <v>2</v>
-      </c>
-      <c r="AZ3">
-        <v>4</v>
-      </c>
-      <c r="BA3">
-        <v>3</v>
-      </c>
-      <c r="BB3">
-        <v>3</v>
-      </c>
-      <c r="BC3">
-        <v>2</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:52">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D4">
         <v>2003</v>
@@ -1465,13 +1405,13 @@
         <v>16</v>
       </c>
       <c r="Q4">
+        <v>79</v>
+      </c>
+      <c r="R4">
         <v>5</v>
       </c>
-      <c r="R4">
-        <v>79</v>
-      </c>
       <c r="S4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1480,123 +1420,108 @@
         <v>0</v>
       </c>
       <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>4</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
       <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>4</v>
       </c>
-      <c r="Y4">
-        <v>3</v>
-      </c>
       <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
         <v>9</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>12</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>9</v>
       </c>
-      <c r="AC4">
-        <v>3</v>
-      </c>
       <c r="AD4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4">
         <v>12</v>
       </c>
       <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>545</v>
       </c>
-      <c r="AG4">
+      <c r="AK4">
         <v>13</v>
       </c>
-      <c r="AH4">
+      <c r="AL4">
         <v>117</v>
       </c>
-      <c r="AI4">
+      <c r="AM4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AJ4">
+      <c r="AN4">
         <v>0.2</v>
       </c>
-      <c r="AK4">
+      <c r="AO4">
         <v>0.8666666666666667</v>
       </c>
-      <c r="AL4">
+      <c r="AP4">
         <v>0.8666666666666667</v>
       </c>
-      <c r="AM4">
+      <c r="AQ4">
         <v>0.2</v>
       </c>
-      <c r="AN4">
+      <c r="AR4">
         <v>1.066666666666667</v>
       </c>
-      <c r="AO4">
+      <c r="AS4">
         <v>2.066666666666667</v>
       </c>
-      <c r="AP4">
+      <c r="AT4">
         <v>1.6</v>
       </c>
-      <c r="AQ4">
+      <c r="AU4">
         <v>3.666666666666667</v>
       </c>
-      <c r="AR4">
+      <c r="AV4">
         <v>4.2</v>
       </c>
-      <c r="AS4">
+      <c r="AW4">
         <v>1.066666666666667</v>
       </c>
-      <c r="AT4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AU4">
+      <c r="AX4">
         <v>5.266666666666667</v>
       </c>
-      <c r="AV4">
+      <c r="AY4">
         <v>36.33333333333334</v>
       </c>
-      <c r="AW4">
+      <c r="AZ4">
         <v>0.8666666666666667</v>
       </c>
-      <c r="AX4">
-        <v>3</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>5</v>
-      </c>
-      <c r="BA4">
-        <v>3</v>
-      </c>
-      <c r="BB4">
-        <v>1</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D5">
         <v>2010</v>
@@ -1638,22 +1563,22 @@
         <v>7</v>
       </c>
       <c r="Q5">
+        <v>44</v>
+      </c>
+      <c r="R5">
         <v>4</v>
       </c>
-      <c r="R5">
-        <v>44</v>
-      </c>
       <c r="S5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1662,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
         <v>7</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1683,93 +1608,78 @@
         <v>7</v>
       </c>
       <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>520</v>
       </c>
-      <c r="AG5">
+      <c r="AK5">
         <v>11</v>
       </c>
-      <c r="AH5">
+      <c r="AL5">
         <v>112</v>
       </c>
-      <c r="AI5">
+      <c r="AM5">
         <v>0.75</v>
-      </c>
-      <c r="AJ5">
-        <v>0.75</v>
-      </c>
-      <c r="AK5">
-        <v>1.5</v>
-      </c>
-      <c r="AL5">
-        <v>0.75</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
       </c>
       <c r="AN5">
         <v>0.75</v>
       </c>
       <c r="AO5">
+        <v>1.5</v>
+      </c>
+      <c r="AP5">
+        <v>0.75</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0.75</v>
+      </c>
+      <c r="AS5">
         <v>1.625</v>
       </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
         <v>1.625</v>
       </c>
-      <c r="AR5">
+      <c r="AV5">
         <v>4.625</v>
       </c>
-      <c r="AS5">
+      <c r="AW5">
         <v>0.875</v>
       </c>
-      <c r="AT5">
-        <v>0.5</v>
-      </c>
-      <c r="AU5">
+      <c r="AX5">
         <v>5.5</v>
       </c>
-      <c r="AV5">
+      <c r="AY5">
         <v>65</v>
       </c>
-      <c r="AW5">
+      <c r="AZ5">
         <v>1.375</v>
       </c>
-      <c r="AX5">
-        <v>4</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>4</v>
-      </c>
-      <c r="BA5">
-        <v>4</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:52">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D6">
         <v>1988</v>
@@ -1811,138 +1721,123 @@
         <v>63</v>
       </c>
       <c r="Q6">
+        <v>271</v>
+      </c>
+      <c r="R6">
         <v>34</v>
       </c>
-      <c r="R6">
-        <v>271</v>
-      </c>
       <c r="S6">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="T6">
         <v>5</v>
       </c>
       <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
         <v>10</v>
-      </c>
-      <c r="V6">
-        <v>4</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
         <v>8</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>11</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>10</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>21</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>24</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>17</v>
-      </c>
-      <c r="AD6">
-        <v>11</v>
       </c>
       <c r="AE6">
         <v>41</v>
       </c>
       <c r="AF6">
+        <v>11</v>
+      </c>
+      <c r="AG6">
+        <v>7</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>8</v>
+      </c>
+      <c r="AJ6">
         <v>2425</v>
       </c>
-      <c r="AG6">
+      <c r="AK6">
         <v>27</v>
       </c>
-      <c r="AH6">
+      <c r="AL6">
         <v>738</v>
       </c>
-      <c r="AI6">
+      <c r="AM6">
         <v>0.4</v>
       </c>
-      <c r="AJ6">
+      <c r="AN6">
         <v>0.7333333333333333</v>
       </c>
-      <c r="AK6">
+      <c r="AO6">
         <v>1.133333333333333</v>
       </c>
-      <c r="AL6">
+      <c r="AP6">
         <v>1.5</v>
       </c>
-      <c r="AM6">
+      <c r="AQ6">
         <v>0.5</v>
       </c>
-      <c r="AN6">
-        <v>2</v>
-      </c>
-      <c r="AO6">
+      <c r="AR6">
+        <v>2</v>
+      </c>
+      <c r="AS6">
         <v>1.966666666666667</v>
       </c>
-      <c r="AP6">
+      <c r="AT6">
         <v>1.566666666666667</v>
       </c>
-      <c r="AQ6">
+      <c r="AU6">
         <v>3.533333333333333</v>
       </c>
-      <c r="AR6">
+      <c r="AV6">
         <v>6.933333333333334</v>
       </c>
-      <c r="AS6">
+      <c r="AW6">
         <v>2.1</v>
       </c>
-      <c r="AT6">
-        <v>1.133333333333333</v>
-      </c>
-      <c r="AU6">
+      <c r="AX6">
         <v>9.033333333333333</v>
       </c>
-      <c r="AV6">
+      <c r="AY6">
         <v>80.83333333333333</v>
       </c>
-      <c r="AW6">
+      <c r="AZ6">
         <v>0.9</v>
       </c>
-      <c r="AX6">
-        <v>24</v>
-      </c>
-      <c r="AY6">
-        <v>7</v>
-      </c>
-      <c r="AZ6">
-        <v>34</v>
-      </c>
-      <c r="BA6">
-        <v>24</v>
-      </c>
-      <c r="BB6">
-        <v>11</v>
-      </c>
-      <c r="BC6">
-        <v>7</v>
-      </c>
-      <c r="BD6">
-        <v>1</v>
-      </c>
-      <c r="BE6">
-        <v>8</v>
-      </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:52">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -1984,10 +1879,10 @@
         <v>8</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="R7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1996,10 +1891,10 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -2008,114 +1903,99 @@
         <v>0</v>
       </c>
       <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>7</v>
       </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
       <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
         <v>8</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>4</v>
       </c>
-      <c r="AC7">
-        <v>3</v>
-      </c>
       <c r="AD7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7">
         <v>7</v>
       </c>
       <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>68</v>
       </c>
-      <c r="AG7">
+      <c r="AK7">
         <v>4</v>
       </c>
-      <c r="AH7">
+      <c r="AL7">
         <v>24</v>
       </c>
-      <c r="AI7">
+      <c r="AM7">
         <v>2.75</v>
       </c>
-      <c r="AJ7">
+      <c r="AN7">
         <v>0.5</v>
       </c>
-      <c r="AK7">
+      <c r="AO7">
         <v>3.25</v>
       </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>1.75</v>
       </c>
-      <c r="AP7">
+      <c r="AT7">
         <v>0.25</v>
       </c>
-      <c r="AQ7">
-        <v>2</v>
-      </c>
-      <c r="AR7">
+      <c r="AU7">
+        <v>2</v>
+      </c>
+      <c r="AV7">
         <v>4.5</v>
       </c>
-      <c r="AS7">
-        <v>2</v>
-      </c>
-      <c r="AT7">
-        <v>0.5</v>
-      </c>
-      <c r="AU7">
+      <c r="AW7">
+        <v>2</v>
+      </c>
+      <c r="AX7">
         <v>6.5</v>
       </c>
-      <c r="AV7">
+      <c r="AY7">
         <v>17</v>
       </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
       <c r="AZ7">
-        <v>2</v>
-      </c>
-      <c r="BA7">
-        <v>1</v>
-      </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:52">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D8">
         <v>1998</v>
@@ -2157,13 +2037,13 @@
         <v>14</v>
       </c>
       <c r="Q8">
+        <v>42</v>
+      </c>
+      <c r="R8">
         <v>11</v>
       </c>
-      <c r="R8">
-        <v>42</v>
-      </c>
       <c r="S8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2172,28 +2052,28 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
         <v>4</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>5</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>9</v>
       </c>
-      <c r="AB8">
-        <v>2</v>
-      </c>
       <c r="AC8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -2202,93 +2082,78 @@
         <v>3</v>
       </c>
       <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>2</v>
+      </c>
+      <c r="AJ8">
         <v>343</v>
       </c>
-      <c r="AG8">
+      <c r="AK8">
         <v>10</v>
       </c>
-      <c r="AH8">
+      <c r="AL8">
         <v>85</v>
       </c>
-      <c r="AI8">
+      <c r="AM8">
         <v>0.3</v>
       </c>
-      <c r="AJ8">
+      <c r="AN8">
         <v>0.15</v>
       </c>
-      <c r="AK8">
+      <c r="AO8">
         <v>0.45</v>
       </c>
-      <c r="AL8">
+      <c r="AP8">
         <v>0.45</v>
       </c>
-      <c r="AM8">
+      <c r="AQ8">
         <v>0.15</v>
       </c>
-      <c r="AN8">
+      <c r="AR8">
         <v>0.6</v>
       </c>
-      <c r="AO8">
+      <c r="AS8">
         <v>1.15</v>
       </c>
-      <c r="AP8">
+      <c r="AT8">
         <v>0.9</v>
       </c>
-      <c r="AQ8">
+      <c r="AU8">
         <v>2.05</v>
       </c>
-      <c r="AR8">
+      <c r="AV8">
         <v>1.4</v>
       </c>
-      <c r="AS8">
+      <c r="AW8">
         <v>0.7</v>
       </c>
-      <c r="AT8">
-        <v>0.55</v>
-      </c>
-      <c r="AU8">
+      <c r="AX8">
         <v>2.1</v>
       </c>
-      <c r="AV8">
+      <c r="AY8">
         <v>17.15</v>
       </c>
-      <c r="AW8">
+      <c r="AZ8">
         <v>0.5</v>
       </c>
-      <c r="AX8">
-        <v>4</v>
-      </c>
-      <c r="AY8">
-        <v>1</v>
-      </c>
-      <c r="AZ8">
-        <v>11</v>
-      </c>
-      <c r="BA8">
-        <v>4</v>
-      </c>
-      <c r="BB8">
-        <v>1</v>
-      </c>
-      <c r="BC8">
-        <v>1</v>
-      </c>
-      <c r="BD8">
-        <v>1</v>
-      </c>
-      <c r="BE8">
-        <v>2</v>
-      </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:52">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -2330,138 +2195,123 @@
         <v>35</v>
       </c>
       <c r="Q9">
+        <v>146</v>
+      </c>
+      <c r="R9">
         <v>21</v>
       </c>
-      <c r="R9">
-        <v>146</v>
-      </c>
       <c r="S9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
       <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>4</v>
       </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
       <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
         <v>5</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>8</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>14</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>22</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>20</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>7</v>
-      </c>
-      <c r="AD9">
-        <v>5</v>
       </c>
       <c r="AE9">
         <v>27</v>
       </c>
       <c r="AF9">
+        <v>5</v>
+      </c>
+      <c r="AG9">
+        <v>4</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>4</v>
+      </c>
+      <c r="AJ9">
         <v>2113</v>
       </c>
-      <c r="AG9">
+      <c r="AK9">
         <v>22</v>
       </c>
-      <c r="AH9">
+      <c r="AL9">
         <v>492</v>
       </c>
-      <c r="AI9">
+      <c r="AM9">
         <v>0.4444444444444444</v>
       </c>
-      <c r="AJ9">
+      <c r="AN9">
         <v>0.6111111111111112</v>
       </c>
-      <c r="AK9">
+      <c r="AO9">
         <v>1.055555555555556</v>
       </c>
-      <c r="AL9">
+      <c r="AP9">
         <v>1.388888888888889</v>
       </c>
-      <c r="AM9">
+      <c r="AQ9">
         <v>0.3888888888888889</v>
       </c>
-      <c r="AN9">
+      <c r="AR9">
         <v>1.777777777777778</v>
       </c>
-      <c r="AO9">
+      <c r="AS9">
         <v>4.388888888888889</v>
       </c>
-      <c r="AP9">
+      <c r="AT9">
         <v>2.222222222222222</v>
       </c>
-      <c r="AQ9">
+      <c r="AU9">
         <v>6.611111111111111</v>
       </c>
-      <c r="AR9">
+      <c r="AV9">
         <v>6.166666666666667</v>
       </c>
-      <c r="AS9">
+      <c r="AW9">
         <v>1.944444444444444</v>
       </c>
-      <c r="AT9">
-        <v>1.166666666666667</v>
-      </c>
-      <c r="AU9">
+      <c r="AX9">
         <v>8.111111111111111</v>
       </c>
-      <c r="AV9">
+      <c r="AY9">
         <v>117.3888888888889</v>
       </c>
-      <c r="AW9">
+      <c r="AZ9">
         <v>1.222222222222222</v>
       </c>
-      <c r="AX9">
-        <v>17</v>
-      </c>
-      <c r="AY9">
-        <v>4</v>
-      </c>
-      <c r="AZ9">
-        <v>21</v>
-      </c>
-      <c r="BA9">
-        <v>17</v>
-      </c>
-      <c r="BB9">
-        <v>5</v>
-      </c>
-      <c r="BC9">
-        <v>4</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>4</v>
-      </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:52">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D10">
         <v>1983</v>
@@ -2503,13 +2353,13 @@
         <v>138</v>
       </c>
       <c r="Q10">
+        <v>195</v>
+      </c>
+      <c r="R10">
         <v>93</v>
       </c>
-      <c r="R10">
-        <v>195</v>
-      </c>
       <c r="S10">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2518,123 +2368,108 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
         <v>5</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>5</v>
       </c>
       <c r="AB10">
+        <v>5</v>
+      </c>
+      <c r="AC10">
         <v>4</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>13</v>
-      </c>
-      <c r="AD10">
-        <v>11</v>
       </c>
       <c r="AE10">
         <v>17</v>
       </c>
       <c r="AF10">
+        <v>11</v>
+      </c>
+      <c r="AG10">
+        <v>10</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>11</v>
+      </c>
+      <c r="AJ10">
         <v>9121</v>
       </c>
-      <c r="AG10">
+      <c r="AK10">
         <v>47</v>
       </c>
-      <c r="AH10">
+      <c r="AL10">
         <v>1526</v>
       </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
         <v>1.057142857142857</v>
       </c>
-      <c r="AM10">
+      <c r="AQ10">
         <v>0.7714285714285715</v>
       </c>
-      <c r="AN10">
+      <c r="AR10">
         <v>1.828571428571429</v>
       </c>
-      <c r="AO10">
+      <c r="AS10">
         <v>0.2857142857142857</v>
       </c>
-      <c r="AP10">
+      <c r="AT10">
         <v>0.6</v>
       </c>
-      <c r="AQ10">
+      <c r="AU10">
         <v>0.8857142857142857</v>
       </c>
-      <c r="AR10">
+      <c r="AV10">
         <v>1.628571428571429</v>
       </c>
-      <c r="AS10">
+      <c r="AW10">
         <v>3.942857142857143</v>
       </c>
-      <c r="AT10">
-        <v>2.657142857142857</v>
-      </c>
-      <c r="AU10">
+      <c r="AX10">
         <v>5.571428571428571</v>
       </c>
-      <c r="AV10">
+      <c r="AY10">
         <v>260.6</v>
       </c>
-      <c r="AW10">
+      <c r="AZ10">
         <v>1.342857142857143</v>
       </c>
-      <c r="AX10">
-        <v>56</v>
-      </c>
-      <c r="AY10">
-        <v>10</v>
-      </c>
-      <c r="AZ10">
-        <v>93</v>
-      </c>
-      <c r="BA10">
-        <v>56</v>
-      </c>
-      <c r="BB10">
-        <v>11</v>
-      </c>
-      <c r="BC10">
-        <v>10</v>
-      </c>
-      <c r="BD10">
-        <v>1</v>
-      </c>
-      <c r="BE10">
-        <v>11</v>
-      </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:52">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D11">
         <v>2001</v>
@@ -2676,43 +2511,43 @@
         <v>15</v>
       </c>
       <c r="Q11">
+        <v>52</v>
+      </c>
+      <c r="R11">
         <v>5</v>
       </c>
-      <c r="R11">
-        <v>52</v>
-      </c>
       <c r="S11">
         <v>2</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W11">
         <v>1</v>
       </c>
       <c r="X11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
         <v>4</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>7</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -2721,93 +2556,78 @@
         <v>7</v>
       </c>
       <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>676</v>
       </c>
-      <c r="AG11">
+      <c r="AK11">
         <v>15</v>
       </c>
-      <c r="AH11">
+      <c r="AL11">
         <v>95</v>
       </c>
-      <c r="AI11">
+      <c r="AM11">
         <v>1.294117647058824</v>
       </c>
-      <c r="AJ11">
+      <c r="AN11">
         <v>0.1764705882352941</v>
       </c>
-      <c r="AK11">
+      <c r="AO11">
         <v>1.470588235294118</v>
       </c>
-      <c r="AL11">
+      <c r="AP11">
         <v>0.3529411764705883</v>
       </c>
-      <c r="AM11">
+      <c r="AQ11">
         <v>0.05882352941176471</v>
       </c>
-      <c r="AN11">
+      <c r="AR11">
         <v>0.4117647058823529</v>
       </c>
-      <c r="AO11">
+      <c r="AS11">
         <v>0.5882352941176471</v>
       </c>
-      <c r="AP11">
+      <c r="AT11">
         <v>0.4705882352941176</v>
       </c>
-      <c r="AQ11">
+      <c r="AU11">
         <v>1.058823529411765</v>
       </c>
-      <c r="AR11">
+      <c r="AV11">
         <v>2.176470588235294</v>
-      </c>
-      <c r="AS11">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="AT11">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="AU11">
-        <v>3.058823529411764</v>
-      </c>
-      <c r="AV11">
-        <v>39.76470588235294</v>
       </c>
       <c r="AW11">
         <v>0.8823529411764706</v>
       </c>
       <c r="AX11">
-        <v>2</v>
+        <v>3.058823529411764</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>39.76470588235294</v>
       </c>
       <c r="AZ11">
-        <v>5</v>
-      </c>
-      <c r="BA11">
-        <v>2</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
+        <v>0.8823529411764706</v>
       </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:52">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D12">
         <v>2009</v>
@@ -2849,10 +2669,10 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R12">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2882,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
         <v>10</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -2894,93 +2714,78 @@
         <v>10</v>
       </c>
       <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
         <v>417</v>
       </c>
-      <c r="AG12">
+      <c r="AK12">
         <v>8</v>
       </c>
-      <c r="AH12">
+      <c r="AL12">
         <v>129</v>
       </c>
-      <c r="AI12">
+      <c r="AM12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AJ12">
+      <c r="AN12">
         <v>0.2222222222222222</v>
       </c>
-      <c r="AK12">
+      <c r="AO12">
         <v>0.5555555555555556</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
         <v>0.1111111111111111</v>
       </c>
-      <c r="AN12">
+      <c r="AR12">
         <v>0.1111111111111111</v>
       </c>
-      <c r="AO12">
+      <c r="AS12">
         <v>1.333333333333333</v>
       </c>
-      <c r="AP12">
+      <c r="AT12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AQ12">
+      <c r="AU12">
         <v>1.666666666666667</v>
       </c>
-      <c r="AR12">
+      <c r="AV12">
         <v>4.222222222222222</v>
       </c>
-      <c r="AS12">
+      <c r="AW12">
         <v>0.1111111111111111</v>
       </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
+      <c r="AX12">
         <v>4.333333333333333</v>
       </c>
-      <c r="AV12">
+      <c r="AY12">
         <v>46.33333333333334</v>
       </c>
-      <c r="AW12">
+      <c r="AZ12">
         <v>0.8888888888888888</v>
       </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>1</v>
-      </c>
-      <c r="BE12">
-        <v>1</v>
-      </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:52">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D13">
         <v>2012</v>
@@ -3022,138 +2827,123 @@
         <v>33</v>
       </c>
       <c r="Q13">
+        <v>153</v>
+      </c>
+      <c r="R13">
         <v>17</v>
       </c>
-      <c r="R13">
-        <v>153</v>
-      </c>
       <c r="S13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
         <v>5</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>7</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>4</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>11</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>19</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>17</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>36</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>38</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>11</v>
-      </c>
-      <c r="AD13">
-        <v>8</v>
       </c>
       <c r="AE13">
         <v>49</v>
       </c>
       <c r="AF13">
+        <v>8</v>
+      </c>
+      <c r="AG13">
+        <v>6</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>7</v>
+      </c>
+      <c r="AJ13">
         <v>1975</v>
       </c>
-      <c r="AG13">
+      <c r="AK13">
         <v>22</v>
       </c>
-      <c r="AH13">
+      <c r="AL13">
         <v>805</v>
       </c>
-      <c r="AI13">
+      <c r="AM13">
         <v>1.833333333333333</v>
       </c>
-      <c r="AJ13">
+      <c r="AN13">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AK13">
+      <c r="AO13">
         <v>2.666666666666667</v>
       </c>
-      <c r="AL13">
+      <c r="AP13">
         <v>1.666666666666667</v>
       </c>
-      <c r="AM13">
+      <c r="AQ13">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AN13">
+      <c r="AR13">
         <v>2.5</v>
       </c>
-      <c r="AO13">
+      <c r="AS13">
         <v>5.666666666666667</v>
       </c>
-      <c r="AP13">
+      <c r="AT13">
         <v>3.333333333333333</v>
       </c>
-      <c r="AQ13">
+      <c r="AU13">
         <v>9</v>
       </c>
-      <c r="AR13">
+      <c r="AV13">
         <v>20</v>
       </c>
-      <c r="AS13">
+      <c r="AW13">
         <v>5.5</v>
       </c>
-      <c r="AT13">
-        <v>2.833333333333333</v>
-      </c>
-      <c r="AU13">
+      <c r="AX13">
         <v>25.5</v>
       </c>
-      <c r="AV13">
+      <c r="AY13">
         <v>329.1666666666667</v>
       </c>
-      <c r="AW13">
+      <c r="AZ13">
         <v>3.666666666666667</v>
       </c>
-      <c r="AX13">
-        <v>11</v>
-      </c>
-      <c r="AY13">
-        <v>6</v>
-      </c>
-      <c r="AZ13">
-        <v>17</v>
-      </c>
-      <c r="BA13">
-        <v>11</v>
-      </c>
-      <c r="BB13">
-        <v>8</v>
-      </c>
-      <c r="BC13">
-        <v>6</v>
-      </c>
-      <c r="BD13">
-        <v>1</v>
-      </c>
-      <c r="BE13">
-        <v>7</v>
-      </c>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:52">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D14">
         <v>2006</v>
@@ -3195,13 +2985,13 @@
         <v>7</v>
       </c>
       <c r="Q14">
+        <v>61</v>
+      </c>
+      <c r="R14">
         <v>4</v>
       </c>
-      <c r="R14">
-        <v>61</v>
-      </c>
       <c r="S14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -3210,123 +3000,108 @@
         <v>0</v>
       </c>
       <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>4</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
       <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>4</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>9</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>5</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>14</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>16</v>
       </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <v>17</v>
       </c>
       <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>648</v>
       </c>
-      <c r="AG14">
+      <c r="AK14">
         <v>12</v>
       </c>
-      <c r="AH14">
+      <c r="AL14">
         <v>129</v>
       </c>
-      <c r="AI14">
+      <c r="AM14">
         <v>0.75</v>
       </c>
-      <c r="AJ14">
+      <c r="AN14">
         <v>0.25</v>
       </c>
-      <c r="AK14">
-        <v>1</v>
-      </c>
-      <c r="AL14">
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AO14">
+      <c r="AS14">
         <v>1.166666666666667</v>
       </c>
-      <c r="AP14">
+      <c r="AT14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AQ14">
+      <c r="AU14">
         <v>1.833333333333333</v>
       </c>
-      <c r="AR14">
+      <c r="AV14">
         <v>4.5</v>
       </c>
-      <c r="AS14">
+      <c r="AW14">
         <v>0.5833333333333334</v>
       </c>
-      <c r="AT14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AU14">
+      <c r="AX14">
         <v>5.083333333333333</v>
       </c>
-      <c r="AV14">
+      <c r="AY14">
         <v>54</v>
       </c>
-      <c r="AW14">
-        <v>1</v>
-      </c>
-      <c r="AX14">
-        <v>2</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
       <c r="AZ14">
-        <v>4</v>
-      </c>
-      <c r="BA14">
-        <v>2</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:52">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D15">
         <v>2003</v>
@@ -3368,138 +3143,123 @@
         <v>26</v>
       </c>
       <c r="Q15">
+        <v>135</v>
+      </c>
+      <c r="R15">
         <v>14</v>
       </c>
-      <c r="R15">
-        <v>135</v>
-      </c>
       <c r="S15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
         <v>4</v>
       </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
       <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
         <v>4</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>5</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>7</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>14</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>21</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>24</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>5</v>
-      </c>
-      <c r="AD15">
-        <v>3</v>
       </c>
       <c r="AE15">
         <v>29</v>
       </c>
       <c r="AF15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>2</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>3</v>
+      </c>
+      <c r="AJ15">
         <v>1557</v>
       </c>
-      <c r="AG15">
+      <c r="AK15">
         <v>17</v>
       </c>
-      <c r="AH15">
+      <c r="AL15">
         <v>455</v>
       </c>
-      <c r="AI15">
+      <c r="AM15">
         <v>1.133333333333333</v>
       </c>
-      <c r="AJ15">
+      <c r="AN15">
         <v>1.133333333333333</v>
       </c>
-      <c r="AK15">
+      <c r="AO15">
         <v>2.266666666666667</v>
       </c>
-      <c r="AL15">
-        <v>1</v>
-      </c>
-      <c r="AM15">
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
         <v>0.4</v>
       </c>
-      <c r="AN15">
+      <c r="AR15">
         <v>1.4</v>
       </c>
-      <c r="AO15">
+      <c r="AS15">
         <v>3.133333333333333</v>
       </c>
-      <c r="AP15">
+      <c r="AT15">
         <v>1.533333333333333</v>
       </c>
-      <c r="AQ15">
+      <c r="AU15">
         <v>4.666666666666667</v>
       </c>
-      <c r="AR15">
+      <c r="AV15">
         <v>7.266666666666667</v>
       </c>
-      <c r="AS15">
+      <c r="AW15">
         <v>1.733333333333333</v>
-      </c>
-      <c r="AT15">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="AU15">
-        <v>9</v>
-      </c>
-      <c r="AV15">
-        <v>103.8</v>
-      </c>
-      <c r="AW15">
-        <v>1.133333333333333</v>
       </c>
       <c r="AX15">
         <v>9</v>
       </c>
       <c r="AY15">
-        <v>2</v>
+        <v>103.8</v>
       </c>
       <c r="AZ15">
-        <v>14</v>
-      </c>
-      <c r="BA15">
-        <v>9</v>
-      </c>
-      <c r="BB15">
-        <v>3</v>
-      </c>
-      <c r="BC15">
-        <v>2</v>
-      </c>
-      <c r="BD15">
-        <v>1</v>
-      </c>
-      <c r="BE15">
-        <v>3</v>
+        <v>1.133333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:52">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D16">
         <v>2013</v>
@@ -3541,13 +3301,13 @@
         <v>16</v>
       </c>
       <c r="Q16">
+        <v>48</v>
+      </c>
+      <c r="R16">
         <v>11</v>
       </c>
-      <c r="R16">
-        <v>48</v>
-      </c>
       <c r="S16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -3556,123 +3316,108 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
         <v>8</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
       <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
         <v>8</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>9</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>4</v>
-      </c>
-      <c r="AD16">
-        <v>3</v>
       </c>
       <c r="AE16">
         <v>13</v>
       </c>
       <c r="AF16">
+        <v>3</v>
+      </c>
+      <c r="AG16">
+        <v>3</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>3</v>
+      </c>
+      <c r="AJ16">
         <v>930</v>
       </c>
-      <c r="AG16">
+      <c r="AK16">
         <v>11</v>
       </c>
-      <c r="AH16">
+      <c r="AL16">
         <v>301</v>
       </c>
-      <c r="AI16">
+      <c r="AM16">
         <v>0.4</v>
       </c>
-      <c r="AJ16">
+      <c r="AN16">
         <v>0.2</v>
       </c>
-      <c r="AK16">
+      <c r="AO16">
         <v>0.6</v>
       </c>
-      <c r="AL16">
+      <c r="AP16">
         <v>0.6</v>
       </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
         <v>0.6</v>
       </c>
-      <c r="AO16">
-        <v>2</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>2</v>
-      </c>
-      <c r="AR16">
+      <c r="AS16">
+        <v>2</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>2</v>
+      </c>
+      <c r="AV16">
         <v>6.4</v>
       </c>
-      <c r="AS16">
+      <c r="AW16">
         <v>3.2</v>
       </c>
-      <c r="AT16">
+      <c r="AX16">
+        <v>9.6</v>
+      </c>
+      <c r="AY16">
+        <v>186</v>
+      </c>
+      <c r="AZ16">
         <v>2.2</v>
       </c>
-      <c r="AU16">
-        <v>9.6</v>
-      </c>
-      <c r="AV16">
-        <v>186</v>
-      </c>
-      <c r="AW16">
-        <v>2.2</v>
-      </c>
-      <c r="AX16">
-        <v>11</v>
-      </c>
-      <c r="AY16">
-        <v>3</v>
-      </c>
-      <c r="AZ16">
-        <v>11</v>
-      </c>
-      <c r="BA16">
-        <v>11</v>
-      </c>
-      <c r="BB16">
-        <v>3</v>
-      </c>
-      <c r="BC16">
-        <v>3</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>3</v>
-      </c>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:52">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D17">
         <v>2004</v>
@@ -3714,16 +3459,16 @@
         <v>42</v>
       </c>
       <c r="Q17">
+        <v>218</v>
+      </c>
+      <c r="R17">
         <v>12</v>
       </c>
-      <c r="R17">
-        <v>218</v>
-      </c>
       <c r="S17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>2</v>
@@ -3732,120 +3477,105 @@
         <v>2</v>
       </c>
       <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
         <v>6</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>8</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>12</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>20</v>
-      </c>
-      <c r="AA17">
-        <v>32</v>
       </c>
       <c r="AB17">
         <v>32</v>
       </c>
       <c r="AC17">
+        <v>32</v>
+      </c>
+      <c r="AD17">
         <v>17</v>
-      </c>
-      <c r="AD17">
-        <v>6</v>
       </c>
       <c r="AE17">
         <v>49</v>
       </c>
       <c r="AF17">
+        <v>6</v>
+      </c>
+      <c r="AG17">
+        <v>3</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>3</v>
+      </c>
+      <c r="AJ17">
         <v>1502</v>
       </c>
-      <c r="AG17">
+      <c r="AK17">
         <v>20</v>
       </c>
-      <c r="AH17">
+      <c r="AL17">
         <v>497</v>
       </c>
-      <c r="AI17">
+      <c r="AM17">
         <v>0.2857142857142857</v>
       </c>
-      <c r="AJ17">
+      <c r="AN17">
         <v>1.785714285714286</v>
       </c>
-      <c r="AK17">
+      <c r="AO17">
         <v>2.071428571428572</v>
       </c>
-      <c r="AL17">
+      <c r="AP17">
         <v>1.285714285714286</v>
       </c>
-      <c r="AM17">
+      <c r="AQ17">
         <v>0.9285714285714286</v>
       </c>
-      <c r="AN17">
+      <c r="AR17">
         <v>2.214285714285714</v>
       </c>
-      <c r="AO17">
+      <c r="AS17">
         <v>6.642857142857143</v>
       </c>
-      <c r="AP17">
+      <c r="AT17">
         <v>3.571428571428572</v>
       </c>
-      <c r="AQ17">
+      <c r="AU17">
         <v>10.21428571428571</v>
       </c>
-      <c r="AR17">
+      <c r="AV17">
         <v>12.57142857142857</v>
       </c>
-      <c r="AS17">
-        <v>3</v>
-      </c>
-      <c r="AT17">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="AU17">
+      <c r="AW17">
+        <v>3</v>
+      </c>
+      <c r="AX17">
         <v>15.57142857142857</v>
       </c>
-      <c r="AV17">
+      <c r="AY17">
         <v>107.2857142857143</v>
       </c>
-      <c r="AW17">
+      <c r="AZ17">
         <v>1.428571428571429</v>
       </c>
-      <c r="AX17">
-        <v>7</v>
-      </c>
-      <c r="AY17">
-        <v>3</v>
-      </c>
-      <c r="AZ17">
-        <v>12</v>
-      </c>
-      <c r="BA17">
-        <v>7</v>
-      </c>
-      <c r="BB17">
-        <v>6</v>
-      </c>
-      <c r="BC17">
-        <v>3</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>3</v>
-      </c>
     </row>
-    <row r="18" spans="1:57">
+    <row r="18" spans="1:52">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D18">
         <v>1996</v>
@@ -3887,43 +3617,43 @@
         <v>11</v>
       </c>
       <c r="Q18">
+        <v>61</v>
+      </c>
+      <c r="R18">
         <v>8</v>
       </c>
-      <c r="R18">
-        <v>61</v>
-      </c>
       <c r="S18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T18">
         <v>1</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>2</v>
       </c>
       <c r="W18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
         <v>5</v>
       </c>
-      <c r="Y18">
-        <v>3</v>
-      </c>
       <c r="Z18">
         <v>3</v>
       </c>
       <c r="AA18">
+        <v>3</v>
+      </c>
+      <c r="AB18">
         <v>6</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>7</v>
-      </c>
-      <c r="AC18">
-        <v>1</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3932,93 +3662,78 @@
         <v>8</v>
       </c>
       <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
         <v>634</v>
       </c>
-      <c r="AG18">
+      <c r="AK18">
         <v>14</v>
       </c>
-      <c r="AH18">
+      <c r="AL18">
         <v>87</v>
       </c>
-      <c r="AI18">
+      <c r="AM18">
         <v>0.5</v>
       </c>
-      <c r="AJ18">
+      <c r="AN18">
         <v>0.5454545454545454</v>
       </c>
-      <c r="AK18">
+      <c r="AO18">
         <v>1.045454545454545</v>
       </c>
-      <c r="AL18">
+      <c r="AP18">
         <v>0.8636363636363636</v>
       </c>
-      <c r="AM18">
+      <c r="AQ18">
         <v>0.3636363636363636</v>
       </c>
-      <c r="AN18">
+      <c r="AR18">
         <v>1.227272727272727</v>
       </c>
-      <c r="AO18">
+      <c r="AS18">
         <v>1.363636363636364</v>
       </c>
-      <c r="AP18">
+      <c r="AT18">
         <v>0.8181818181818182</v>
       </c>
-      <c r="AQ18">
+      <c r="AU18">
         <v>2.181818181818182</v>
       </c>
-      <c r="AR18">
+      <c r="AV18">
         <v>2.272727272727273</v>
       </c>
-      <c r="AS18">
+      <c r="AW18">
         <v>0.5</v>
       </c>
-      <c r="AT18">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="AU18">
+      <c r="AX18">
         <v>2.772727272727273</v>
       </c>
-      <c r="AV18">
+      <c r="AY18">
         <v>28.81818181818182</v>
       </c>
-      <c r="AW18">
+      <c r="AZ18">
         <v>0.6363636363636364</v>
       </c>
-      <c r="AX18">
-        <v>3</v>
-      </c>
-      <c r="AY18">
-        <v>1</v>
-      </c>
-      <c r="AZ18">
-        <v>8</v>
-      </c>
-      <c r="BA18">
-        <v>3</v>
-      </c>
-      <c r="BB18">
-        <v>1</v>
-      </c>
-      <c r="BC18">
-        <v>1</v>
-      </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
-      <c r="BE18">
-        <v>1</v>
-      </c>
     </row>
-    <row r="19" spans="1:57">
+    <row r="19" spans="1:52">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D19">
         <v>1998</v>
@@ -4060,16 +3775,16 @@
         <v>72</v>
       </c>
       <c r="Q19">
+        <v>126</v>
+      </c>
+      <c r="R19">
         <v>56</v>
       </c>
-      <c r="R19">
-        <v>126</v>
-      </c>
       <c r="S19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4078,120 +3793,105 @@
         <v>2</v>
       </c>
       <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
         <v>7</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>9</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>6</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>9</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>15</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>7</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>17</v>
-      </c>
-      <c r="AD19">
-        <v>15</v>
       </c>
       <c r="AE19">
         <v>24</v>
       </c>
       <c r="AF19">
+        <v>15</v>
+      </c>
+      <c r="AG19">
+        <v>4</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>4</v>
+      </c>
+      <c r="AJ19">
         <v>1165</v>
       </c>
-      <c r="AG19">
+      <c r="AK19">
         <v>17</v>
       </c>
-      <c r="AH19">
+      <c r="AL19">
         <v>356</v>
       </c>
-      <c r="AI19">
+      <c r="AM19">
         <v>0.1</v>
       </c>
-      <c r="AJ19">
+      <c r="AN19">
         <v>0.35</v>
       </c>
-      <c r="AK19">
+      <c r="AO19">
         <v>0.45</v>
       </c>
-      <c r="AL19">
+      <c r="AP19">
         <v>1.25</v>
       </c>
-      <c r="AM19">
+      <c r="AQ19">
         <v>0.8</v>
       </c>
-      <c r="AN19">
+      <c r="AR19">
         <v>2.05</v>
       </c>
-      <c r="AO19">
+      <c r="AS19">
         <v>2.65</v>
       </c>
-      <c r="AP19">
+      <c r="AT19">
         <v>2.2</v>
       </c>
-      <c r="AQ19">
+      <c r="AU19">
         <v>4.85</v>
       </c>
-      <c r="AR19">
+      <c r="AV19">
         <v>2.7</v>
       </c>
-      <c r="AS19">
+      <c r="AW19">
         <v>3.6</v>
       </c>
-      <c r="AT19">
-        <v>2.8</v>
-      </c>
-      <c r="AU19">
+      <c r="AX19">
         <v>6.3</v>
       </c>
-      <c r="AV19">
+      <c r="AY19">
         <v>58.25</v>
       </c>
-      <c r="AW19">
+      <c r="AZ19">
         <v>0.85</v>
       </c>
-      <c r="AX19">
-        <v>11</v>
-      </c>
-      <c r="AY19">
-        <v>4</v>
-      </c>
-      <c r="AZ19">
-        <v>56</v>
-      </c>
-      <c r="BA19">
-        <v>11</v>
-      </c>
-      <c r="BB19">
-        <v>15</v>
-      </c>
-      <c r="BC19">
-        <v>4</v>
-      </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>4</v>
-      </c>
     </row>
-    <row r="20" spans="1:57">
+    <row r="20" spans="1:52">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D20">
         <v>2009</v>
@@ -4233,135 +3933,120 @@
         <v>20</v>
       </c>
       <c r="Q20">
+        <v>71</v>
+      </c>
+      <c r="R20">
         <v>15</v>
       </c>
-      <c r="R20">
-        <v>71</v>
-      </c>
       <c r="S20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
         <v>5</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>6</v>
       </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
       <c r="W20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
         <v>5</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>6</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>9</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>15</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>9</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>5</v>
-      </c>
-      <c r="AD20">
-        <v>3</v>
       </c>
       <c r="AE20">
         <v>14</v>
       </c>
       <c r="AF20">
+        <v>3</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
         <v>1230</v>
       </c>
-      <c r="AG20">
+      <c r="AK20">
         <v>14</v>
       </c>
-      <c r="AH20">
+      <c r="AL20">
         <v>303</v>
       </c>
-      <c r="AI20">
+      <c r="AM20">
         <v>2.777777777777778</v>
       </c>
-      <c r="AJ20">
+      <c r="AN20">
         <v>1.111111111111111</v>
       </c>
-      <c r="AK20">
+      <c r="AO20">
         <v>3.888888888888889</v>
       </c>
-      <c r="AL20">
-        <v>1</v>
-      </c>
-      <c r="AM20">
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
         <v>0.4444444444444444</v>
       </c>
-      <c r="AN20">
+      <c r="AR20">
         <v>1.444444444444444</v>
       </c>
-      <c r="AO20">
-        <v>3</v>
-      </c>
-      <c r="AP20">
+      <c r="AS20">
+        <v>3</v>
+      </c>
+      <c r="AT20">
         <v>1.444444444444444</v>
       </c>
-      <c r="AQ20">
+      <c r="AU20">
         <v>4.444444444444445</v>
       </c>
-      <c r="AR20">
+      <c r="AV20">
         <v>5.666666666666667</v>
       </c>
-      <c r="AS20">
+      <c r="AW20">
         <v>2.222222222222222</v>
       </c>
-      <c r="AT20">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="AU20">
+      <c r="AX20">
         <v>7.888888888888889</v>
       </c>
-      <c r="AV20">
+      <c r="AY20">
         <v>136.6666666666667</v>
       </c>
-      <c r="AW20">
+      <c r="AZ20">
         <v>1.555555555555556</v>
       </c>
-      <c r="AX20">
-        <v>8</v>
-      </c>
-      <c r="AY20">
-        <v>1</v>
-      </c>
-      <c r="AZ20">
-        <v>15</v>
-      </c>
-      <c r="BA20">
-        <v>8</v>
-      </c>
-      <c r="BB20">
-        <v>3</v>
-      </c>
-      <c r="BC20">
-        <v>1</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <v>1</v>
-      </c>
     </row>
-    <row r="21" spans="1:57">
+    <row r="21" spans="1:52">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D21">
         <v>1989</v>
@@ -4403,13 +4088,13 @@
         <v>27</v>
       </c>
       <c r="Q21">
+        <v>66</v>
+      </c>
+      <c r="R21">
         <v>14</v>
       </c>
-      <c r="R21">
-        <v>66</v>
-      </c>
       <c r="S21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -4421,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>2</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z21">
         <v>1</v>
       </c>
       <c r="AA21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -4447,79 +4132,64 @@
       <c r="AE21">
         <v>5</v>
       </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
       <c r="AI21">
         <v>0</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
         <v>0.3793103448275862</v>
       </c>
-      <c r="AM21">
+      <c r="AQ21">
         <v>0.1724137931034483</v>
       </c>
-      <c r="AN21">
+      <c r="AR21">
         <v>0.5517241379310345</v>
       </c>
-      <c r="AO21">
+      <c r="AS21">
         <v>0.7586206896551724</v>
       </c>
-      <c r="AP21">
+      <c r="AT21">
         <v>0.5517241379310345</v>
       </c>
-      <c r="AQ21">
+      <c r="AU21">
         <v>1.310344827586207</v>
       </c>
-      <c r="AR21">
+      <c r="AV21">
         <v>1.344827586206897</v>
       </c>
-      <c r="AS21">
+      <c r="AW21">
         <v>0.9310344827586207</v>
       </c>
-      <c r="AT21">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="AU21">
+      <c r="AX21">
         <v>2.275862068965517</v>
       </c>
-      <c r="AX21">
-        <v>9</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21">
-        <v>14</v>
-      </c>
-      <c r="BA21">
-        <v>9</v>
-      </c>
-      <c r="BB21">
-        <v>2</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:57">
+    <row r="22" spans="1:52">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D22">
         <v>2009</v>
@@ -4561,13 +4231,13 @@
         <v>10</v>
       </c>
       <c r="Q22">
+        <v>86</v>
+      </c>
+      <c r="R22">
         <v>4</v>
       </c>
-      <c r="R22">
-        <v>86</v>
-      </c>
       <c r="S22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -4576,28 +4246,28 @@
         <v>0</v>
       </c>
       <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>6</v>
       </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
       <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
         <v>7</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>22</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>7</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>29</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>42</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4606,93 +4276,78 @@
         <v>43</v>
       </c>
       <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
         <v>449</v>
       </c>
-      <c r="AG22">
+      <c r="AK22">
         <v>11</v>
       </c>
-      <c r="AH22">
+      <c r="AL22">
         <v>190</v>
       </c>
-      <c r="AI22">
+      <c r="AM22">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AL22">
+      <c r="AP22">
         <v>1.111111111111111</v>
       </c>
-      <c r="AM22">
+      <c r="AQ22">
         <v>0.1111111111111111</v>
       </c>
-      <c r="AN22">
+      <c r="AR22">
         <v>1.222222222222222</v>
       </c>
-      <c r="AO22">
+      <c r="AS22">
         <v>5.777777777777778</v>
       </c>
-      <c r="AP22">
+      <c r="AT22">
         <v>1.333333333333333</v>
       </c>
-      <c r="AQ22">
+      <c r="AU22">
         <v>7.111111111111111</v>
       </c>
-      <c r="AR22">
+      <c r="AV22">
         <v>8.444444444444445</v>
       </c>
-      <c r="AS22">
+      <c r="AW22">
         <v>1.111111111111111</v>
       </c>
-      <c r="AT22">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="AU22">
+      <c r="AX22">
         <v>9.555555555555555</v>
       </c>
-      <c r="AV22">
+      <c r="AY22">
         <v>49.88888888888889</v>
       </c>
-      <c r="AW22">
+      <c r="AZ22">
         <v>1.222222222222222</v>
       </c>
-      <c r="AX22">
-        <v>4</v>
-      </c>
-      <c r="AY22">
-        <v>1</v>
-      </c>
-      <c r="AZ22">
-        <v>4</v>
-      </c>
-      <c r="BA22">
-        <v>4</v>
-      </c>
-      <c r="BB22">
-        <v>1</v>
-      </c>
-      <c r="BC22">
-        <v>1</v>
-      </c>
-      <c r="BD22">
-        <v>0</v>
-      </c>
-      <c r="BE22">
-        <v>1</v>
-      </c>
     </row>
-    <row r="23" spans="1:57">
+    <row r="23" spans="1:52">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D23">
         <v>1996</v>
@@ -4734,138 +4389,123 @@
         <v>38</v>
       </c>
       <c r="Q23">
+        <v>167</v>
+      </c>
+      <c r="R23">
         <v>22</v>
       </c>
-      <c r="R23">
-        <v>167</v>
-      </c>
       <c r="S23">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>2</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23">
         <v>13</v>
       </c>
-      <c r="Z23">
-        <v>3</v>
-      </c>
       <c r="AA23">
+        <v>3</v>
+      </c>
+      <c r="AB23">
         <v>16</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>9</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>4</v>
-      </c>
-      <c r="AD23">
-        <v>3</v>
       </c>
       <c r="AE23">
         <v>13</v>
       </c>
       <c r="AF23">
+        <v>3</v>
+      </c>
+      <c r="AG23">
+        <v>3</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>4</v>
+      </c>
+      <c r="AJ23">
         <v>2200</v>
       </c>
-      <c r="AG23">
+      <c r="AK23">
         <v>26</v>
       </c>
-      <c r="AH23">
+      <c r="AL23">
         <v>773</v>
       </c>
-      <c r="AI23">
+      <c r="AM23">
         <v>0.1363636363636364</v>
       </c>
-      <c r="AJ23">
+      <c r="AN23">
         <v>0.5909090909090909</v>
       </c>
-      <c r="AK23">
+      <c r="AO23">
         <v>0.7272727272727273</v>
       </c>
-      <c r="AL23">
+      <c r="AP23">
         <v>1.136363636363636</v>
       </c>
-      <c r="AM23">
+      <c r="AQ23">
         <v>0.4090909090909091</v>
       </c>
-      <c r="AN23">
+      <c r="AR23">
         <v>1.545454545454545</v>
       </c>
-      <c r="AO23">
+      <c r="AS23">
         <v>3.227272727272727</v>
       </c>
-      <c r="AP23">
+      <c r="AT23">
         <v>1.227272727272727</v>
       </c>
-      <c r="AQ23">
+      <c r="AU23">
         <v>4.454545454545454</v>
       </c>
-      <c r="AR23">
+      <c r="AV23">
         <v>5.863636363636363</v>
       </c>
-      <c r="AS23">
+      <c r="AW23">
         <v>1.727272727272727</v>
       </c>
-      <c r="AT23">
-        <v>1</v>
-      </c>
-      <c r="AU23">
+      <c r="AX23">
         <v>7.590909090909091</v>
       </c>
-      <c r="AV23">
+      <c r="AY23">
         <v>100</v>
       </c>
-      <c r="AW23">
+      <c r="AZ23">
         <v>1.181818181818182</v>
       </c>
-      <c r="AX23">
-        <v>21</v>
-      </c>
-      <c r="AY23">
-        <v>3</v>
-      </c>
-      <c r="AZ23">
-        <v>22</v>
-      </c>
-      <c r="BA23">
-        <v>21</v>
-      </c>
-      <c r="BB23">
-        <v>3</v>
-      </c>
-      <c r="BC23">
-        <v>3</v>
-      </c>
-      <c r="BD23">
-        <v>1</v>
-      </c>
-      <c r="BE23">
-        <v>4</v>
-      </c>
     </row>
-    <row r="24" spans="1:57">
+    <row r="24" spans="1:52">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D24">
         <v>2010</v>
@@ -4907,43 +4547,43 @@
         <v>12</v>
       </c>
       <c r="Q24">
+        <v>30</v>
+      </c>
+      <c r="R24">
         <v>9</v>
       </c>
-      <c r="R24">
-        <v>30</v>
-      </c>
       <c r="S24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>2</v>
       </c>
       <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
         <v>4</v>
       </c>
-      <c r="W24">
-        <v>2</v>
-      </c>
       <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
         <v>6</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>4</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>7</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>11</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>4</v>
-      </c>
-      <c r="AC24">
-        <v>1</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -4952,93 +4592,78 @@
         <v>5</v>
       </c>
       <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
         <v>752</v>
       </c>
-      <c r="AG24">
+      <c r="AK24">
         <v>8</v>
       </c>
-      <c r="AH24">
+      <c r="AL24">
         <v>237</v>
       </c>
-      <c r="AI24">
+      <c r="AM24">
         <v>0.75</v>
       </c>
-      <c r="AJ24">
+      <c r="AN24">
         <v>1.375</v>
       </c>
-      <c r="AK24">
+      <c r="AO24">
         <v>2.125</v>
       </c>
-      <c r="AL24">
+      <c r="AP24">
         <v>1.125</v>
       </c>
-      <c r="AM24">
+      <c r="AQ24">
         <v>0.375</v>
       </c>
-      <c r="AN24">
+      <c r="AR24">
         <v>1.5</v>
       </c>
-      <c r="AO24">
-        <v>2</v>
-      </c>
-      <c r="AP24">
+      <c r="AS24">
+        <v>2</v>
+      </c>
+      <c r="AT24">
         <v>1.875</v>
       </c>
-      <c r="AQ24">
+      <c r="AU24">
         <v>3.875</v>
       </c>
-      <c r="AR24">
+      <c r="AV24">
         <v>2.25</v>
       </c>
-      <c r="AS24">
+      <c r="AW24">
         <v>1.5</v>
       </c>
-      <c r="AT24">
-        <v>1.125</v>
-      </c>
-      <c r="AU24">
+      <c r="AX24">
         <v>3.75</v>
       </c>
-      <c r="AV24">
+      <c r="AY24">
         <v>94</v>
       </c>
-      <c r="AW24">
-        <v>1</v>
-      </c>
-      <c r="AX24">
-        <v>8</v>
-      </c>
-      <c r="AY24">
-        <v>1</v>
-      </c>
       <c r="AZ24">
-        <v>9</v>
-      </c>
-      <c r="BA24">
-        <v>8</v>
-      </c>
-      <c r="BB24">
-        <v>1</v>
-      </c>
-      <c r="BC24">
-        <v>1</v>
-      </c>
-      <c r="BD24">
-        <v>0</v>
-      </c>
-      <c r="BE24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:57">
+    <row r="25" spans="1:52">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D25">
         <v>2006</v>
@@ -5080,138 +4705,123 @@
         <v>37</v>
       </c>
       <c r="Q25">
+        <v>173</v>
+      </c>
+      <c r="R25">
         <v>18</v>
       </c>
-      <c r="R25">
-        <v>173</v>
-      </c>
       <c r="S25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
         <v>6</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>7</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>4</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>5</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>9</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>15</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>11</v>
-      </c>
-      <c r="AD25">
-        <v>8</v>
       </c>
       <c r="AE25">
         <v>26</v>
       </c>
       <c r="AF25">
+        <v>8</v>
+      </c>
+      <c r="AG25">
+        <v>7</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>8</v>
+      </c>
+      <c r="AJ25">
         <v>1803</v>
       </c>
-      <c r="AG25">
+      <c r="AK25">
         <v>22</v>
       </c>
-      <c r="AH25">
+      <c r="AL25">
         <v>483</v>
       </c>
-      <c r="AI25">
+      <c r="AM25">
         <v>1.166666666666667</v>
       </c>
-      <c r="AJ25">
+      <c r="AN25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AK25">
+      <c r="AO25">
         <v>1.833333333333333</v>
       </c>
-      <c r="AL25">
+      <c r="AP25">
         <v>1.583333333333333</v>
       </c>
-      <c r="AM25">
+      <c r="AQ25">
         <v>0.75</v>
       </c>
-      <c r="AN25">
+      <c r="AR25">
         <v>2.333333333333333</v>
       </c>
-      <c r="AO25">
+      <c r="AS25">
         <v>2.916666666666667</v>
       </c>
-      <c r="AP25">
+      <c r="AT25">
         <v>1.416666666666667</v>
       </c>
-      <c r="AQ25">
+      <c r="AU25">
         <v>4.333333333333333</v>
       </c>
-      <c r="AR25">
+      <c r="AV25">
         <v>11.33333333333333</v>
       </c>
-      <c r="AS25">
+      <c r="AW25">
         <v>3.083333333333333</v>
       </c>
-      <c r="AT25">
-        <v>1.5</v>
-      </c>
-      <c r="AU25">
+      <c r="AX25">
         <v>14.41666666666667</v>
       </c>
-      <c r="AV25">
+      <c r="AY25">
         <v>150.25</v>
       </c>
-      <c r="AW25">
+      <c r="AZ25">
         <v>1.833333333333333</v>
       </c>
-      <c r="AX25">
-        <v>11</v>
-      </c>
-      <c r="AY25">
-        <v>7</v>
-      </c>
-      <c r="AZ25">
-        <v>18</v>
-      </c>
-      <c r="BA25">
-        <v>11</v>
-      </c>
-      <c r="BB25">
-        <v>8</v>
-      </c>
-      <c r="BC25">
-        <v>7</v>
-      </c>
-      <c r="BD25">
-        <v>1</v>
-      </c>
-      <c r="BE25">
-        <v>8</v>
-      </c>
     </row>
-    <row r="26" spans="1:57">
+    <row r="26" spans="1:52">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D26">
         <v>2003</v>
@@ -5253,22 +4863,22 @@
         <v>14</v>
       </c>
       <c r="Q26">
+        <v>31</v>
+      </c>
+      <c r="R26">
         <v>10</v>
       </c>
-      <c r="R26">
-        <v>31</v>
-      </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>1</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -5286,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5298,93 +4908,78 @@
         <v>3</v>
       </c>
       <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>310</v>
       </c>
-      <c r="AG26">
+      <c r="AK26">
         <v>9</v>
       </c>
-      <c r="AH26">
+      <c r="AL26">
         <v>51</v>
       </c>
-      <c r="AI26">
+      <c r="AM26">
         <v>0.06666666666666667</v>
       </c>
-      <c r="AJ26">
+      <c r="AN26">
         <v>0.4666666666666667</v>
       </c>
-      <c r="AK26">
+      <c r="AO26">
         <v>0.5333333333333333</v>
       </c>
-      <c r="AL26">
+      <c r="AP26">
         <v>0.7333333333333333</v>
       </c>
-      <c r="AM26">
+      <c r="AQ26">
         <v>0.1333333333333333</v>
       </c>
-      <c r="AN26">
+      <c r="AR26">
         <v>0.8666666666666667</v>
       </c>
-      <c r="AO26">
+      <c r="AS26">
         <v>0.8</v>
       </c>
-      <c r="AP26">
+      <c r="AT26">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AQ26">
+      <c r="AU26">
         <v>1.133333333333333</v>
       </c>
-      <c r="AR26">
+      <c r="AV26">
         <v>1.133333333333333</v>
       </c>
-      <c r="AS26">
+      <c r="AW26">
         <v>0.9333333333333333</v>
       </c>
-      <c r="AT26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AU26">
+      <c r="AX26">
         <v>2.066666666666667</v>
       </c>
-      <c r="AV26">
+      <c r="AY26">
         <v>20.66666666666667</v>
       </c>
-      <c r="AW26">
+      <c r="AZ26">
         <v>0.6</v>
       </c>
-      <c r="AX26">
-        <v>1</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26">
-        <v>10</v>
-      </c>
-      <c r="BA26">
-        <v>1</v>
-      </c>
-      <c r="BB26">
-        <v>1</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:57">
+    <row r="27" spans="1:52">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D27">
         <v>1994</v>
@@ -5426,13 +5021,13 @@
         <v>25</v>
       </c>
       <c r="Q27">
+        <v>98</v>
+      </c>
+      <c r="R27">
         <v>21</v>
       </c>
-      <c r="R27">
-        <v>98</v>
-      </c>
       <c r="S27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -5441,73 +5036,73 @@
         <v>0</v>
       </c>
       <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>4</v>
       </c>
-      <c r="W27">
-        <v>2</v>
-      </c>
       <c r="X27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y27">
         <v>6</v>
       </c>
       <c r="Z27">
+        <v>6</v>
+      </c>
+      <c r="AA27">
         <v>4</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>10</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>11</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>8</v>
-      </c>
-      <c r="AD27">
-        <v>6</v>
       </c>
       <c r="AE27">
         <v>19</v>
       </c>
       <c r="AF27">
+        <v>6</v>
+      </c>
+      <c r="AG27">
+        <v>3</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>3</v>
+      </c>
+      <c r="AJ27">
         <v>1145</v>
       </c>
-      <c r="AG27">
+      <c r="AK27">
         <v>16</v>
       </c>
-      <c r="AH27">
+      <c r="AL27">
         <v>309</v>
       </c>
-      <c r="AI27">
+      <c r="AM27">
         <v>0.375</v>
       </c>
-      <c r="AJ27">
+      <c r="AN27">
         <v>0.1666666666666667</v>
       </c>
-      <c r="AK27">
+      <c r="AO27">
         <v>0.5416666666666666</v>
       </c>
-      <c r="AL27">
-        <v>1</v>
-      </c>
-      <c r="AM27">
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AN27">
+      <c r="AR27">
         <v>1.333333333333333</v>
-      </c>
-      <c r="AO27">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="AP27">
-        <v>0.875</v>
-      </c>
-      <c r="AQ27">
-        <v>1.916666666666667</v>
-      </c>
-      <c r="AR27">
-        <v>3.041666666666667</v>
       </c>
       <c r="AS27">
         <v>1.041666666666667</v>
@@ -5516,48 +5111,33 @@
         <v>0.875</v>
       </c>
       <c r="AU27">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="AV27">
+        <v>3.041666666666667</v>
+      </c>
+      <c r="AW27">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="AX27">
         <v>4.083333333333333</v>
       </c>
-      <c r="AV27">
+      <c r="AY27">
         <v>47.70833333333334</v>
       </c>
-      <c r="AW27">
+      <c r="AZ27">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AX27">
-        <v>11</v>
-      </c>
-      <c r="AY27">
-        <v>3</v>
-      </c>
-      <c r="AZ27">
-        <v>21</v>
-      </c>
-      <c r="BA27">
-        <v>11</v>
-      </c>
-      <c r="BB27">
-        <v>6</v>
-      </c>
-      <c r="BC27">
-        <v>3</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>3</v>
-      </c>
     </row>
-    <row r="28" spans="1:57">
+    <row r="28" spans="1:52">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D28">
         <v>2011</v>
@@ -5599,43 +5179,43 @@
         <v>3</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R28">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>3</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
       <c r="AA28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB28">
+        <v>2</v>
+      </c>
+      <c r="AC28">
         <v>16</v>
-      </c>
-      <c r="AC28">
-        <v>1</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5644,93 +5224,78 @@
         <v>17</v>
       </c>
       <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>195</v>
       </c>
-      <c r="AG28">
+      <c r="AK28">
         <v>8</v>
       </c>
-      <c r="AH28">
+      <c r="AL28">
         <v>91</v>
       </c>
-      <c r="AI28">
+      <c r="AM28">
         <v>0.5714285714285714</v>
-      </c>
-      <c r="AJ28">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="AK28">
-        <v>1</v>
-      </c>
-      <c r="AL28">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
       </c>
       <c r="AN28">
         <v>0.4285714285714285</v>
       </c>
       <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AS28">
         <v>0.2857142857142857</v>
-      </c>
-      <c r="AP28">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="AQ28">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="AR28">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="AS28">
-        <v>0.4285714285714285</v>
       </c>
       <c r="AT28">
         <v>0.1428571428571428</v>
       </c>
       <c r="AU28">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AV28">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="AW28">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AX28">
         <v>4.285714285714286</v>
       </c>
-      <c r="AV28">
+      <c r="AY28">
         <v>27.85714285714286</v>
       </c>
-      <c r="AW28">
+      <c r="AZ28">
         <v>1.142857142857143</v>
       </c>
-      <c r="AX28">
-        <v>0</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>1</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>1</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:57">
+    <row r="29" spans="1:52">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D29">
         <v>2006</v>
@@ -5772,138 +5337,123 @@
         <v>14</v>
       </c>
       <c r="Q29">
+        <v>35</v>
+      </c>
+      <c r="R29">
         <v>7</v>
       </c>
-      <c r="R29">
-        <v>35</v>
-      </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>2</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z29">
         <v>1</v>
       </c>
       <c r="AA29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB29">
+        <v>2</v>
+      </c>
+      <c r="AC29">
         <v>7</v>
       </c>
-      <c r="AC29">
-        <v>2</v>
-      </c>
       <c r="AD29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29">
         <v>9</v>
       </c>
       <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
         <v>71</v>
       </c>
-      <c r="AG29">
+      <c r="AK29">
         <v>4</v>
       </c>
-      <c r="AH29">
+      <c r="AL29">
         <v>27</v>
       </c>
-      <c r="AI29">
+      <c r="AM29">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AJ29">
+      <c r="AN29">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AK29">
-        <v>1</v>
-      </c>
-      <c r="AL29">
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
         <v>0.4166666666666667</v>
       </c>
-      <c r="AM29">
+      <c r="AQ29">
         <v>0.1666666666666667</v>
       </c>
-      <c r="AN29">
+      <c r="AR29">
         <v>0.5833333333333334</v>
       </c>
-      <c r="AO29">
+      <c r="AS29">
         <v>0.4166666666666667</v>
       </c>
-      <c r="AP29">
+      <c r="AT29">
         <v>0.25</v>
       </c>
-      <c r="AQ29">
+      <c r="AU29">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AR29">
+      <c r="AV29">
         <v>1.75</v>
       </c>
-      <c r="AS29">
+      <c r="AW29">
         <v>1.166666666666667</v>
       </c>
-      <c r="AT29">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="AU29">
+      <c r="AX29">
         <v>2.916666666666667</v>
       </c>
-      <c r="AV29">
+      <c r="AY29">
         <v>5.916666666666667</v>
       </c>
-      <c r="AW29">
+      <c r="AZ29">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
-        <v>7</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>1</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:57">
+    <row r="30" spans="1:52">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D30">
         <v>2011</v>
@@ -5945,138 +5495,123 @@
         <v>12</v>
       </c>
       <c r="Q30">
+        <v>40</v>
+      </c>
+      <c r="R30">
         <v>9</v>
       </c>
-      <c r="R30">
-        <v>40</v>
-      </c>
       <c r="S30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T30">
         <v>1</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>1</v>
       </c>
       <c r="X30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>2</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB30">
+        <v>2</v>
+      </c>
+      <c r="AC30">
         <v>4</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>7</v>
-      </c>
-      <c r="AD30">
-        <v>5</v>
       </c>
       <c r="AE30">
         <v>11</v>
       </c>
       <c r="AF30">
+        <v>5</v>
+      </c>
+      <c r="AG30">
+        <v>4</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>4</v>
+      </c>
+      <c r="AJ30">
         <v>477</v>
       </c>
-      <c r="AG30">
+      <c r="AK30">
         <v>12</v>
       </c>
-      <c r="AH30">
+      <c r="AL30">
         <v>192</v>
       </c>
-      <c r="AI30">
+      <c r="AM30">
         <v>1.714285714285714</v>
       </c>
-      <c r="AJ30">
+      <c r="AN30">
         <v>0.4285714285714285</v>
       </c>
-      <c r="AK30">
+      <c r="AO30">
         <v>2.142857142857143</v>
       </c>
-      <c r="AL30">
+      <c r="AP30">
         <v>0.1428571428571428</v>
       </c>
-      <c r="AM30">
+      <c r="AQ30">
         <v>0.1428571428571428</v>
       </c>
-      <c r="AN30">
+      <c r="AR30">
         <v>0.2857142857142857</v>
       </c>
-      <c r="AO30">
+      <c r="AS30">
         <v>0.2857142857142857</v>
       </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
         <v>0.2857142857142857</v>
       </c>
-      <c r="AR30">
+      <c r="AV30">
         <v>4</v>
-      </c>
-      <c r="AS30">
-        <v>1.714285714285714</v>
-      </c>
-      <c r="AT30">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="AU30">
-        <v>5.714285714285714</v>
-      </c>
-      <c r="AV30">
-        <v>68.14285714285714</v>
       </c>
       <c r="AW30">
         <v>1.714285714285714</v>
       </c>
       <c r="AX30">
-        <v>5</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="AY30">
-        <v>4</v>
+        <v>68.14285714285714</v>
       </c>
       <c r="AZ30">
-        <v>9</v>
-      </c>
-      <c r="BA30">
-        <v>5</v>
-      </c>
-      <c r="BB30">
-        <v>5</v>
-      </c>
-      <c r="BC30">
-        <v>4</v>
-      </c>
-      <c r="BD30">
-        <v>0</v>
-      </c>
-      <c r="BE30">
-        <v>4</v>
+        <v>1.714285714285714</v>
       </c>
     </row>
-    <row r="31" spans="1:57">
+    <row r="31" spans="1:52">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D31">
         <v>2009</v>
@@ -6118,16 +5653,16 @@
         <v>9</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="R31">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6136,120 +5671,105 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>3</v>
       </c>
       <c r="AB31">
+        <v>3</v>
+      </c>
+      <c r="AC31">
         <v>9</v>
       </c>
-      <c r="AC31">
-        <v>2</v>
-      </c>
       <c r="AD31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE31">
         <v>11</v>
       </c>
       <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
         <v>296</v>
       </c>
-      <c r="AG31">
+      <c r="AK31">
         <v>10</v>
       </c>
-      <c r="AH31">
+      <c r="AL31">
         <v>107</v>
       </c>
-      <c r="AI31">
+      <c r="AM31">
         <v>0.5555555555555556</v>
       </c>
-      <c r="AJ31">
+      <c r="AN31">
         <v>0.2222222222222222</v>
-      </c>
-      <c r="AK31">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="AL31">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>0.1111111111111111</v>
       </c>
       <c r="AO31">
         <v>0.7777777777777778</v>
       </c>
       <c r="AP31">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AS31">
         <v>0.7777777777777778</v>
       </c>
-      <c r="AQ31">
+      <c r="AT31">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="AU31">
         <v>1.555555555555556</v>
       </c>
-      <c r="AR31">
+      <c r="AV31">
         <v>2.888888888888889</v>
       </c>
-      <c r="AS31">
-        <v>1</v>
-      </c>
-      <c r="AT31">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="AU31">
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
         <v>3.888888888888889</v>
       </c>
-      <c r="AV31">
+      <c r="AY31">
         <v>32.88888888888889</v>
       </c>
-      <c r="AW31">
+      <c r="AZ31">
         <v>1.111111111111111</v>
       </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31">
-        <v>2</v>
-      </c>
-      <c r="BA31">
-        <v>1</v>
-      </c>
-      <c r="BB31">
-        <v>0</v>
-      </c>
-      <c r="BC31">
-        <v>0</v>
-      </c>
-      <c r="BD31">
-        <v>0</v>
-      </c>
-      <c r="BE31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:57">
+    <row r="32" spans="1:52">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D32">
         <v>1989</v>
@@ -6291,16 +5811,16 @@
         <v>84</v>
       </c>
       <c r="Q32">
+        <v>300</v>
+      </c>
+      <c r="R32">
         <v>37</v>
       </c>
-      <c r="R32">
-        <v>300</v>
-      </c>
       <c r="S32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <v>2</v>
@@ -6309,120 +5829,105 @@
         <v>2</v>
       </c>
       <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
         <v>9</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>11</v>
       </c>
-      <c r="Y32">
-        <v>1</v>
-      </c>
       <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
         <v>13</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>14</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>22</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>19</v>
-      </c>
-      <c r="AD32">
-        <v>14</v>
       </c>
       <c r="AE32">
         <v>41</v>
       </c>
       <c r="AF32">
+        <v>14</v>
+      </c>
+      <c r="AG32">
+        <v>12</v>
+      </c>
+      <c r="AH32">
+        <v>2</v>
+      </c>
+      <c r="AI32">
+        <v>14</v>
+      </c>
+      <c r="AJ32">
         <v>2764</v>
       </c>
-      <c r="AG32">
+      <c r="AK32">
         <v>27</v>
       </c>
-      <c r="AH32">
+      <c r="AL32">
         <v>993</v>
       </c>
-      <c r="AI32">
+      <c r="AM32">
         <v>0.06896551724137931</v>
       </c>
-      <c r="AJ32">
+      <c r="AN32">
         <v>0.6896551724137931</v>
       </c>
-      <c r="AK32">
+      <c r="AO32">
         <v>0.7586206896551724</v>
       </c>
-      <c r="AL32">
+      <c r="AP32">
         <v>1.793103448275862</v>
       </c>
-      <c r="AM32">
+      <c r="AQ32">
         <v>0.9310344827586207</v>
       </c>
-      <c r="AN32">
+      <c r="AR32">
         <v>2.724137931034483</v>
       </c>
-      <c r="AO32">
+      <c r="AS32">
         <v>5.379310344827586</v>
       </c>
-      <c r="AP32">
+      <c r="AT32">
         <v>3.827586206896552</v>
       </c>
-      <c r="AQ32">
+      <c r="AU32">
         <v>9.206896551724139</v>
       </c>
-      <c r="AR32">
+      <c r="AV32">
         <v>7.448275862068965</v>
       </c>
-      <c r="AS32">
+      <c r="AW32">
         <v>2.896551724137931</v>
       </c>
-      <c r="AT32">
-        <v>1.275862068965517</v>
-      </c>
-      <c r="AU32">
+      <c r="AX32">
         <v>10.3448275862069</v>
       </c>
-      <c r="AV32">
+      <c r="AY32">
         <v>95.31034482758621</v>
       </c>
-      <c r="AW32">
+      <c r="AZ32">
         <v>0.9310344827586207</v>
       </c>
-      <c r="AX32">
-        <v>30</v>
-      </c>
-      <c r="AY32">
-        <v>12</v>
-      </c>
-      <c r="AZ32">
-        <v>37</v>
-      </c>
-      <c r="BA32">
-        <v>30</v>
-      </c>
-      <c r="BB32">
-        <v>14</v>
-      </c>
-      <c r="BC32">
-        <v>12</v>
-      </c>
-      <c r="BD32">
-        <v>2</v>
-      </c>
-      <c r="BE32">
-        <v>14</v>
-      </c>
     </row>
-    <row r="33" spans="1:57">
+    <row r="33" spans="1:52">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D33">
         <v>2009</v>
@@ -6464,43 +5969,43 @@
         <v>12</v>
       </c>
       <c r="Q33">
+        <v>29</v>
+      </c>
+      <c r="R33">
         <v>11</v>
       </c>
-      <c r="R33">
-        <v>29</v>
-      </c>
       <c r="S33">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y33">
+        <v>3</v>
+      </c>
+      <c r="Z33">
         <v>7</v>
       </c>
-      <c r="Z33">
-        <v>3</v>
-      </c>
       <c r="AA33">
+        <v>3</v>
+      </c>
+      <c r="AB33">
         <v>10</v>
       </c>
-      <c r="AB33">
-        <v>3</v>
-      </c>
       <c r="AC33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD33">
         <v>5</v>
@@ -6509,93 +6014,78 @@
         <v>8</v>
       </c>
       <c r="AF33">
+        <v>5</v>
+      </c>
+      <c r="AG33">
+        <v>4</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>5</v>
+      </c>
+      <c r="AJ33">
         <v>224</v>
       </c>
-      <c r="AG33">
+      <c r="AK33">
         <v>7</v>
       </c>
-      <c r="AH33">
+      <c r="AL33">
         <v>111</v>
       </c>
-      <c r="AI33">
+      <c r="AM33">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AJ33">
+      <c r="AN33">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AK33">
-        <v>1</v>
-      </c>
-      <c r="AL33">
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
         <v>0.8888888888888888</v>
       </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-      <c r="AN33">
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
         <v>0.8888888888888888</v>
       </c>
-      <c r="AO33">
-        <v>2</v>
-      </c>
-      <c r="AP33">
+      <c r="AS33">
+        <v>2</v>
+      </c>
+      <c r="AT33">
         <v>0.4444444444444444</v>
       </c>
-      <c r="AQ33">
+      <c r="AU33">
         <v>2.444444444444445</v>
       </c>
-      <c r="AR33">
+      <c r="AV33">
         <v>1.888888888888889</v>
       </c>
-      <c r="AS33">
+      <c r="AW33">
         <v>1.333333333333333</v>
       </c>
-      <c r="AT33">
-        <v>1.222222222222222</v>
-      </c>
-      <c r="AU33">
+      <c r="AX33">
         <v>3.222222222222222</v>
       </c>
-      <c r="AV33">
+      <c r="AY33">
         <v>24.88888888888889</v>
       </c>
-      <c r="AW33">
+      <c r="AZ33">
         <v>0.7777777777777778</v>
       </c>
-      <c r="AX33">
-        <v>9</v>
-      </c>
-      <c r="AY33">
-        <v>4</v>
-      </c>
-      <c r="AZ33">
-        <v>11</v>
-      </c>
-      <c r="BA33">
-        <v>9</v>
-      </c>
-      <c r="BB33">
-        <v>5</v>
-      </c>
-      <c r="BC33">
-        <v>4</v>
-      </c>
-      <c r="BD33">
-        <v>1</v>
-      </c>
-      <c r="BE33">
-        <v>5</v>
-      </c>
     </row>
-    <row r="34" spans="1:57">
+    <row r="34" spans="1:52">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D34">
         <v>1983</v>
@@ -6637,13 +6127,13 @@
         <v>40</v>
       </c>
       <c r="Q34">
+        <v>197</v>
+      </c>
+      <c r="R34">
         <v>24</v>
       </c>
-      <c r="R34">
-        <v>197</v>
-      </c>
       <c r="S34">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -6652,16 +6142,16 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -6670,105 +6160,90 @@
         <v>0</v>
       </c>
       <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
         <v>12</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>4</v>
-      </c>
-      <c r="AD34">
-        <v>3</v>
       </c>
       <c r="AE34">
         <v>16</v>
       </c>
       <c r="AF34">
+        <v>3</v>
+      </c>
+      <c r="AG34">
+        <v>2</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>2</v>
+      </c>
+      <c r="AJ34">
         <v>1422</v>
       </c>
-      <c r="AG34">
+      <c r="AK34">
         <v>19</v>
       </c>
-      <c r="AH34">
+      <c r="AL34">
         <v>343</v>
       </c>
-      <c r="AI34">
+      <c r="AM34">
         <v>0.08571428571428572</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
         <v>0.08571428571428572</v>
       </c>
-      <c r="AL34">
+      <c r="AP34">
         <v>0.9428571428571428</v>
       </c>
-      <c r="AM34">
+      <c r="AQ34">
         <v>0.2285714285714286</v>
       </c>
-      <c r="AN34">
+      <c r="AR34">
         <v>1.171428571428571</v>
       </c>
-      <c r="AO34">
+      <c r="AS34">
         <v>0.02857142857142857</v>
       </c>
-      <c r="AP34">
+      <c r="AT34">
         <v>0.02857142857142857</v>
       </c>
-      <c r="AQ34">
+      <c r="AU34">
         <v>0.05714285714285714</v>
       </c>
-      <c r="AR34">
+      <c r="AV34">
         <v>4.485714285714286</v>
       </c>
-      <c r="AS34">
+      <c r="AW34">
         <v>1.142857142857143</v>
       </c>
-      <c r="AT34">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="AU34">
+      <c r="AX34">
         <v>5.628571428571429</v>
       </c>
-      <c r="AV34">
+      <c r="AY34">
         <v>40.62857142857143</v>
       </c>
-      <c r="AW34">
+      <c r="AZ34">
         <v>0.5428571428571428</v>
       </c>
-      <c r="AX34">
-        <v>21</v>
-      </c>
-      <c r="AY34">
-        <v>2</v>
-      </c>
-      <c r="AZ34">
-        <v>24</v>
-      </c>
-      <c r="BA34">
-        <v>21</v>
-      </c>
-      <c r="BB34">
-        <v>3</v>
-      </c>
-      <c r="BC34">
-        <v>2</v>
-      </c>
-      <c r="BD34">
-        <v>0</v>
-      </c>
-      <c r="BE34">
-        <v>2</v>
-      </c>
     </row>
-    <row r="35" spans="1:57">
+    <row r="35" spans="1:52">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D35">
         <v>1984</v>
@@ -6810,13 +6285,13 @@
         <v>21</v>
       </c>
       <c r="Q35">
+        <v>135</v>
+      </c>
+      <c r="R35">
         <v>7</v>
       </c>
-      <c r="R35">
-        <v>135</v>
-      </c>
       <c r="S35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -6828,13 +6303,13 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X35">
         <v>2</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -6843,10 +6318,10 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -6855,93 +6330,78 @@
         <v>1</v>
       </c>
       <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
         <v>1146</v>
       </c>
-      <c r="AG35">
+      <c r="AK35">
         <v>20</v>
       </c>
-      <c r="AH35">
+      <c r="AL35">
         <v>179</v>
       </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AJ35">
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
         <v>0.3823529411764706</v>
       </c>
-      <c r="AK35">
+      <c r="AO35">
         <v>0.3823529411764706</v>
       </c>
-      <c r="AL35">
+      <c r="AP35">
         <v>1.294117647058824</v>
       </c>
-      <c r="AM35">
+      <c r="AQ35">
         <v>0.2352941176470588</v>
       </c>
-      <c r="AN35">
+      <c r="AR35">
         <v>1.529411764705882</v>
       </c>
-      <c r="AO35">
+      <c r="AS35">
         <v>0.2647058823529412</v>
       </c>
-      <c r="AP35">
+      <c r="AT35">
         <v>0.2352941176470588</v>
       </c>
-      <c r="AQ35">
+      <c r="AU35">
         <v>0.5</v>
       </c>
-      <c r="AR35">
+      <c r="AV35">
         <v>3.352941176470588</v>
       </c>
-      <c r="AS35">
+      <c r="AW35">
         <v>0.6176470588235294</v>
       </c>
-      <c r="AT35">
-        <v>0.2058823529411765</v>
-      </c>
-      <c r="AU35">
+      <c r="AX35">
         <v>3.970588235294118</v>
       </c>
-      <c r="AV35">
+      <c r="AY35">
         <v>33.70588235294117</v>
       </c>
-      <c r="AW35">
+      <c r="AZ35">
         <v>0.5882352941176471</v>
       </c>
-      <c r="AX35">
-        <v>2</v>
-      </c>
-      <c r="AY35">
-        <v>0</v>
-      </c>
-      <c r="AZ35">
-        <v>7</v>
-      </c>
-      <c r="BA35">
-        <v>2</v>
-      </c>
-      <c r="BB35">
-        <v>0</v>
-      </c>
-      <c r="BC35">
-        <v>0</v>
-      </c>
-      <c r="BD35">
-        <v>0</v>
-      </c>
-      <c r="BE35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:57">
+    <row r="36" spans="1:52">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D36">
         <v>1999</v>
@@ -6983,43 +6443,43 @@
         <v>20</v>
       </c>
       <c r="Q36">
+        <v>67</v>
+      </c>
+      <c r="R36">
         <v>12</v>
       </c>
-      <c r="R36">
-        <v>67</v>
-      </c>
       <c r="S36">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T36">
         <v>1</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X36">
         <v>2</v>
       </c>
       <c r="Y36">
+        <v>2</v>
+      </c>
+      <c r="Z36">
         <v>5</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>10</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>15</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>7</v>
-      </c>
-      <c r="AC36">
-        <v>3</v>
       </c>
       <c r="AD36">
         <v>3</v>
@@ -7028,93 +6488,78 @@
         <v>10</v>
       </c>
       <c r="AF36">
+        <v>3</v>
+      </c>
+      <c r="AG36">
+        <v>3</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>3</v>
+      </c>
+      <c r="AJ36">
         <v>1126</v>
       </c>
-      <c r="AG36">
+      <c r="AK36">
         <v>19</v>
       </c>
-      <c r="AH36">
+      <c r="AL36">
         <v>224</v>
-      </c>
-      <c r="AI36">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="AJ36">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="AK36">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="AL36">
-        <v>0.4736842105263158</v>
       </c>
       <c r="AM36">
         <v>0.2105263157894737</v>
       </c>
       <c r="AN36">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="AO36">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="AP36">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="AQ36">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AR36">
         <v>0.6842105263157895</v>
       </c>
-      <c r="AO36">
+      <c r="AS36">
         <v>2.736842105263158</v>
       </c>
-      <c r="AP36">
-        <v>2</v>
-      </c>
-      <c r="AQ36">
+      <c r="AT36">
+        <v>2</v>
+      </c>
+      <c r="AU36">
         <v>4.736842105263158</v>
       </c>
-      <c r="AR36">
+      <c r="AV36">
         <v>2.473684210526316</v>
       </c>
-      <c r="AS36">
+      <c r="AW36">
         <v>1.052631578947368</v>
       </c>
-      <c r="AT36">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="AU36">
+      <c r="AX36">
         <v>3.526315789473684</v>
       </c>
-      <c r="AV36">
+      <c r="AY36">
         <v>59.26315789473684</v>
       </c>
-      <c r="AW36">
-        <v>1</v>
-      </c>
-      <c r="AX36">
-        <v>11</v>
-      </c>
-      <c r="AY36">
-        <v>3</v>
-      </c>
       <c r="AZ36">
-        <v>12</v>
-      </c>
-      <c r="BA36">
-        <v>11</v>
-      </c>
-      <c r="BB36">
-        <v>3</v>
-      </c>
-      <c r="BC36">
-        <v>3</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
-      <c r="BE36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:57">
+    <row r="37" spans="1:52">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D37">
         <v>2014</v>
@@ -7156,138 +6601,123 @@
         <v>25</v>
       </c>
       <c r="Q37">
+        <v>59</v>
+      </c>
+      <c r="R37">
         <v>14</v>
       </c>
-      <c r="R37">
-        <v>59</v>
-      </c>
       <c r="S37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>3</v>
       </c>
       <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
         <v>4</v>
       </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
       <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
         <v>5</v>
       </c>
-      <c r="Y37">
-        <v>3</v>
-      </c>
       <c r="Z37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AB37">
         <v>5</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>17</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>16</v>
-      </c>
-      <c r="AD37">
-        <v>10</v>
       </c>
       <c r="AE37">
         <v>33</v>
       </c>
       <c r="AF37">
+        <v>10</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37">
         <v>135</v>
       </c>
-      <c r="AG37">
+      <c r="AK37">
         <v>7</v>
       </c>
-      <c r="AH37">
+      <c r="AL37">
         <v>102</v>
       </c>
-      <c r="AI37">
+      <c r="AM37">
         <v>0.5</v>
       </c>
-      <c r="AJ37">
-        <v>1</v>
-      </c>
-      <c r="AK37">
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>1.5</v>
       </c>
-      <c r="AL37">
-        <v>1</v>
-      </c>
-      <c r="AM37">
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37">
         <v>0.25</v>
       </c>
-      <c r="AN37">
+      <c r="AR37">
         <v>1.25</v>
       </c>
-      <c r="AO37">
+      <c r="AS37">
         <v>0.75</v>
       </c>
-      <c r="AP37">
+      <c r="AT37">
         <v>0.5</v>
       </c>
-      <c r="AQ37">
+      <c r="AU37">
         <v>1.25</v>
       </c>
-      <c r="AR37">
+      <c r="AV37">
         <v>8.5</v>
       </c>
-      <c r="AS37">
+      <c r="AW37">
         <v>6.25</v>
       </c>
-      <c r="AT37">
-        <v>3.5</v>
-      </c>
-      <c r="AU37">
+      <c r="AX37">
         <v>14.75</v>
       </c>
-      <c r="AV37">
+      <c r="AY37">
         <v>33.75</v>
       </c>
-      <c r="AW37">
+      <c r="AZ37">
         <v>1.75</v>
       </c>
-      <c r="AX37">
-        <v>2</v>
-      </c>
-      <c r="AY37">
-        <v>1</v>
-      </c>
-      <c r="AZ37">
-        <v>14</v>
-      </c>
-      <c r="BA37">
-        <v>2</v>
-      </c>
-      <c r="BB37">
-        <v>10</v>
-      </c>
-      <c r="BC37">
-        <v>1</v>
-      </c>
-      <c r="BD37">
-        <v>0</v>
-      </c>
-      <c r="BE37">
-        <v>1</v>
-      </c>
     </row>
-    <row r="38" spans="1:57">
+    <row r="38" spans="1:52">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D38">
         <v>2004</v>
@@ -7329,138 +6759,123 @@
         <v>28</v>
       </c>
       <c r="Q38">
+        <v>105</v>
+      </c>
+      <c r="R38">
         <v>12</v>
       </c>
-      <c r="R38">
-        <v>105</v>
-      </c>
       <c r="S38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T38">
         <v>1</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
         <v>4</v>
       </c>
-      <c r="W38">
-        <v>3</v>
-      </c>
       <c r="X38">
+        <v>3</v>
+      </c>
+      <c r="Y38">
         <v>7</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>4</v>
       </c>
-      <c r="Z38">
-        <v>3</v>
-      </c>
       <c r="AA38">
+        <v>3</v>
+      </c>
+      <c r="AB38">
         <v>7</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>13</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>7</v>
-      </c>
-      <c r="AD38">
-        <v>4</v>
       </c>
       <c r="AE38">
         <v>20</v>
       </c>
       <c r="AF38">
+        <v>4</v>
+      </c>
+      <c r="AG38">
+        <v>3</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>3</v>
+      </c>
+      <c r="AJ38">
         <v>1281</v>
       </c>
-      <c r="AG38">
+      <c r="AK38">
         <v>19</v>
       </c>
-      <c r="AH38">
+      <c r="AL38">
         <v>318</v>
       </c>
-      <c r="AI38">
+      <c r="AM38">
         <v>0.7142857142857143</v>
       </c>
-      <c r="AJ38">
+      <c r="AN38">
         <v>0.7142857142857143</v>
       </c>
-      <c r="AK38">
+      <c r="AO38">
         <v>1.428571428571429</v>
       </c>
-      <c r="AL38">
+      <c r="AP38">
         <v>1.785714285714286</v>
       </c>
-      <c r="AM38">
+      <c r="AQ38">
         <v>0.2857142857142857</v>
       </c>
-      <c r="AN38">
+      <c r="AR38">
         <v>2.071428571428572</v>
       </c>
-      <c r="AO38">
-        <v>2</v>
-      </c>
-      <c r="AP38">
+      <c r="AS38">
+        <v>2</v>
+      </c>
+      <c r="AT38">
         <v>0.3571428571428572</v>
       </c>
-      <c r="AQ38">
+      <c r="AU38">
         <v>2.357142857142857</v>
       </c>
-      <c r="AR38">
+      <c r="AV38">
         <v>5.5</v>
       </c>
-      <c r="AS38">
-        <v>2</v>
-      </c>
-      <c r="AT38">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="AU38">
+      <c r="AW38">
+        <v>2</v>
+      </c>
+      <c r="AX38">
         <v>7.5</v>
       </c>
-      <c r="AV38">
+      <c r="AY38">
         <v>91.5</v>
       </c>
-      <c r="AW38">
+      <c r="AZ38">
         <v>1.357142857142857</v>
       </c>
-      <c r="AX38">
-        <v>6</v>
-      </c>
-      <c r="AY38">
-        <v>3</v>
-      </c>
-      <c r="AZ38">
-        <v>12</v>
-      </c>
-      <c r="BA38">
-        <v>6</v>
-      </c>
-      <c r="BB38">
-        <v>4</v>
-      </c>
-      <c r="BC38">
-        <v>3</v>
-      </c>
-      <c r="BD38">
-        <v>0</v>
-      </c>
-      <c r="BE38">
-        <v>3</v>
-      </c>
     </row>
-    <row r="39" spans="1:57">
+    <row r="39" spans="1:52">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D39">
         <v>2004</v>
@@ -7502,13 +6917,13 @@
         <v>16</v>
       </c>
       <c r="Q39">
+        <v>94</v>
+      </c>
+      <c r="R39">
         <v>8</v>
       </c>
-      <c r="R39">
-        <v>94</v>
-      </c>
       <c r="S39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -7517,16 +6932,16 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -7535,10 +6950,10 @@
         <v>0</v>
       </c>
       <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
         <v>7</v>
-      </c>
-      <c r="AC39">
-        <v>1</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -7547,93 +6962,78 @@
         <v>8</v>
       </c>
       <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AJ39">
         <v>1208</v>
       </c>
-      <c r="AG39">
+      <c r="AK39">
         <v>18</v>
       </c>
-      <c r="AH39">
+      <c r="AL39">
         <v>125</v>
       </c>
-      <c r="AI39">
+      <c r="AM39">
         <v>0.9285714285714286</v>
       </c>
-      <c r="AJ39">
+      <c r="AN39">
         <v>0.6428571428571429</v>
       </c>
-      <c r="AK39">
+      <c r="AO39">
         <v>1.571428571428571</v>
       </c>
-      <c r="AL39">
+      <c r="AP39">
         <v>0.7857142857142857</v>
       </c>
-      <c r="AM39">
+      <c r="AQ39">
         <v>0.2857142857142857</v>
       </c>
-      <c r="AN39">
+      <c r="AR39">
         <v>1.071428571428571</v>
       </c>
-      <c r="AO39">
+      <c r="AS39">
         <v>1.071428571428571</v>
       </c>
-      <c r="AP39">
+      <c r="AT39">
         <v>0.5</v>
       </c>
-      <c r="AQ39">
+      <c r="AU39">
         <v>1.571428571428571</v>
       </c>
-      <c r="AR39">
+      <c r="AV39">
         <v>5.571428571428571</v>
       </c>
-      <c r="AS39">
+      <c r="AW39">
         <v>1.142857142857143</v>
       </c>
-      <c r="AT39">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="AU39">
+      <c r="AX39">
         <v>6.714285714285714</v>
       </c>
-      <c r="AV39">
+      <c r="AY39">
         <v>86.28571428571429</v>
       </c>
-      <c r="AW39">
+      <c r="AZ39">
         <v>1.285714285714286</v>
       </c>
-      <c r="AX39">
-        <v>7</v>
-      </c>
-      <c r="AY39">
-        <v>1</v>
-      </c>
-      <c r="AZ39">
-        <v>8</v>
-      </c>
-      <c r="BA39">
-        <v>7</v>
-      </c>
-      <c r="BB39">
-        <v>1</v>
-      </c>
-      <c r="BC39">
-        <v>1</v>
-      </c>
-      <c r="BD39">
-        <v>0</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="40" spans="1:57">
+    <row r="40" spans="1:52">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D40">
         <v>2008</v>
@@ -7675,13 +7075,13 @@
         <v>16</v>
       </c>
       <c r="Q40">
+        <v>39</v>
+      </c>
+      <c r="R40">
         <v>14</v>
       </c>
-      <c r="R40">
-        <v>39</v>
-      </c>
       <c r="S40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -7690,16 +7090,16 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -7708,94 +7108,79 @@
         <v>0</v>
       </c>
       <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
         <v>9</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>7</v>
-      </c>
-      <c r="AD40">
-        <v>5</v>
       </c>
       <c r="AE40">
         <v>16</v>
       </c>
       <c r="AF40">
+        <v>5</v>
+      </c>
+      <c r="AG40">
+        <v>4</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>4</v>
+      </c>
+      <c r="AJ40">
         <v>310</v>
       </c>
-      <c r="AG40">
+      <c r="AK40">
         <v>9</v>
       </c>
-      <c r="AH40">
+      <c r="AL40">
         <v>168</v>
-      </c>
-      <c r="AI40">
-        <v>0.1</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>0.1</v>
-      </c>
-      <c r="AL40">
-        <v>0.6</v>
       </c>
       <c r="AM40">
         <v>0.1</v>
       </c>
       <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0.1</v>
+      </c>
+      <c r="AP40">
+        <v>0.6</v>
+      </c>
+      <c r="AQ40">
+        <v>0.1</v>
+      </c>
+      <c r="AR40">
         <v>0.7</v>
       </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
         <v>2.3</v>
       </c>
-      <c r="AS40">
+      <c r="AW40">
         <v>1.6</v>
       </c>
-      <c r="AT40">
-        <v>1.4</v>
-      </c>
-      <c r="AU40">
+      <c r="AX40">
         <v>3.9</v>
       </c>
-      <c r="AV40">
+      <c r="AY40">
         <v>31</v>
       </c>
-      <c r="AW40">
+      <c r="AZ40">
         <v>0.9</v>
-      </c>
-      <c r="AX40">
-        <v>6</v>
-      </c>
-      <c r="AY40">
-        <v>4</v>
-      </c>
-      <c r="AZ40">
-        <v>14</v>
-      </c>
-      <c r="BA40">
-        <v>6</v>
-      </c>
-      <c r="BB40">
-        <v>5</v>
-      </c>
-      <c r="BC40">
-        <v>4</v>
-      </c>
-      <c r="BD40">
-        <v>0</v>
-      </c>
-      <c r="BE40">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/pgc.xlsx
+++ b/pgc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Nome</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Publicações em Periódicos (anual)</t>
+  </si>
+  <si>
+    <t>Publicações JCR (anual)</t>
   </si>
   <si>
     <t>Publicações (anual)</t>
@@ -875,13 +878,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ40"/>
+  <dimension ref="A1:BA40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,16 +1041,19 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:53">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2">
         <v>2000</v>
@@ -1188,24 +1194,27 @@
         <v>1.777777777777778</v>
       </c>
       <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
         <v>5.777777777777778</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>42.33333333333334</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:53">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D3">
         <v>2011</v>
@@ -1346,24 +1355,27 @@
         <v>1</v>
       </c>
       <c r="AX3">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AY3">
         <v>6.285714285714286</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>24.57142857142857</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>1.142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:53">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4">
         <v>2003</v>
@@ -1504,24 +1516,27 @@
         <v>1.066666666666667</v>
       </c>
       <c r="AX4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AY4">
         <v>5.266666666666667</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>36.33333333333334</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:53">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D5">
         <v>2010</v>
@@ -1662,24 +1677,27 @@
         <v>0.875</v>
       </c>
       <c r="AX5">
+        <v>0.5</v>
+      </c>
+      <c r="AY5">
         <v>5.5</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>65</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>1.375</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:53">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6">
         <v>1988</v>
@@ -1820,24 +1838,27 @@
         <v>2.1</v>
       </c>
       <c r="AX6">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="AY6">
         <v>9.033333333333333</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>80.83333333333333</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:53">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -1978,24 +1999,27 @@
         <v>2</v>
       </c>
       <c r="AX7">
+        <v>0.5</v>
+      </c>
+      <c r="AY7">
         <v>6.5</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>17</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:53">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D8">
         <v>1998</v>
@@ -2136,24 +2160,27 @@
         <v>0.7</v>
       </c>
       <c r="AX8">
+        <v>0.55</v>
+      </c>
+      <c r="AY8">
         <v>2.1</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>17.15</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:53">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -2294,24 +2321,27 @@
         <v>1.944444444444444</v>
       </c>
       <c r="AX9">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="AY9">
         <v>8.111111111111111</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>117.3888888888889</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>1.222222222222222</v>
       </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:53">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>1983</v>
@@ -2452,24 +2482,27 @@
         <v>3.942857142857143</v>
       </c>
       <c r="AX10">
+        <v>2.657142857142857</v>
+      </c>
+      <c r="AY10">
         <v>5.571428571428571</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>260.6</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>1.342857142857143</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:53">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D11">
         <v>2001</v>
@@ -2610,24 +2643,27 @@
         <v>0.8823529411764706</v>
       </c>
       <c r="AX11">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AY11">
         <v>3.058823529411764</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>39.76470588235294</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>0.8823529411764706</v>
       </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:53">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D12">
         <v>2009</v>
@@ -2768,24 +2804,27 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
         <v>4.333333333333333</v>
       </c>
-      <c r="AY12">
+      <c r="AZ12">
         <v>46.33333333333334</v>
       </c>
-      <c r="AZ12">
+      <c r="BA12">
         <v>0.8888888888888888</v>
       </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:53">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D13">
         <v>2012</v>
@@ -2926,24 +2965,27 @@
         <v>5.5</v>
       </c>
       <c r="AX13">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="AY13">
         <v>25.5</v>
       </c>
-      <c r="AY13">
+      <c r="AZ13">
         <v>329.1666666666667</v>
       </c>
-      <c r="AZ13">
+      <c r="BA13">
         <v>3.666666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:53">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D14">
         <v>2006</v>
@@ -3084,24 +3126,27 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="AX14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AY14">
         <v>5.083333333333333</v>
       </c>
-      <c r="AY14">
+      <c r="AZ14">
         <v>54</v>
       </c>
-      <c r="AZ14">
+      <c r="BA14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:53">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D15">
         <v>2003</v>
@@ -3242,24 +3287,27 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AX15">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="AY15">
         <v>9</v>
       </c>
-      <c r="AY15">
+      <c r="AZ15">
         <v>103.8</v>
       </c>
-      <c r="AZ15">
+      <c r="BA15">
         <v>1.133333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:53">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D16">
         <v>2013</v>
@@ -3400,24 +3448,27 @@
         <v>3.2</v>
       </c>
       <c r="AX16">
+        <v>2.2</v>
+      </c>
+      <c r="AY16">
         <v>9.6</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>186</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
         <v>2.2</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:53">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D17">
         <v>2004</v>
@@ -3558,24 +3609,27 @@
         <v>3</v>
       </c>
       <c r="AX17">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AY17">
         <v>15.57142857142857</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>107.2857142857143</v>
       </c>
-      <c r="AZ17">
+      <c r="BA17">
         <v>1.428571428571429</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:53">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D18">
         <v>1996</v>
@@ -3716,24 +3770,27 @@
         <v>0.5</v>
       </c>
       <c r="AX18">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AY18">
         <v>2.772727272727273</v>
       </c>
-      <c r="AY18">
+      <c r="AZ18">
         <v>28.81818181818182</v>
       </c>
-      <c r="AZ18">
+      <c r="BA18">
         <v>0.6363636363636364</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:53">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D19">
         <v>1998</v>
@@ -3874,24 +3931,27 @@
         <v>3.6</v>
       </c>
       <c r="AX19">
+        <v>2.8</v>
+      </c>
+      <c r="AY19">
         <v>6.3</v>
       </c>
-      <c r="AY19">
+      <c r="AZ19">
         <v>58.25</v>
       </c>
-      <c r="AZ19">
+      <c r="BA19">
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:53">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D20">
         <v>2009</v>
@@ -4032,21 +4092,24 @@
         <v>2.222222222222222</v>
       </c>
       <c r="AX20">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AY20">
         <v>7.888888888888889</v>
       </c>
-      <c r="AY20">
+      <c r="AZ20">
         <v>136.6666666666667</v>
       </c>
-      <c r="AZ20">
+      <c r="BA20">
         <v>1.555555555555556</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:53">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D21">
         <v>1989</v>
@@ -4178,18 +4241,21 @@
         <v>0.9310344827586207</v>
       </c>
       <c r="AX21">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="AY21">
         <v>2.275862068965517</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:53">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D22">
         <v>2009</v>
@@ -4330,24 +4396,27 @@
         <v>1.111111111111111</v>
       </c>
       <c r="AX22">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="AY22">
         <v>9.555555555555555</v>
       </c>
-      <c r="AY22">
+      <c r="AZ22">
         <v>49.88888888888889</v>
       </c>
-      <c r="AZ22">
+      <c r="BA22">
         <v>1.222222222222222</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:53">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D23">
         <v>1996</v>
@@ -4488,24 +4557,27 @@
         <v>1.727272727272727</v>
       </c>
       <c r="AX23">
+        <v>1</v>
+      </c>
+      <c r="AY23">
         <v>7.590909090909091</v>
       </c>
-      <c r="AY23">
+      <c r="AZ23">
         <v>100</v>
       </c>
-      <c r="AZ23">
+      <c r="BA23">
         <v>1.181818181818182</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:53">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D24">
         <v>2010</v>
@@ -4646,24 +4718,27 @@
         <v>1.5</v>
       </c>
       <c r="AX24">
+        <v>1.125</v>
+      </c>
+      <c r="AY24">
         <v>3.75</v>
       </c>
-      <c r="AY24">
+      <c r="AZ24">
         <v>94</v>
       </c>
-      <c r="AZ24">
+      <c r="BA24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:53">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D25">
         <v>2006</v>
@@ -4804,24 +4879,27 @@
         <v>3.083333333333333</v>
       </c>
       <c r="AX25">
+        <v>1.5</v>
+      </c>
+      <c r="AY25">
         <v>14.41666666666667</v>
       </c>
-      <c r="AY25">
+      <c r="AZ25">
         <v>150.25</v>
       </c>
-      <c r="AZ25">
+      <c r="BA25">
         <v>1.833333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:53">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D26">
         <v>2003</v>
@@ -4962,24 +5040,27 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="AX26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AY26">
         <v>2.066666666666667</v>
       </c>
-      <c r="AY26">
+      <c r="AZ26">
         <v>20.66666666666667</v>
       </c>
-      <c r="AZ26">
+      <c r="BA26">
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:53">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D27">
         <v>1994</v>
@@ -5120,24 +5201,27 @@
         <v>1.041666666666667</v>
       </c>
       <c r="AX27">
+        <v>0.875</v>
+      </c>
+      <c r="AY27">
         <v>4.083333333333333</v>
       </c>
-      <c r="AY27">
+      <c r="AZ27">
         <v>47.70833333333334</v>
       </c>
-      <c r="AZ27">
+      <c r="BA27">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:53">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D28">
         <v>2011</v>
@@ -5278,24 +5362,27 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="AX28">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AY28">
         <v>4.285714285714286</v>
       </c>
-      <c r="AY28">
+      <c r="AZ28">
         <v>27.85714285714286</v>
       </c>
-      <c r="AZ28">
+      <c r="BA28">
         <v>1.142857142857143</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:53">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D29">
         <v>2006</v>
@@ -5436,24 +5523,27 @@
         <v>1.166666666666667</v>
       </c>
       <c r="AX29">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="AY29">
         <v>2.916666666666667</v>
       </c>
-      <c r="AY29">
+      <c r="AZ29">
         <v>5.916666666666667</v>
       </c>
-      <c r="AZ29">
+      <c r="BA29">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:53">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D30">
         <v>2011</v>
@@ -5594,24 +5684,27 @@
         <v>1.714285714285714</v>
       </c>
       <c r="AX30">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="AY30">
         <v>5.714285714285714</v>
       </c>
-      <c r="AY30">
+      <c r="AZ30">
         <v>68.14285714285714</v>
       </c>
-      <c r="AZ30">
+      <c r="BA30">
         <v>1.714285714285714</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:53">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D31">
         <v>2009</v>
@@ -5752,24 +5845,27 @@
         <v>1</v>
       </c>
       <c r="AX31">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AY31">
         <v>3.888888888888889</v>
       </c>
-      <c r="AY31">
+      <c r="AZ31">
         <v>32.88888888888889</v>
       </c>
-      <c r="AZ31">
+      <c r="BA31">
         <v>1.111111111111111</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:53">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D32">
         <v>1989</v>
@@ -5910,24 +6006,27 @@
         <v>2.896551724137931</v>
       </c>
       <c r="AX32">
+        <v>1.275862068965517</v>
+      </c>
+      <c r="AY32">
         <v>10.3448275862069</v>
       </c>
-      <c r="AY32">
+      <c r="AZ32">
         <v>95.31034482758621</v>
       </c>
-      <c r="AZ32">
+      <c r="BA32">
         <v>0.9310344827586207</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:53">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33">
         <v>2009</v>
@@ -6068,24 +6167,27 @@
         <v>1.333333333333333</v>
       </c>
       <c r="AX33">
+        <v>1.222222222222222</v>
+      </c>
+      <c r="AY33">
         <v>3.222222222222222</v>
       </c>
-      <c r="AY33">
+      <c r="AZ33">
         <v>24.88888888888889</v>
       </c>
-      <c r="AZ33">
+      <c r="BA33">
         <v>0.7777777777777778</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:53">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D34">
         <v>1983</v>
@@ -6226,24 +6328,27 @@
         <v>1.142857142857143</v>
       </c>
       <c r="AX34">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="AY34">
         <v>5.628571428571429</v>
       </c>
-      <c r="AY34">
+      <c r="AZ34">
         <v>40.62857142857143</v>
       </c>
-      <c r="AZ34">
+      <c r="BA34">
         <v>0.5428571428571428</v>
       </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:53">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D35">
         <v>1984</v>
@@ -6384,24 +6489,27 @@
         <v>0.6176470588235294</v>
       </c>
       <c r="AX35">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="AY35">
         <v>3.970588235294118</v>
       </c>
-      <c r="AY35">
+      <c r="AZ35">
         <v>33.70588235294117</v>
       </c>
-      <c r="AZ35">
+      <c r="BA35">
         <v>0.5882352941176471</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:53">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D36">
         <v>1999</v>
@@ -6542,24 +6650,27 @@
         <v>1.052631578947368</v>
       </c>
       <c r="AX36">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="AY36">
         <v>3.526315789473684</v>
       </c>
-      <c r="AY36">
+      <c r="AZ36">
         <v>59.26315789473684</v>
       </c>
-      <c r="AZ36">
+      <c r="BA36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:53">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D37">
         <v>2014</v>
@@ -6700,24 +6811,27 @@
         <v>6.25</v>
       </c>
       <c r="AX37">
+        <v>3.5</v>
+      </c>
+      <c r="AY37">
         <v>14.75</v>
       </c>
-      <c r="AY37">
+      <c r="AZ37">
         <v>33.75</v>
       </c>
-      <c r="AZ37">
+      <c r="BA37">
         <v>1.75</v>
       </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:53">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D38">
         <v>2004</v>
@@ -6858,24 +6972,27 @@
         <v>2</v>
       </c>
       <c r="AX38">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AY38">
         <v>7.5</v>
       </c>
-      <c r="AY38">
+      <c r="AZ38">
         <v>91.5</v>
       </c>
-      <c r="AZ38">
+      <c r="BA38">
         <v>1.357142857142857</v>
       </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:53">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D39">
         <v>2004</v>
@@ -7016,24 +7133,27 @@
         <v>1.142857142857143</v>
       </c>
       <c r="AX39">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AY39">
         <v>6.714285714285714</v>
       </c>
-      <c r="AY39">
+      <c r="AZ39">
         <v>86.28571428571429</v>
       </c>
-      <c r="AZ39">
+      <c r="BA39">
         <v>1.285714285714286</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:53">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D40">
         <v>2008</v>
@@ -7174,12 +7294,15 @@
         <v>1.6</v>
       </c>
       <c r="AX40">
+        <v>1.4</v>
+      </c>
+      <c r="AY40">
         <v>3.9</v>
       </c>
-      <c r="AY40">
+      <c r="AZ40">
         <v>31</v>
       </c>
-      <c r="AZ40">
+      <c r="BA40">
         <v>0.9</v>
       </c>
     </row>

--- a/pgc.xlsx
+++ b/pgc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Nome</t>
   </si>
@@ -229,9 +229,15 @@
     <t>Fábio Protti</t>
   </si>
   <si>
+    <t>Flavia Cristina Bernardini</t>
+  </si>
+  <si>
     <t>Igor Monteiro Moraes</t>
   </si>
   <si>
+    <t>Isabel Cristina Mello Rosseti</t>
+  </si>
+  <si>
     <t>Jose Ricardo de Almeida Torreao</t>
   </si>
   <si>
@@ -247,9 +253,6 @@
     <t>Leonardo Gresta Paulino Murta</t>
   </si>
   <si>
-    <t>Loana Tito Nogueira</t>
-  </si>
-  <si>
     <t>Lúcia Maria de Assumpção Drummond</t>
   </si>
   <si>
@@ -271,12 +274,21 @@
     <t>Marcos de Oliveira Lage Ferreira</t>
   </si>
   <si>
+    <t>Maria Cristina Silva Boeres</t>
+  </si>
+  <si>
+    <t>Mauricio Kischinhevsky</t>
+  </si>
+  <si>
     <t>Milton Brown Do Coutto Filho</t>
   </si>
   <si>
     <t>Orlando Gomes Loques Filho</t>
   </si>
   <si>
+    <t>Ricardo Leiderman</t>
+  </si>
+  <si>
     <t>Simone de Lima Martins</t>
   </si>
   <si>
@@ -286,9 +298,6 @@
     <t>Vanessa Braganholo Murta</t>
   </si>
   <si>
-    <t>Viviane Torres da Silva</t>
-  </si>
-  <si>
     <t>Yuri Abitbol de Menezes Frota</t>
   </si>
   <si>
@@ -346,9 +355,15 @@
     <t>5898801580033554</t>
   </si>
   <si>
+    <t>5935862634033333</t>
+  </si>
+  <si>
     <t>1342924024681635</t>
   </si>
   <si>
+    <t>0561643838450805</t>
+  </si>
+  <si>
     <t>4234623363518888</t>
   </si>
   <si>
@@ -364,9 +379,6 @@
     <t>1565296529736448</t>
   </si>
   <si>
-    <t>2537709612833688</t>
-  </si>
-  <si>
     <t>9314029648579658</t>
   </si>
   <si>
@@ -388,12 +400,21 @@
     <t>1679486689581930</t>
   </si>
   <si>
+    <t>0306766365983082</t>
+  </si>
+  <si>
+    <t>9411400439288461</t>
+  </si>
+  <si>
     <t>1162538732000822</t>
   </si>
   <si>
     <t>9433123288261141</t>
   </si>
   <si>
+    <t>1980219310993467</t>
+  </si>
+  <si>
     <t>5202429302236084</t>
   </si>
   <si>
@@ -403,9 +424,6 @@
     <t>0060120644445370</t>
   </si>
   <si>
-    <t>7802814360038820</t>
-  </si>
-  <si>
     <t>9628405562792982</t>
   </si>
   <si>
@@ -463,9 +481,15 @@
     <t>_kEAhAwAAAAJ</t>
   </si>
   <si>
+    <t>bdAatn0AAAAJ</t>
+  </si>
+  <si>
     <t>zFaRYScAAAAJ</t>
   </si>
   <si>
+    <t>PEyGjwsAAAAJ</t>
+  </si>
+  <si>
     <t>twAYAPsAAAAJ</t>
   </si>
   <si>
@@ -478,9 +502,6 @@
     <t>VEbJeB8AAAAJ</t>
   </si>
   <si>
-    <t>AQsF0MYAAAAJ</t>
-  </si>
-  <si>
     <t>UhYdnvYAAAAJ</t>
   </si>
   <si>
@@ -502,12 +523,21 @@
     <t>ltxcRtwAAAAJ</t>
   </si>
   <si>
+    <t>h_AmAEYAAAAJ</t>
+  </si>
+  <si>
+    <t>U5qX4hsAAAAJ</t>
+  </si>
+  <si>
     <t>C7WY29gAAAAJ</t>
   </si>
   <si>
     <t>KlPc9LgAAAAJ</t>
   </si>
   <si>
+    <t>d8WQZNwAAAAJ</t>
+  </si>
+  <si>
     <t>oEIT_KQAAAAJ</t>
   </si>
   <si>
@@ -515,9 +545,6 @@
   </si>
   <si>
     <t>QT9-AZ4AAAAJ</t>
-  </si>
-  <si>
-    <t>9fnrfZsAAAAJ</t>
   </si>
   <si>
     <t>fTsmjYkAAAAJ</t>
@@ -878,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA40"/>
+  <dimension ref="A1:BA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1050,10 +1077,10 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D2">
         <v>2000</v>
@@ -1211,10 +1238,10 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D3">
         <v>2011</v>
@@ -1372,10 +1399,10 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D4">
         <v>2003</v>
@@ -1533,10 +1560,10 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D5">
         <v>2010</v>
@@ -1694,10 +1721,10 @@
         <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D6">
         <v>1988</v>
@@ -1718,19 +1745,19 @@
         <v>45</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6">
         <v>59</v>
       </c>
       <c r="M6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6">
         <v>208</v>
@@ -1760,19 +1787,19 @@
         <v>4</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z6">
         <v>11</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC6">
         <v>24</v>
@@ -1817,19 +1844,19 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AR6">
-        <v>2</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="AS6">
         <v>1.966666666666667</v>
       </c>
       <c r="AT6">
-        <v>1.566666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="AU6">
-        <v>3.533333333333333</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="AV6">
         <v>6.933333333333334</v>
@@ -1855,10 +1882,10 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -2016,10 +2043,10 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D8">
         <v>1998</v>
@@ -2177,10 +2204,10 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -2338,10 +2365,10 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D10">
         <v>1983</v>
@@ -2499,10 +2526,10 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D11">
         <v>2001</v>
@@ -2660,10 +2687,10 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D12">
         <v>2009</v>
@@ -2821,10 +2848,10 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D13">
         <v>2012</v>
@@ -2982,10 +3009,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D14">
         <v>2006</v>
@@ -3143,10 +3170,10 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D15">
         <v>2003</v>
@@ -3304,10 +3331,10 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D16">
         <v>2013</v>
@@ -3465,10 +3492,10 @@
         <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D17">
         <v>2004</v>
@@ -3626,10 +3653,10 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D18">
         <v>1996</v>
@@ -3787,10 +3814,10 @@
         <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D19">
         <v>1998</v>
@@ -3948,160 +3975,160 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D20">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I20">
         <v>9</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O20">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P20">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Q20">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
         <v>6</v>
       </c>
-      <c r="W20">
-        <v>2</v>
-      </c>
       <c r="X20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AA20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC20">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AD20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AF20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <v>1230</v>
+        <v>165</v>
       </c>
       <c r="AK20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AL20">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="AM20">
-        <v>2.777777777777778</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AN20">
-        <v>1.111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="AO20">
-        <v>3.888888888888889</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ20">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="AR20">
-        <v>1.444444444444444</v>
+        <v>0.75</v>
       </c>
       <c r="AS20">
-        <v>3</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AT20">
-        <v>1.444444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="AU20">
-        <v>4.444444444444445</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="AV20">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="AW20">
+        <v>0.75</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
         <v>5.666666666666667</v>
       </c>
-      <c r="AW20">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="AX20">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="AY20">
-        <v>7.888888888888889</v>
-      </c>
       <c r="AZ20">
-        <v>136.6666666666667</v>
+        <v>13.75</v>
       </c>
       <c r="BA20">
-        <v>1.555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:53">
@@ -4109,142 +4136,160 @@
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>156</v>
       </c>
       <c r="D21">
-        <v>1989</v>
+        <v>2009</v>
       </c>
       <c r="E21">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>13</v>
+      </c>
+      <c r="L21">
+        <v>27</v>
+      </c>
+      <c r="M21">
+        <v>13</v>
+      </c>
+      <c r="N21">
+        <v>40</v>
+      </c>
+      <c r="O21">
+        <v>51</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <v>71</v>
+      </c>
+      <c r="R21">
+        <v>15</v>
+      </c>
+      <c r="S21">
+        <v>8</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
         <v>5</v>
       </c>
-      <c r="K21">
-        <v>16</v>
-      </c>
-      <c r="L21">
-        <v>22</v>
-      </c>
-      <c r="M21">
-        <v>16</v>
-      </c>
-      <c r="N21">
-        <v>38</v>
-      </c>
-      <c r="O21">
-        <v>39</v>
-      </c>
-      <c r="P21">
-        <v>27</v>
-      </c>
-      <c r="Q21">
-        <v>66</v>
-      </c>
-      <c r="R21">
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>5</v>
+      </c>
+      <c r="Z21">
+        <v>6</v>
+      </c>
+      <c r="AA21">
+        <v>9</v>
+      </c>
+      <c r="AB21">
+        <v>15</v>
+      </c>
+      <c r="AC21">
+        <v>9</v>
+      </c>
+      <c r="AD21">
+        <v>5</v>
+      </c>
+      <c r="AE21">
         <v>14</v>
       </c>
-      <c r="S21">
-        <v>9</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>2</v>
-      </c>
-      <c r="Y21">
-        <v>2</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AA21">
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <v>2</v>
-      </c>
-      <c r="AC21">
-        <v>3</v>
-      </c>
-      <c r="AD21">
-        <v>2</v>
-      </c>
-      <c r="AE21">
-        <v>5</v>
-      </c>
       <c r="AF21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>1230</v>
+      </c>
+      <c r="AK21">
+        <v>14</v>
+      </c>
+      <c r="AL21">
+        <v>303</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AP21">
-        <v>0.3793103448275862</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.1724137931034483</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AR21">
-        <v>0.5517241379310345</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="AS21">
-        <v>0.7586206896551724</v>
+        <v>3</v>
       </c>
       <c r="AT21">
-        <v>0.5517241379310345</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="AU21">
-        <v>1.310344827586207</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AV21">
-        <v>1.344827586206897</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="AW21">
-        <v>0.9310344827586207</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="AX21">
-        <v>0.4827586206896552</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AY21">
-        <v>2.275862068965517</v>
+        <v>7.888888888888889</v>
+      </c>
+      <c r="AZ21">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="BA21">
+        <v>1.555555555555556</v>
       </c>
     </row>
     <row r="22" spans="1:53">
@@ -4252,160 +4297,160 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D22">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>17</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>22</v>
+      </c>
+      <c r="O22">
+        <v>18</v>
+      </c>
+      <c r="P22">
+        <v>11</v>
+      </c>
+      <c r="Q22">
+        <v>29</v>
+      </c>
+      <c r="R22">
         <v>9</v>
       </c>
-      <c r="F22">
+      <c r="S22">
         <v>6</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>11</v>
-      </c>
-      <c r="L22">
-        <v>52</v>
-      </c>
-      <c r="M22">
-        <v>12</v>
-      </c>
-      <c r="N22">
-        <v>64</v>
-      </c>
-      <c r="O22">
-        <v>76</v>
-      </c>
-      <c r="P22">
-        <v>10</v>
-      </c>
-      <c r="Q22">
-        <v>86</v>
-      </c>
-      <c r="R22">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>5</v>
+      </c>
+      <c r="AA22">
+        <v>3</v>
+      </c>
+      <c r="AB22">
+        <v>8</v>
+      </c>
+      <c r="AC22">
         <v>4</v>
       </c>
-      <c r="S22">
+      <c r="AD22">
         <v>4</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>6</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>7</v>
-      </c>
-      <c r="Z22">
-        <v>22</v>
-      </c>
-      <c r="AA22">
-        <v>7</v>
-      </c>
-      <c r="AB22">
-        <v>29</v>
-      </c>
-      <c r="AC22">
-        <v>42</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
       <c r="AE22">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="AF22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22">
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ22">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="AK22">
         <v>11</v>
       </c>
       <c r="AL22">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="AM22">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AN22">
         <v>0</v>
       </c>
       <c r="AO22">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.111111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ22">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="AR22">
-        <v>1.222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AS22">
-        <v>5.777777777777778</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="AT22">
-        <v>1.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AU22">
-        <v>7.111111111111111</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="AV22">
-        <v>8.444444444444445</v>
+        <v>1.2</v>
       </c>
       <c r="AW22">
-        <v>1.111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="AX22">
-        <v>0.4444444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="AY22">
-        <v>9.555555555555555</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="AZ22">
-        <v>49.88888888888889</v>
+        <v>26.33333333333333</v>
       </c>
       <c r="BA22">
-        <v>1.222222222222222</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:53">
@@ -4413,160 +4458,142 @@
         <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="D23">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="E23">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>16</v>
+      </c>
+      <c r="L23">
         <v>22</v>
       </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>13</v>
-      </c>
-      <c r="H23">
+      <c r="M23">
         <v>16</v>
       </c>
-      <c r="I23">
-        <v>25</v>
-      </c>
-      <c r="J23">
+      <c r="N23">
+        <v>38</v>
+      </c>
+      <c r="O23">
+        <v>39</v>
+      </c>
+      <c r="P23">
+        <v>27</v>
+      </c>
+      <c r="Q23">
+        <v>66</v>
+      </c>
+      <c r="R23">
+        <v>14</v>
+      </c>
+      <c r="S23">
         <v>9</v>
       </c>
-      <c r="K23">
-        <v>34</v>
-      </c>
-      <c r="L23">
-        <v>71</v>
-      </c>
-      <c r="M23">
-        <v>27</v>
-      </c>
-      <c r="N23">
-        <v>98</v>
-      </c>
-      <c r="O23">
-        <v>129</v>
-      </c>
-      <c r="P23">
-        <v>38</v>
-      </c>
-      <c r="Q23">
-        <v>167</v>
-      </c>
-      <c r="R23">
-        <v>22</v>
-      </c>
-      <c r="S23">
-        <v>21</v>
-      </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>2</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z23">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AC23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AD23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE23">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AF23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>4</v>
-      </c>
-      <c r="AJ23">
-        <v>2200</v>
-      </c>
-      <c r="AK23">
-        <v>26</v>
-      </c>
-      <c r="AL23">
-        <v>773</v>
+        <v>0</v>
       </c>
       <c r="AM23">
-        <v>0.1363636363636364</v>
+        <v>0</v>
       </c>
       <c r="AN23">
-        <v>0.5909090909090909</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>0.7272727272727273</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.136363636363636</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="AQ23">
-        <v>0.4090909090909091</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="AR23">
-        <v>1.545454545454545</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="AS23">
-        <v>3.227272727272727</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="AT23">
-        <v>1.227272727272727</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="AU23">
-        <v>4.454545454545454</v>
+        <v>1.310344827586207</v>
       </c>
       <c r="AV23">
-        <v>5.863636363636363</v>
+        <v>1.344827586206897</v>
       </c>
       <c r="AW23">
-        <v>1.727272727272727</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="AX23">
-        <v>1</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="AY23">
-        <v>7.590909090909091</v>
-      </c>
-      <c r="AZ23">
-        <v>100</v>
-      </c>
-      <c r="BA23">
-        <v>1.181818181818182</v>
+        <v>2.275862068965517</v>
       </c>
     </row>
     <row r="24" spans="1:53">
@@ -4574,160 +4601,160 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D24">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>6</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
         <v>11</v>
       </c>
-      <c r="H24">
-        <v>17</v>
-      </c>
-      <c r="I24">
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>13</v>
+      </c>
+      <c r="L24">
+        <v>53</v>
+      </c>
+      <c r="M24">
+        <v>14</v>
+      </c>
+      <c r="N24">
+        <v>67</v>
+      </c>
+      <c r="O24">
+        <v>76</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>86</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>7</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
         <v>9</v>
       </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24">
-        <v>12</v>
-      </c>
-      <c r="L24">
-        <v>16</v>
-      </c>
-      <c r="M24">
-        <v>15</v>
-      </c>
-      <c r="N24">
-        <v>31</v>
-      </c>
-      <c r="O24">
-        <v>18</v>
-      </c>
-      <c r="P24">
-        <v>12</v>
-      </c>
-      <c r="Q24">
-        <v>30</v>
-      </c>
-      <c r="R24">
+      <c r="Z24">
+        <v>23</v>
+      </c>
+      <c r="AA24">
         <v>9</v>
       </c>
-      <c r="S24">
-        <v>8</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
-      <c r="W24">
-        <v>4</v>
-      </c>
-      <c r="X24">
-        <v>2</v>
-      </c>
-      <c r="Y24">
-        <v>6</v>
-      </c>
-      <c r="Z24">
-        <v>4</v>
-      </c>
-      <c r="AA24">
-        <v>7</v>
-      </c>
       <c r="AB24">
+        <v>32</v>
+      </c>
+      <c r="AC24">
+        <v>42</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>43</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>449</v>
+      </c>
+      <c r="AK24">
         <v>11</v>
       </c>
-      <c r="AC24">
-        <v>4</v>
-      </c>
-      <c r="AD24">
-        <v>1</v>
-      </c>
-      <c r="AE24">
-        <v>5</v>
-      </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>1</v>
-      </c>
-      <c r="AJ24">
-        <v>752</v>
-      </c>
-      <c r="AK24">
-        <v>8</v>
-      </c>
       <c r="AL24">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="AM24">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AN24">
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>2.125</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AP24">
-        <v>1.125</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="AQ24">
-        <v>0.375</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AR24">
-        <v>1.5</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>5.888888888888889</v>
       </c>
       <c r="AT24">
-        <v>1.875</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="AU24">
-        <v>3.875</v>
+        <v>7.444444444444445</v>
       </c>
       <c r="AV24">
-        <v>2.25</v>
+        <v>8.444444444444445</v>
       </c>
       <c r="AW24">
-        <v>1.5</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="AX24">
-        <v>1.125</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AY24">
-        <v>3.75</v>
+        <v>9.555555555555555</v>
       </c>
       <c r="AZ24">
-        <v>94</v>
+        <v>49.88888888888889</v>
       </c>
       <c r="BA24">
-        <v>1</v>
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="25" spans="1:53">
@@ -4735,64 +4762,64 @@
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D25">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I25">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="O25">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="P25">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q25">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="R25">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S25">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25">
         <v>2</v>
@@ -4801,94 +4828,94 @@
         <v>1</v>
       </c>
       <c r="X25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z25">
+        <v>13</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>16</v>
+      </c>
+      <c r="AC25">
+        <v>9</v>
+      </c>
+      <c r="AD25">
         <v>4</v>
       </c>
-      <c r="AA25">
-        <v>5</v>
-      </c>
-      <c r="AB25">
-        <v>9</v>
-      </c>
-      <c r="AC25">
-        <v>15</v>
-      </c>
-      <c r="AD25">
-        <v>11</v>
-      </c>
       <c r="AE25">
+        <v>13</v>
+      </c>
+      <c r="AF25">
+        <v>3</v>
+      </c>
+      <c r="AG25">
+        <v>3</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <v>2200</v>
+      </c>
+      <c r="AK25">
         <v>26</v>
       </c>
-      <c r="AF25">
-        <v>8</v>
-      </c>
-      <c r="AG25">
-        <v>7</v>
-      </c>
-      <c r="AH25">
-        <v>1</v>
-      </c>
-      <c r="AI25">
-        <v>8</v>
-      </c>
-      <c r="AJ25">
-        <v>1803</v>
-      </c>
-      <c r="AK25">
-        <v>22</v>
-      </c>
       <c r="AL25">
-        <v>483</v>
+        <v>773</v>
       </c>
       <c r="AM25">
-        <v>1.166666666666667</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="AN25">
-        <v>0.6666666666666666</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="AO25">
-        <v>1.833333333333333</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AP25">
-        <v>1.583333333333333</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AR25">
-        <v>2.333333333333333</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="AS25">
-        <v>2.916666666666667</v>
+        <v>3.227272727272727</v>
       </c>
       <c r="AT25">
-        <v>1.416666666666667</v>
+        <v>1.227272727272727</v>
       </c>
       <c r="AU25">
-        <v>4.333333333333333</v>
+        <v>4.454545454545454</v>
       </c>
       <c r="AV25">
-        <v>11.33333333333333</v>
+        <v>5.863636363636363</v>
       </c>
       <c r="AW25">
-        <v>3.083333333333333</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="AX25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AY25">
-        <v>14.41666666666667</v>
+        <v>7.590909090909091</v>
       </c>
       <c r="AZ25">
-        <v>150.25</v>
+        <v>100</v>
       </c>
       <c r="BA25">
-        <v>1.833333333333333</v>
+        <v>1.181818181818182</v>
       </c>
     </row>
     <row r="26" spans="1:53">
@@ -4896,160 +4923,160 @@
         <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D26">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>12</v>
+      </c>
+      <c r="L26">
+        <v>16</v>
+      </c>
+      <c r="M26">
         <v>15</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="N26">
+        <v>31</v>
+      </c>
+      <c r="O26">
+        <v>18</v>
+      </c>
+      <c r="P26">
+        <v>12</v>
+      </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
+      <c r="R26">
+        <v>9</v>
+      </c>
+      <c r="S26">
+        <v>8</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>6</v>
+      </c>
+      <c r="Z26">
+        <v>4</v>
+      </c>
+      <c r="AA26">
         <v>7</v>
       </c>
-      <c r="H26">
+      <c r="AB26">
+        <v>11</v>
+      </c>
+      <c r="AC26">
+        <v>4</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>5</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>752</v>
+      </c>
+      <c r="AK26">
         <v>8</v>
       </c>
-      <c r="I26">
-        <v>11</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <v>13</v>
-      </c>
-      <c r="L26">
-        <v>12</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="N26">
-        <v>17</v>
-      </c>
-      <c r="O26">
-        <v>17</v>
-      </c>
-      <c r="P26">
-        <v>14</v>
-      </c>
-      <c r="Q26">
-        <v>31</v>
-      </c>
-      <c r="R26">
-        <v>10</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>2</v>
-      </c>
-      <c r="AD26">
-        <v>1</v>
-      </c>
-      <c r="AE26">
-        <v>3</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>310</v>
-      </c>
-      <c r="AK26">
-        <v>9</v>
-      </c>
       <c r="AL26">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="AM26">
-        <v>0.06666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="AN26">
-        <v>0.4666666666666667</v>
+        <v>1.375</v>
       </c>
       <c r="AO26">
-        <v>0.5333333333333333</v>
+        <v>2.125</v>
       </c>
       <c r="AP26">
-        <v>0.7333333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="AQ26">
-        <v>0.1333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="AR26">
-        <v>0.8666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AT26">
-        <v>0.3333333333333333</v>
+        <v>1.875</v>
       </c>
       <c r="AU26">
-        <v>1.133333333333333</v>
+        <v>3.875</v>
       </c>
       <c r="AV26">
-        <v>1.133333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="AW26">
-        <v>0.9333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="AX26">
-        <v>0.6666666666666666</v>
+        <v>1.125</v>
       </c>
       <c r="AY26">
-        <v>2.066666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="AZ26">
-        <v>20.66666666666667</v>
+        <v>94</v>
       </c>
       <c r="BA26">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:53">
@@ -5057,160 +5084,160 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D27">
-        <v>1994</v>
+        <v>2006</v>
       </c>
       <c r="E27">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>22</v>
+      </c>
+      <c r="I27">
+        <v>19</v>
+      </c>
+      <c r="J27">
         <v>9</v>
       </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-      <c r="H27">
-        <v>13</v>
-      </c>
-      <c r="I27">
-        <v>24</v>
-      </c>
-      <c r="J27">
-        <v>8</v>
-      </c>
       <c r="K27">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N27">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O27">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="P27">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Q27">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="R27">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S27">
         <v>11</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>7</v>
+      </c>
+      <c r="Z27">
         <v>4</v>
       </c>
-      <c r="X27">
-        <v>2</v>
-      </c>
-      <c r="Y27">
-        <v>6</v>
-      </c>
-      <c r="Z27">
-        <v>6</v>
-      </c>
       <c r="AA27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC27">
+        <v>15</v>
+      </c>
+      <c r="AD27">
         <v>11</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
+        <v>26</v>
+      </c>
+      <c r="AF27">
         <v>8</v>
       </c>
-      <c r="AE27">
-        <v>19</v>
-      </c>
-      <c r="AF27">
-        <v>6</v>
-      </c>
       <c r="AG27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ27">
-        <v>1145</v>
+        <v>1803</v>
       </c>
       <c r="AK27">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AL27">
-        <v>309</v>
+        <v>483</v>
       </c>
       <c r="AM27">
-        <v>0.375</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="AN27">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AO27">
-        <v>0.5416666666666666</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="AQ27">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
-        <v>1.333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AS27">
-        <v>1.041666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="AT27">
-        <v>0.875</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="AU27">
-        <v>1.916666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="AV27">
-        <v>3.041666666666667</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="AW27">
-        <v>1.041666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="AX27">
-        <v>0.875</v>
+        <v>1.5</v>
       </c>
       <c r="AY27">
-        <v>4.083333333333333</v>
+        <v>14.41666666666667</v>
       </c>
       <c r="AZ27">
-        <v>47.70833333333334</v>
+        <v>150.25</v>
       </c>
       <c r="BA27">
-        <v>0.6666666666666666</v>
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:53">
@@ -5218,160 +5245,160 @@
         <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D28">
-        <v>2011</v>
+        <v>1994</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
         <v>4</v>
       </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
       <c r="H28">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="O28">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
       <c r="U28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AC28">
+        <v>11</v>
+      </c>
+      <c r="AD28">
+        <v>8</v>
+      </c>
+      <c r="AE28">
+        <v>19</v>
+      </c>
+      <c r="AF28">
+        <v>6</v>
+      </c>
+      <c r="AG28">
+        <v>3</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>3</v>
+      </c>
+      <c r="AJ28">
+        <v>1145</v>
+      </c>
+      <c r="AK28">
         <v>16</v>
       </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>17</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>195</v>
-      </c>
-      <c r="AK28">
-        <v>8</v>
-      </c>
       <c r="AL28">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="AM28">
-        <v>0.5714285714285714</v>
+        <v>0.375</v>
       </c>
       <c r="AN28">
-        <v>0.4285714285714285</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="AP28">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR28">
-        <v>0.4285714285714285</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AS28">
-        <v>0.2857142857142857</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="AT28">
-        <v>0.1428571428571428</v>
+        <v>0.875</v>
       </c>
       <c r="AU28">
-        <v>0.4285714285714285</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="AV28">
-        <v>3.857142857142857</v>
+        <v>3.041666666666667</v>
       </c>
       <c r="AW28">
-        <v>0.4285714285714285</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="AX28">
-        <v>0.1428571428571428</v>
+        <v>0.875</v>
       </c>
       <c r="AY28">
-        <v>4.285714285714286</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="AZ28">
-        <v>27.85714285714286</v>
+        <v>47.70833333333334</v>
       </c>
       <c r="BA28">
-        <v>1.142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="29" spans="1:53">
@@ -5379,160 +5406,160 @@
         <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D29">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>30</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>2</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+      <c r="AC29">
+        <v>16</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>17</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>195</v>
+      </c>
+      <c r="AK29">
         <v>8</v>
       </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
-        <v>12</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <v>5</v>
-      </c>
-      <c r="M29">
-        <v>3</v>
-      </c>
-      <c r="N29">
-        <v>8</v>
-      </c>
-      <c r="O29">
-        <v>21</v>
-      </c>
-      <c r="P29">
-        <v>14</v>
-      </c>
-      <c r="Q29">
-        <v>35</v>
-      </c>
-      <c r="R29">
-        <v>7</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>2</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29">
-        <v>3</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
-      <c r="AB29">
-        <v>2</v>
-      </c>
-      <c r="AC29">
-        <v>7</v>
-      </c>
-      <c r="AD29">
-        <v>2</v>
-      </c>
-      <c r="AE29">
-        <v>9</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>71</v>
-      </c>
-      <c r="AK29">
-        <v>4</v>
-      </c>
       <c r="AL29">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="AM29">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AN29">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AO29">
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.4166666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AQ29">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR29">
-        <v>0.5833333333333334</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AS29">
-        <v>0.4166666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AT29">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AU29">
-        <v>0.6666666666666666</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AV29">
-        <v>1.75</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="AW29">
-        <v>1.166666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AX29">
-        <v>0.5833333333333334</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AY29">
-        <v>2.916666666666667</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="AZ29">
-        <v>5.916666666666667</v>
+        <v>27.85714285714286</v>
       </c>
       <c r="BA29">
-        <v>0.3333333333333333</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="30" spans="1:53">
@@ -5540,160 +5567,160 @@
         <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D30">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
         <v>7</v>
       </c>
-      <c r="F30">
-        <v>12</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>15</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
       <c r="L30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O30">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>3</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>3</v>
+      </c>
+      <c r="AC30">
+        <v>7</v>
+      </c>
+      <c r="AD30">
+        <v>2</v>
+      </c>
+      <c r="AE30">
         <v>9</v>
       </c>
-      <c r="S30">
-        <v>5</v>
-      </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30">
-        <v>2</v>
-      </c>
-      <c r="Z30">
-        <v>2</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>2</v>
-      </c>
-      <c r="AC30">
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>71</v>
+      </c>
+      <c r="AK30">
         <v>4</v>
       </c>
-      <c r="AD30">
-        <v>7</v>
-      </c>
-      <c r="AE30">
-        <v>11</v>
-      </c>
-      <c r="AF30">
-        <v>5</v>
-      </c>
-      <c r="AG30">
-        <v>4</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>4</v>
-      </c>
-      <c r="AJ30">
-        <v>477</v>
-      </c>
-      <c r="AK30">
-        <v>12</v>
-      </c>
       <c r="AL30">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="AM30">
-        <v>1.714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AN30">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AO30">
-        <v>2.142857142857143</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.1428571428571428</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AQ30">
-        <v>0.1428571428571428</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR30">
-        <v>0.2857142857142857</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="AS30">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU30">
-        <v>0.2857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="AV30">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="AW30">
-        <v>1.714285714285714</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="AX30">
-        <v>1.285714285714286</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="AY30">
-        <v>5.714285714285714</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="AZ30">
-        <v>68.14285714285714</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="BA30">
-        <v>1.714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:53">
@@ -5701,160 +5728,160 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D31">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>28</v>
+      </c>
+      <c r="P31">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <v>40</v>
+      </c>
+      <c r="R31">
         <v>9</v>
       </c>
-      <c r="F31">
+      <c r="S31">
         <v>5</v>
       </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>2</v>
+      </c>
+      <c r="AC31">
+        <v>4</v>
+      </c>
+      <c r="AD31">
         <v>7</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>7</v>
-      </c>
-      <c r="M31">
-        <v>7</v>
-      </c>
-      <c r="N31">
-        <v>14</v>
-      </c>
-      <c r="O31">
-        <v>26</v>
-      </c>
-      <c r="P31">
-        <v>9</v>
-      </c>
-      <c r="Q31">
-        <v>35</v>
-      </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>3</v>
-      </c>
-      <c r="AB31">
-        <v>3</v>
-      </c>
-      <c r="AC31">
-        <v>9</v>
-      </c>
-      <c r="AD31">
-        <v>2</v>
       </c>
       <c r="AE31">
         <v>11</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ31">
-        <v>296</v>
+        <v>477</v>
       </c>
       <c r="AK31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL31">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AM31">
-        <v>0.5555555555555556</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="AN31">
-        <v>0.2222222222222222</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AO31">
-        <v>0.7777777777777778</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="AP31">
-        <v>0.1111111111111111</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AR31">
-        <v>0.1111111111111111</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AS31">
-        <v>0.7777777777777778</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AT31">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AU31">
-        <v>1.555555555555556</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AV31">
-        <v>2.888888888888889</v>
+        <v>4</v>
       </c>
       <c r="AW31">
-        <v>1</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="AX31">
-        <v>0.2222222222222222</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="AY31">
-        <v>3.888888888888889</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="AZ31">
-        <v>32.88888888888889</v>
+        <v>68.14285714285714</v>
       </c>
       <c r="BA31">
-        <v>1.111111111111111</v>
+        <v>1.714285714285714</v>
       </c>
     </row>
     <row r="32" spans="1:53">
@@ -5862,160 +5889,160 @@
         <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D32">
-        <v>1989</v>
+        <v>2009</v>
       </c>
       <c r="E32">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I32">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="M32">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="N32">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="O32">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="P32">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="Q32">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="R32">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>3</v>
+      </c>
+      <c r="AB32">
+        <v>3</v>
+      </c>
+      <c r="AC32">
         <v>9</v>
       </c>
-      <c r="Y32">
+      <c r="AD32">
+        <v>2</v>
+      </c>
+      <c r="AE32">
         <v>11</v>
       </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
-        <v>13</v>
-      </c>
-      <c r="AB32">
-        <v>14</v>
-      </c>
-      <c r="AC32">
-        <v>22</v>
-      </c>
-      <c r="AD32">
-        <v>19</v>
-      </c>
-      <c r="AE32">
-        <v>41</v>
-      </c>
       <c r="AF32">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>2764</v>
+        <v>296</v>
       </c>
       <c r="AK32">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AL32">
-        <v>993</v>
+        <v>107</v>
       </c>
       <c r="AM32">
-        <v>0.06896551724137931</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AN32">
-        <v>0.6896551724137931</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AO32">
-        <v>0.7586206896551724</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="AP32">
-        <v>1.793103448275862</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AQ32">
-        <v>0.9310344827586207</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>2.724137931034483</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AS32">
-        <v>5.379310344827586</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="AT32">
-        <v>3.827586206896552</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="AU32">
-        <v>9.206896551724139</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="AV32">
-        <v>7.448275862068965</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="AW32">
-        <v>2.896551724137931</v>
+        <v>1</v>
       </c>
       <c r="AX32">
-        <v>1.275862068965517</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AY32">
-        <v>10.3448275862069</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AZ32">
-        <v>95.31034482758621</v>
+        <v>32.88888888888889</v>
       </c>
       <c r="BA32">
-        <v>0.9310344827586207</v>
+        <v>1.111111111111111</v>
       </c>
     </row>
     <row r="33" spans="1:53">
@@ -6023,160 +6050,160 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D33">
-        <v>2009</v>
+        <v>1989</v>
       </c>
       <c r="E33">
+        <v>29</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>22</v>
+      </c>
+      <c r="I33">
+        <v>52</v>
+      </c>
+      <c r="J33">
+        <v>27</v>
+      </c>
+      <c r="K33">
+        <v>79</v>
+      </c>
+      <c r="L33">
+        <v>156</v>
+      </c>
+      <c r="M33">
+        <v>111</v>
+      </c>
+      <c r="N33">
+        <v>267</v>
+      </c>
+      <c r="O33">
+        <v>216</v>
+      </c>
+      <c r="P33">
+        <v>84</v>
+      </c>
+      <c r="Q33">
+        <v>300</v>
+      </c>
+      <c r="R33">
+        <v>37</v>
+      </c>
+      <c r="S33">
+        <v>30</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33">
         <v>9</v>
       </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <v>9</v>
-      </c>
-      <c r="I33">
-        <v>8</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>8</v>
-      </c>
-      <c r="L33">
-        <v>18</v>
-      </c>
-      <c r="M33">
-        <v>4</v>
-      </c>
-      <c r="N33">
+      <c r="Y33">
+        <v>11</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>13</v>
+      </c>
+      <c r="AB33">
+        <v>14</v>
+      </c>
+      <c r="AC33">
         <v>22</v>
       </c>
-      <c r="O33">
-        <v>17</v>
-      </c>
-      <c r="P33">
+      <c r="AD33">
+        <v>19</v>
+      </c>
+      <c r="AE33">
+        <v>41</v>
+      </c>
+      <c r="AF33">
+        <v>14</v>
+      </c>
+      <c r="AG33">
         <v>12</v>
       </c>
-      <c r="Q33">
-        <v>29</v>
-      </c>
-      <c r="R33">
-        <v>11</v>
-      </c>
-      <c r="S33">
-        <v>9</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>3</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>3</v>
-      </c>
-      <c r="Z33">
-        <v>7</v>
-      </c>
-      <c r="AA33">
-        <v>3</v>
-      </c>
-      <c r="AB33">
-        <v>10</v>
-      </c>
-      <c r="AC33">
-        <v>3</v>
-      </c>
-      <c r="AD33">
-        <v>5</v>
-      </c>
-      <c r="AE33">
-        <v>8</v>
-      </c>
-      <c r="AF33">
-        <v>5</v>
-      </c>
-      <c r="AG33">
-        <v>4</v>
-      </c>
       <c r="AH33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI33">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AJ33">
-        <v>224</v>
+        <v>2764</v>
       </c>
       <c r="AK33">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AL33">
-        <v>111</v>
+        <v>993</v>
       </c>
       <c r="AM33">
-        <v>0.6666666666666666</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="AN33">
-        <v>0.3333333333333333</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="AP33">
-        <v>0.8888888888888888</v>
+        <v>1.793103448275862</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="AR33">
-        <v>0.8888888888888888</v>
+        <v>2.724137931034483</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>5.379310344827586</v>
       </c>
       <c r="AT33">
-        <v>0.4444444444444444</v>
+        <v>3.827586206896552</v>
       </c>
       <c r="AU33">
-        <v>2.444444444444445</v>
+        <v>9.206896551724139</v>
       </c>
       <c r="AV33">
-        <v>1.888888888888889</v>
+        <v>7.448275862068965</v>
       </c>
       <c r="AW33">
-        <v>1.333333333333333</v>
+        <v>2.896551724137931</v>
       </c>
       <c r="AX33">
-        <v>1.222222222222222</v>
+        <v>1.275862068965517</v>
       </c>
       <c r="AY33">
-        <v>3.222222222222222</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="AZ33">
-        <v>24.88888888888889</v>
+        <v>95.31034482758621</v>
       </c>
       <c r="BA33">
-        <v>0.7777777777777778</v>
+        <v>0.9310344827586207</v>
       </c>
     </row>
     <row r="34" spans="1:53">
@@ -6184,160 +6211,160 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D34">
-        <v>1983</v>
+        <v>2009</v>
       </c>
       <c r="E34">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I34">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>8</v>
       </c>
-      <c r="K34">
-        <v>41</v>
-      </c>
       <c r="L34">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="O34">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="P34">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Q34">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="R34">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="S34">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>3</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC34">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AD34">
+        <v>5</v>
+      </c>
+      <c r="AE34">
+        <v>8</v>
+      </c>
+      <c r="AF34">
+        <v>5</v>
+      </c>
+      <c r="AG34">
         <v>4</v>
       </c>
-      <c r="AE34">
-        <v>16</v>
-      </c>
-      <c r="AF34">
-        <v>3</v>
-      </c>
-      <c r="AG34">
-        <v>2</v>
-      </c>
       <c r="AH34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ34">
-        <v>1422</v>
+        <v>224</v>
       </c>
       <c r="AK34">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AL34">
-        <v>343</v>
+        <v>111</v>
       </c>
       <c r="AM34">
-        <v>0.08571428571428572</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AO34">
-        <v>0.08571428571428572</v>
+        <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.9428571428571428</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="AQ34">
-        <v>0.2285714285714286</v>
+        <v>0</v>
       </c>
       <c r="AR34">
-        <v>1.171428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="AS34">
-        <v>0.02857142857142857</v>
+        <v>2</v>
       </c>
       <c r="AT34">
-        <v>0.02857142857142857</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AU34">
-        <v>0.05714285714285714</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="AV34">
-        <v>4.485714285714286</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="AW34">
-        <v>1.142857142857143</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AX34">
-        <v>0.6857142857142857</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="AY34">
-        <v>5.628571428571429</v>
+        <v>3.222222222222222</v>
       </c>
       <c r="AZ34">
-        <v>40.62857142857143</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="BA34">
-        <v>0.5428571428571428</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="35" spans="1:53">
@@ -6345,160 +6372,160 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D35">
-        <v>1984</v>
+        <v>1996</v>
       </c>
       <c r="E35">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I35">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J35">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>11</v>
+      </c>
+      <c r="N35">
+        <v>35</v>
+      </c>
+      <c r="O35">
+        <v>47</v>
+      </c>
+      <c r="P35">
+        <v>12</v>
+      </c>
+      <c r="Q35">
+        <v>59</v>
+      </c>
+      <c r="R35">
+        <v>9</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>4</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>4</v>
+      </c>
+      <c r="AB35">
+        <v>5</v>
+      </c>
+      <c r="AC35">
+        <v>6</v>
+      </c>
+      <c r="AD35">
+        <v>2</v>
+      </c>
+      <c r="AE35">
         <v>8</v>
       </c>
-      <c r="K35">
-        <v>52</v>
-      </c>
-      <c r="L35">
-        <v>9</v>
-      </c>
-      <c r="M35">
-        <v>8</v>
-      </c>
-      <c r="N35">
-        <v>17</v>
-      </c>
-      <c r="O35">
-        <v>114</v>
-      </c>
-      <c r="P35">
-        <v>21</v>
-      </c>
-      <c r="Q35">
-        <v>135</v>
-      </c>
-      <c r="R35">
-        <v>7</v>
-      </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>2</v>
-      </c>
-      <c r="Y35">
-        <v>2</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>1</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>1</v>
-      </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35">
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35">
-        <v>1146</v>
+        <v>629</v>
       </c>
       <c r="AK35">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AL35">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="AN35">
-        <v>0.3823529411764706</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="AO35">
-        <v>0.3823529411764706</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AP35">
-        <v>1.294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="AQ35">
-        <v>0.2352941176470588</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AR35">
-        <v>1.529411764705882</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="AS35">
-        <v>0.2647058823529412</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="AT35">
-        <v>0.2352941176470588</v>
+        <v>0.5</v>
       </c>
       <c r="AU35">
-        <v>0.5</v>
+        <v>1.590909090909091</v>
       </c>
       <c r="AV35">
-        <v>3.352941176470588</v>
+        <v>2.136363636363636</v>
       </c>
       <c r="AW35">
-        <v>0.6176470588235294</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="AX35">
-        <v>0.2058823529411765</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AY35">
-        <v>3.970588235294118</v>
+        <v>2.681818181818182</v>
       </c>
       <c r="AZ35">
-        <v>33.70588235294117</v>
+        <v>28.59090909090909</v>
       </c>
       <c r="BA35">
-        <v>0.5882352941176471</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="36" spans="1:53">
@@ -6506,160 +6533,160 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D36">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="E36">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>12</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
+      <c r="N36">
+        <v>14</v>
+      </c>
+      <c r="O36">
+        <v>46</v>
+      </c>
+      <c r="P36">
+        <v>22</v>
+      </c>
+      <c r="Q36">
+        <v>68</v>
+      </c>
+      <c r="R36">
+        <v>11</v>
+      </c>
+      <c r="S36">
         <v>4</v>
       </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-      <c r="H36">
-        <v>9</v>
-      </c>
-      <c r="I36">
-        <v>9</v>
-      </c>
-      <c r="J36">
-        <v>4</v>
-      </c>
-      <c r="K36">
-        <v>13</v>
-      </c>
-      <c r="L36">
-        <v>52</v>
-      </c>
-      <c r="M36">
-        <v>38</v>
-      </c>
-      <c r="N36">
-        <v>90</v>
-      </c>
-      <c r="O36">
-        <v>47</v>
-      </c>
-      <c r="P36">
-        <v>20</v>
-      </c>
-      <c r="Q36">
-        <v>67</v>
-      </c>
-      <c r="R36">
-        <v>12</v>
-      </c>
-      <c r="S36">
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>2</v>
+      </c>
+      <c r="AC36">
         <v>11</v>
       </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>2</v>
-      </c>
-      <c r="Y36">
-        <v>2</v>
-      </c>
-      <c r="Z36">
-        <v>5</v>
-      </c>
-      <c r="AA36">
-        <v>10</v>
-      </c>
-      <c r="AB36">
-        <v>15</v>
-      </c>
-      <c r="AC36">
+      <c r="AD36">
+        <v>3</v>
+      </c>
+      <c r="AE36">
+        <v>14</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AJ36">
+        <v>198</v>
+      </c>
+      <c r="AK36">
         <v>7</v>
       </c>
-      <c r="AD36">
-        <v>3</v>
-      </c>
-      <c r="AE36">
-        <v>10</v>
-      </c>
-      <c r="AF36">
-        <v>3</v>
-      </c>
-      <c r="AG36">
-        <v>3</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>3</v>
-      </c>
-      <c r="AJ36">
-        <v>1126</v>
-      </c>
-      <c r="AK36">
-        <v>19</v>
-      </c>
       <c r="AL36">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="AM36">
-        <v>0.2105263157894737</v>
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>0.2631578947368421</v>
+        <v>0.04</v>
       </c>
       <c r="AO36">
-        <v>0.4736842105263158</v>
+        <v>0.04</v>
       </c>
       <c r="AP36">
-        <v>0.4736842105263158</v>
+        <v>0.28</v>
       </c>
       <c r="AQ36">
-        <v>0.2105263157894737</v>
+        <v>0.2</v>
       </c>
       <c r="AR36">
-        <v>0.6842105263157895</v>
+        <v>0.48</v>
       </c>
       <c r="AS36">
-        <v>2.736842105263158</v>
+        <v>0.28</v>
       </c>
       <c r="AT36">
-        <v>2</v>
+        <v>0.28</v>
       </c>
       <c r="AU36">
-        <v>4.736842105263158</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AV36">
-        <v>2.473684210526316</v>
+        <v>1.84</v>
       </c>
       <c r="AW36">
-        <v>1.052631578947368</v>
+        <v>0.88</v>
       </c>
       <c r="AX36">
-        <v>0.631578947368421</v>
+        <v>0.44</v>
       </c>
       <c r="AY36">
-        <v>3.526315789473684</v>
+        <v>2.72</v>
       </c>
       <c r="AZ36">
-        <v>59.26315789473684</v>
+        <v>7.92</v>
       </c>
       <c r="BA36">
-        <v>1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="37" spans="1:53">
@@ -6667,160 +6694,160 @@
         <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D37">
-        <v>2014</v>
+        <v>1983</v>
       </c>
       <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>33</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>41</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>157</v>
+      </c>
+      <c r="P37">
+        <v>40</v>
+      </c>
+      <c r="Q37">
+        <v>197</v>
+      </c>
+      <c r="R37">
+        <v>24</v>
+      </c>
+      <c r="S37">
+        <v>21</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+      <c r="Y37">
+        <v>3</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>12</v>
+      </c>
+      <c r="AD37">
         <v>4</v>
       </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37">
-        <v>4</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>5</v>
-      </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37">
-        <v>5</v>
-      </c>
-      <c r="O37">
-        <v>34</v>
-      </c>
-      <c r="P37">
-        <v>25</v>
-      </c>
-      <c r="Q37">
-        <v>59</v>
-      </c>
-      <c r="R37">
-        <v>14</v>
-      </c>
-      <c r="S37">
-        <v>2</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>3</v>
-      </c>
-      <c r="V37">
-        <v>3</v>
-      </c>
-      <c r="W37">
-        <v>4</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37">
-        <v>5</v>
-      </c>
-      <c r="Z37">
-        <v>3</v>
-      </c>
-      <c r="AA37">
-        <v>2</v>
-      </c>
-      <c r="AB37">
-        <v>5</v>
-      </c>
-      <c r="AC37">
-        <v>17</v>
-      </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>16</v>
       </c>
-      <c r="AE37">
-        <v>33</v>
-      </c>
       <c r="AF37">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AG37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH37">
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ37">
-        <v>135</v>
+        <v>1422</v>
       </c>
       <c r="AK37">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AL37">
-        <v>102</v>
+        <v>343</v>
       </c>
       <c r="AM37">
-        <v>0.5</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="AQ37">
-        <v>0.25</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="AR37">
-        <v>1.25</v>
+        <v>1.171428571428571</v>
       </c>
       <c r="AS37">
-        <v>0.75</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="AU37">
-        <v>1.25</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="AV37">
-        <v>8.5</v>
+        <v>4.485714285714286</v>
       </c>
       <c r="AW37">
-        <v>6.25</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AX37">
-        <v>3.5</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="AY37">
-        <v>14.75</v>
+        <v>5.628571428571429</v>
       </c>
       <c r="AZ37">
-        <v>33.75</v>
+        <v>40.62857142857143</v>
       </c>
       <c r="BA37">
-        <v>1.75</v>
+        <v>0.5428571428571428</v>
       </c>
     </row>
     <row r="38" spans="1:53">
@@ -6828,160 +6855,160 @@
         <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D38">
-        <v>2004</v>
+        <v>1984</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>44</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>52</v>
+      </c>
+      <c r="L38">
+        <v>9</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38">
+        <v>17</v>
+      </c>
+      <c r="O38">
+        <v>114</v>
+      </c>
+      <c r="P38">
+        <v>21</v>
+      </c>
+      <c r="Q38">
+        <v>135</v>
+      </c>
+      <c r="R38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>2</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>1146</v>
+      </c>
+      <c r="AK38">
         <v>20</v>
       </c>
-      <c r="I38">
-        <v>25</v>
-      </c>
-      <c r="J38">
-        <v>4</v>
-      </c>
-      <c r="K38">
-        <v>29</v>
-      </c>
-      <c r="L38">
-        <v>28</v>
-      </c>
-      <c r="M38">
-        <v>5</v>
-      </c>
-      <c r="N38">
-        <v>33</v>
-      </c>
-      <c r="O38">
-        <v>77</v>
-      </c>
-      <c r="P38">
-        <v>28</v>
-      </c>
-      <c r="Q38">
-        <v>105</v>
-      </c>
-      <c r="R38">
-        <v>12</v>
-      </c>
-      <c r="S38">
-        <v>6</v>
-      </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>2</v>
-      </c>
-      <c r="W38">
-        <v>4</v>
-      </c>
-      <c r="X38">
-        <v>3</v>
-      </c>
-      <c r="Y38">
-        <v>7</v>
-      </c>
-      <c r="Z38">
-        <v>4</v>
-      </c>
-      <c r="AA38">
-        <v>3</v>
-      </c>
-      <c r="AB38">
-        <v>7</v>
-      </c>
-      <c r="AC38">
-        <v>13</v>
-      </c>
-      <c r="AD38">
-        <v>7</v>
-      </c>
-      <c r="AE38">
-        <v>20</v>
-      </c>
-      <c r="AF38">
-        <v>4</v>
-      </c>
-      <c r="AG38">
-        <v>3</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>3</v>
-      </c>
-      <c r="AJ38">
-        <v>1281</v>
-      </c>
-      <c r="AK38">
-        <v>19</v>
-      </c>
       <c r="AL38">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="AM38">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="AN38">
-        <v>0.7142857142857143</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="AO38">
-        <v>1.428571428571429</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="AP38">
-        <v>1.785714285714286</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="AQ38">
-        <v>0.2857142857142857</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AR38">
-        <v>2.071428571428572</v>
+        <v>1.529411764705882</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="AT38">
-        <v>0.3571428571428572</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AU38">
-        <v>2.357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="AV38">
-        <v>5.5</v>
+        <v>3.352941176470588</v>
       </c>
       <c r="AW38">
-        <v>2</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="AX38">
-        <v>0.8571428571428571</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="AY38">
-        <v>7.5</v>
+        <v>3.970588235294118</v>
       </c>
       <c r="AZ38">
-        <v>91.5</v>
+        <v>33.70588235294117</v>
       </c>
       <c r="BA38">
-        <v>1.357142857142857</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="39" spans="1:53">
@@ -6989,160 +7016,160 @@
         <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D39">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>7</v>
+      </c>
+      <c r="O39">
+        <v>25</v>
+      </c>
+      <c r="P39">
+        <v>17</v>
+      </c>
+      <c r="Q39">
+        <v>42</v>
+      </c>
+      <c r="R39">
         <v>13</v>
       </c>
-      <c r="G39">
-        <v>9</v>
-      </c>
-      <c r="H39">
-        <v>22</v>
-      </c>
-      <c r="I39">
-        <v>11</v>
-      </c>
-      <c r="J39">
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>2</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
         <v>4</v>
       </c>
-      <c r="K39">
-        <v>15</v>
-      </c>
-      <c r="L39">
-        <v>15</v>
-      </c>
-      <c r="M39">
+      <c r="AD39">
+        <v>8</v>
+      </c>
+      <c r="AE39">
+        <v>12</v>
+      </c>
+      <c r="AF39">
         <v>7</v>
       </c>
-      <c r="N39">
-        <v>22</v>
-      </c>
-      <c r="O39">
-        <v>78</v>
-      </c>
-      <c r="P39">
-        <v>16</v>
-      </c>
-      <c r="Q39">
-        <v>94</v>
-      </c>
-      <c r="R39">
-        <v>8</v>
-      </c>
-      <c r="S39">
-        <v>7</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>1</v>
-      </c>
-      <c r="X39">
-        <v>2</v>
-      </c>
-      <c r="Y39">
-        <v>3</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>7</v>
-      </c>
-      <c r="AD39">
-        <v>1</v>
-      </c>
-      <c r="AE39">
-        <v>8</v>
-      </c>
-      <c r="AF39">
-        <v>1</v>
-      </c>
       <c r="AG39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AH39">
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ39">
-        <v>1208</v>
+        <v>141</v>
       </c>
       <c r="AK39">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AL39">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="AM39">
-        <v>0.9285714285714286</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AN39">
-        <v>0.6428571428571429</v>
+        <v>0.2</v>
       </c>
       <c r="AO39">
-        <v>1.571428571428571</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AP39">
-        <v>0.7857142857142857</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AQ39">
-        <v>0.2857142857142857</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AR39">
-        <v>1.071428571428571</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AS39">
-        <v>1.071428571428571</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AT39">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AU39">
-        <v>1.571428571428571</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AV39">
-        <v>5.571428571428571</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AW39">
-        <v>1.142857142857143</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="AX39">
-        <v>0.5714285714285714</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AY39">
-        <v>6.714285714285714</v>
+        <v>2.8</v>
       </c>
       <c r="AZ39">
-        <v>86.28571428571429</v>
+        <v>9.4</v>
       </c>
       <c r="BA39">
-        <v>1.285714285714286</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:53">
@@ -7150,159 +7177,642 @@
         <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40">
+        <v>1999</v>
+      </c>
+      <c r="E40">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>13</v>
+      </c>
+      <c r="L40">
+        <v>52</v>
+      </c>
+      <c r="M40">
+        <v>38</v>
+      </c>
+      <c r="N40">
+        <v>90</v>
+      </c>
+      <c r="O40">
+        <v>47</v>
+      </c>
+      <c r="P40">
+        <v>20</v>
+      </c>
+      <c r="Q40">
+        <v>67</v>
+      </c>
+      <c r="R40">
+        <v>12</v>
+      </c>
+      <c r="S40">
+        <v>11</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <v>5</v>
+      </c>
+      <c r="AA40">
+        <v>10</v>
+      </c>
+      <c r="AB40">
+        <v>15</v>
+      </c>
+      <c r="AC40">
+        <v>7</v>
+      </c>
+      <c r="AD40">
+        <v>3</v>
+      </c>
+      <c r="AE40">
+        <v>10</v>
+      </c>
+      <c r="AF40">
+        <v>3</v>
+      </c>
+      <c r="AG40">
+        <v>3</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>3</v>
+      </c>
+      <c r="AJ40">
+        <v>1126</v>
+      </c>
+      <c r="AK40">
+        <v>19</v>
+      </c>
+      <c r="AL40">
+        <v>224</v>
+      </c>
+      <c r="AM40">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AN40">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="AO40">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="AP40">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="AQ40">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AR40">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="AS40">
+        <v>2.736842105263158</v>
+      </c>
+      <c r="AT40">
+        <v>2</v>
+      </c>
+      <c r="AU40">
+        <v>4.736842105263158</v>
+      </c>
+      <c r="AV40">
+        <v>2.473684210526316</v>
+      </c>
+      <c r="AW40">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AX40">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="AY40">
+        <v>3.526315789473684</v>
+      </c>
+      <c r="AZ40">
+        <v>59.26315789473684</v>
+      </c>
+      <c r="BA40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41">
+        <v>2014</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <v>34</v>
+      </c>
+      <c r="P41">
+        <v>25</v>
+      </c>
+      <c r="Q41">
+        <v>59</v>
+      </c>
+      <c r="R41">
+        <v>14</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>4</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>5</v>
+      </c>
+      <c r="Z41">
+        <v>3</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>5</v>
+      </c>
+      <c r="AC41">
+        <v>17</v>
+      </c>
+      <c r="AD41">
+        <v>16</v>
+      </c>
+      <c r="AE41">
+        <v>33</v>
+      </c>
+      <c r="AF41">
+        <v>10</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AJ41">
+        <v>135</v>
+      </c>
+      <c r="AK41">
+        <v>7</v>
+      </c>
+      <c r="AL41">
+        <v>102</v>
+      </c>
+      <c r="AM41">
+        <v>0.5</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>1.5</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>0.25</v>
+      </c>
+      <c r="AR41">
+        <v>1.25</v>
+      </c>
+      <c r="AS41">
+        <v>0.75</v>
+      </c>
+      <c r="AT41">
+        <v>0.5</v>
+      </c>
+      <c r="AU41">
+        <v>1.25</v>
+      </c>
+      <c r="AV41">
+        <v>8.5</v>
+      </c>
+      <c r="AW41">
+        <v>6.25</v>
+      </c>
+      <c r="AX41">
+        <v>3.5</v>
+      </c>
+      <c r="AY41">
+        <v>14.75</v>
+      </c>
+      <c r="AZ41">
+        <v>33.75</v>
+      </c>
+      <c r="BA41">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42">
+        <v>2004</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>25</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>29</v>
+      </c>
+      <c r="L42">
+        <v>28</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>33</v>
+      </c>
+      <c r="O42">
+        <v>77</v>
+      </c>
+      <c r="P42">
+        <v>28</v>
+      </c>
+      <c r="Q42">
+        <v>105</v>
+      </c>
+      <c r="R42">
+        <v>12</v>
+      </c>
+      <c r="S42">
+        <v>6</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>2</v>
+      </c>
+      <c r="W42">
+        <v>4</v>
+      </c>
+      <c r="X42">
+        <v>3</v>
+      </c>
+      <c r="Y42">
+        <v>7</v>
+      </c>
+      <c r="Z42">
+        <v>4</v>
+      </c>
+      <c r="AA42">
+        <v>3</v>
+      </c>
+      <c r="AB42">
+        <v>7</v>
+      </c>
+      <c r="AC42">
+        <v>13</v>
+      </c>
+      <c r="AD42">
+        <v>7</v>
+      </c>
+      <c r="AE42">
+        <v>20</v>
+      </c>
+      <c r="AF42">
+        <v>4</v>
+      </c>
+      <c r="AG42">
+        <v>3</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>3</v>
+      </c>
+      <c r="AJ42">
+        <v>1281</v>
+      </c>
+      <c r="AK42">
+        <v>19</v>
+      </c>
+      <c r="AL42">
+        <v>318</v>
+      </c>
+      <c r="AM42">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AN42">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AO42">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AP42">
+        <v>1.785714285714286</v>
+      </c>
+      <c r="AQ42">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AR42">
+        <v>2.071428571428572</v>
+      </c>
+      <c r="AS42">
+        <v>2</v>
+      </c>
+      <c r="AT42">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="AU42">
+        <v>2.357142857142857</v>
+      </c>
+      <c r="AV42">
+        <v>5.5</v>
+      </c>
+      <c r="AW42">
+        <v>2</v>
+      </c>
+      <c r="AX42">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AY42">
+        <v>7.5</v>
+      </c>
+      <c r="AZ42">
+        <v>91.5</v>
+      </c>
+      <c r="BA42">
+        <v>1.357142857142857</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43">
+        <v>2008</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>7</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>23</v>
+      </c>
+      <c r="P43">
+        <v>16</v>
+      </c>
+      <c r="Q43">
+        <v>39</v>
+      </c>
+      <c r="R43">
+        <v>14</v>
+      </c>
+      <c r="S43">
+        <v>6</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>2</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>9</v>
+      </c>
+      <c r="AD43">
+        <v>7</v>
+      </c>
+      <c r="AE43">
+        <v>16</v>
+      </c>
+      <c r="AF43">
+        <v>5</v>
+      </c>
+      <c r="AG43">
+        <v>4</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>4</v>
+      </c>
+      <c r="AJ43">
+        <v>310</v>
+      </c>
+      <c r="AK43">
+        <v>9</v>
+      </c>
+      <c r="AL43">
         <v>168</v>
       </c>
-      <c r="D40">
-        <v>2008</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>6</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>7</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>23</v>
-      </c>
-      <c r="P40">
-        <v>16</v>
-      </c>
-      <c r="Q40">
-        <v>39</v>
-      </c>
-      <c r="R40">
-        <v>14</v>
-      </c>
-      <c r="S40">
-        <v>6</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>2</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>2</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>9</v>
-      </c>
-      <c r="AD40">
-        <v>7</v>
-      </c>
-      <c r="AE40">
-        <v>16</v>
-      </c>
-      <c r="AF40">
-        <v>5</v>
-      </c>
-      <c r="AG40">
-        <v>4</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>4</v>
-      </c>
-      <c r="AJ40">
-        <v>310</v>
-      </c>
-      <c r="AK40">
-        <v>9</v>
-      </c>
-      <c r="AL40">
-        <v>168</v>
-      </c>
-      <c r="AM40">
+      <c r="AM43">
         <v>0.1</v>
       </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
         <v>0.1</v>
       </c>
-      <c r="AP40">
+      <c r="AP43">
         <v>0.6</v>
       </c>
-      <c r="AQ40">
+      <c r="AQ43">
         <v>0.1</v>
       </c>
-      <c r="AR40">
+      <c r="AR43">
         <v>0.7</v>
       </c>
-      <c r="AS40">
-        <v>0</v>
-      </c>
-      <c r="AT40">
-        <v>0</v>
-      </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
-      <c r="AV40">
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
         <v>2.3</v>
       </c>
-      <c r="AW40">
+      <c r="AW43">
         <v>1.6</v>
       </c>
-      <c r="AX40">
+      <c r="AX43">
         <v>1.4</v>
       </c>
-      <c r="AY40">
+      <c r="AY43">
         <v>3.9</v>
       </c>
-      <c r="AZ40">
+      <c r="AZ43">
         <v>31</v>
       </c>
-      <c r="BA40">
+      <c r="BA43">
         <v>0.9</v>
       </c>
     </row>

--- a/pgc.xlsx
+++ b/pgc.xlsx
@@ -1179,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="AJ2">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="AK2">
         <v>15</v>
       </c>
       <c r="AL2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AM2">
         <v>0.1111111111111111</v>
@@ -1227,7 +1227,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="AZ2">
-        <v>42.33333333333334</v>
+        <v>42.61111111111111</v>
       </c>
       <c r="BA2">
         <v>0.8333333333333334</v>
@@ -1259,22 +1259,22 @@
         <v>12</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L3">
         <v>10</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O3">
         <v>37</v>
@@ -1286,7 +1286,7 @@
         <v>44</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3">
         <v>3</v>
@@ -1301,22 +1301,22 @@
         <v>3</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z3">
         <v>7</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC3">
         <v>12</v>
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="AF3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG3">
         <v>2</v>
@@ -1340,13 +1340,13 @@
         <v>2</v>
       </c>
       <c r="AJ3">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK3">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM3">
         <v>1.142857142857143</v>
@@ -1358,22 +1358,22 @@
         <v>1.714285714285714</v>
       </c>
       <c r="AP3">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0.1428571428571428</v>
       </c>
       <c r="AR3">
-        <v>0.8571428571428571</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AS3">
         <v>1.428571428571429</v>
       </c>
       <c r="AT3">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AU3">
-        <v>1.857142857142857</v>
+        <v>2</v>
       </c>
       <c r="AV3">
         <v>5.285714285714286</v>
@@ -1382,13 +1382,13 @@
         <v>1</v>
       </c>
       <c r="AX3">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AY3">
         <v>6.285714285714286</v>
       </c>
       <c r="AZ3">
-        <v>24.57142857142857</v>
+        <v>24.71428571428572</v>
       </c>
       <c r="BA3">
         <v>1.142857142857143</v>
@@ -1429,13 +1429,13 @@
         <v>16</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O4">
         <v>63</v>
@@ -1471,13 +1471,13 @@
         <v>4</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC4">
         <v>9</v>
@@ -1507,7 +1507,7 @@
         <v>13</v>
       </c>
       <c r="AL4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AM4">
         <v>0.6666666666666666</v>
@@ -1528,13 +1528,13 @@
         <v>1.066666666666667</v>
       </c>
       <c r="AS4">
-        <v>2.066666666666667</v>
+        <v>2.2</v>
       </c>
       <c r="AT4">
-        <v>1.6</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AU4">
-        <v>3.666666666666667</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="AV4">
         <v>4.2</v>
@@ -1823,13 +1823,13 @@
         <v>8</v>
       </c>
       <c r="AJ6">
-        <v>2425</v>
+        <v>2438</v>
       </c>
       <c r="AK6">
         <v>27</v>
       </c>
       <c r="AL6">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="AM6">
         <v>0.4</v>
@@ -1871,7 +1871,7 @@
         <v>9.033333333333333</v>
       </c>
       <c r="AZ6">
-        <v>80.83333333333333</v>
+        <v>81.26666666666667</v>
       </c>
       <c r="BA6">
         <v>0.9</v>
@@ -1984,13 +1984,13 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK7">
         <v>4</v>
       </c>
       <c r="AL7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM7">
         <v>2.75</v>
@@ -2032,7 +2032,7 @@
         <v>6.5</v>
       </c>
       <c r="AZ7">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="BA7">
         <v>1</v>
@@ -2145,13 +2145,13 @@
         <v>2</v>
       </c>
       <c r="AJ8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AK8">
         <v>10</v>
       </c>
       <c r="AL8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AM8">
         <v>0.3</v>
@@ -2193,7 +2193,7 @@
         <v>2.1</v>
       </c>
       <c r="AZ8">
-        <v>17.15</v>
+        <v>17.25</v>
       </c>
       <c r="BA8">
         <v>0.5</v>
@@ -2228,10 +2228,10 @@
         <v>25</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L9">
         <v>79</v>
@@ -2270,10 +2270,10 @@
         <v>4</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z9">
         <v>8</v>
@@ -2306,13 +2306,13 @@
         <v>4</v>
       </c>
       <c r="AJ9">
-        <v>2113</v>
+        <v>2120</v>
       </c>
       <c r="AK9">
         <v>22</v>
       </c>
       <c r="AL9">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AM9">
         <v>0.4444444444444444</v>
@@ -2327,10 +2327,10 @@
         <v>1.388888888888889</v>
       </c>
       <c r="AQ9">
-        <v>0.3888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
-        <v>1.777777777777778</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="AS9">
         <v>4.388888888888889</v>
@@ -2354,7 +2354,7 @@
         <v>8.111111111111111</v>
       </c>
       <c r="AZ9">
-        <v>117.3888888888889</v>
+        <v>117.7777777777778</v>
       </c>
       <c r="BA9">
         <v>1.222222222222222</v>
@@ -2389,10 +2389,10 @@
         <v>37</v>
       </c>
       <c r="J10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -2431,10 +2431,10 @@
         <v>2</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2467,13 +2467,13 @@
         <v>11</v>
       </c>
       <c r="AJ10">
-        <v>9121</v>
+        <v>9123</v>
       </c>
       <c r="AK10">
         <v>47</v>
       </c>
       <c r="AL10">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>1.057142857142857</v>
       </c>
       <c r="AQ10">
-        <v>0.7714285714285715</v>
+        <v>0.8</v>
       </c>
       <c r="AR10">
-        <v>1.828571428571429</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="AS10">
         <v>0.2857142857142857</v>
@@ -2515,7 +2515,7 @@
         <v>5.571428571428571</v>
       </c>
       <c r="AZ10">
-        <v>260.6</v>
+        <v>260.6571428571428</v>
       </c>
       <c r="BA10">
         <v>1.342857142857143</v>
@@ -2565,13 +2565,13 @@
         <v>18</v>
       </c>
       <c r="O11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11">
         <v>15</v>
       </c>
       <c r="Q11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R11">
         <v>5</v>
@@ -2607,13 +2607,13 @@
         <v>4</v>
       </c>
       <c r="AC11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2628,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AK11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AM11">
         <v>1.294117647058824</v>
@@ -2664,7 +2664,7 @@
         <v>1.058823529411765</v>
       </c>
       <c r="AV11">
-        <v>2.176470588235294</v>
+        <v>2.235294117647059</v>
       </c>
       <c r="AW11">
         <v>0.8823529411764706</v>
@@ -2673,13 +2673,13 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="AY11">
-        <v>3.058823529411764</v>
+        <v>3.117647058823529</v>
       </c>
       <c r="AZ11">
-        <v>39.76470588235294</v>
+        <v>39.88235294117647</v>
       </c>
       <c r="BA11">
-        <v>0.8823529411764706</v>
+        <v>0.9411764705882353</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -2789,13 +2789,13 @@
         <v>1</v>
       </c>
       <c r="AJ12">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AK12">
         <v>8</v>
       </c>
       <c r="AL12">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AM12">
         <v>0.3333333333333333</v>
@@ -2837,7 +2837,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="AZ12">
-        <v>46.33333333333334</v>
+        <v>46.55555555555556</v>
       </c>
       <c r="BA12">
         <v>0.8888888888888888</v>
@@ -2860,13 +2860,13 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>15</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O13">
         <v>120</v>
@@ -2902,13 +2902,13 @@
         <v>11</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U13">
         <v>3</v>
       </c>
       <c r="V13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W13">
         <v>7</v>
@@ -2920,13 +2920,13 @@
         <v>11</v>
       </c>
       <c r="Z13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC13">
         <v>38</v>
@@ -2950,22 +2950,22 @@
         <v>7</v>
       </c>
       <c r="AJ13">
-        <v>1975</v>
+        <v>1986</v>
       </c>
       <c r="AK13">
         <v>22</v>
       </c>
       <c r="AL13">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="AM13">
-        <v>1.833333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="AN13">
         <v>0.8333333333333334</v>
       </c>
       <c r="AO13">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="AP13">
         <v>1.666666666666667</v>
@@ -2977,13 +2977,13 @@
         <v>2.5</v>
       </c>
       <c r="AS13">
-        <v>5.666666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AT13">
-        <v>3.333333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="AU13">
-        <v>9</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="AV13">
         <v>20</v>
@@ -2998,7 +2998,7 @@
         <v>25.5</v>
       </c>
       <c r="AZ13">
-        <v>329.1666666666667</v>
+        <v>331</v>
       </c>
       <c r="BA13">
         <v>3.666666666666667</v>
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="AK14">
         <v>12</v>
       </c>
       <c r="AL14">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AM14">
         <v>0.75</v>
@@ -3159,7 +3159,7 @@
         <v>5.083333333333333</v>
       </c>
       <c r="AZ14">
-        <v>54</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="BA14">
         <v>1</v>
@@ -3272,13 +3272,13 @@
         <v>3</v>
       </c>
       <c r="AJ15">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="AK15">
         <v>17</v>
       </c>
       <c r="AL15">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AM15">
         <v>1.133333333333333</v>
@@ -3320,7 +3320,7 @@
         <v>9</v>
       </c>
       <c r="AZ15">
-        <v>103.8</v>
+        <v>104.1333333333333</v>
       </c>
       <c r="BA15">
         <v>1.133333333333333</v>
@@ -3361,13 +3361,13 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O16">
         <v>32</v>
@@ -3403,13 +3403,13 @@
         <v>3</v>
       </c>
       <c r="Z16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC16">
         <v>9</v>
@@ -3433,13 +3433,13 @@
         <v>3</v>
       </c>
       <c r="AJ16">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="AK16">
         <v>11</v>
       </c>
       <c r="AL16">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AM16">
         <v>0.4</v>
@@ -3460,13 +3460,13 @@
         <v>0.6</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU16">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="AV16">
         <v>6.4</v>
@@ -3481,7 +3481,7 @@
         <v>9.6</v>
       </c>
       <c r="AZ16">
-        <v>186</v>
+        <v>187.2</v>
       </c>
       <c r="BA16">
         <v>2.2</v>
@@ -3504,13 +3504,13 @@
         <v>14</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H17">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I17">
         <v>18</v>
@@ -3546,13 +3546,13 @@
         <v>7</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W17">
         <v>2</v>
@@ -3594,22 +3594,22 @@
         <v>3</v>
       </c>
       <c r="AJ17">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="AK17">
         <v>20</v>
       </c>
       <c r="AL17">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AM17">
-        <v>0.2857142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="AN17">
-        <v>1.785714285714286</v>
+        <v>1.928571428571429</v>
       </c>
       <c r="AO17">
-        <v>2.071428571428572</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="AP17">
         <v>1.285714285714286</v>
@@ -3642,7 +3642,7 @@
         <v>15.57142857142857</v>
       </c>
       <c r="AZ17">
-        <v>107.2857142857143</v>
+        <v>107.4285714285714</v>
       </c>
       <c r="BA17">
         <v>1.428571428571429</v>
@@ -3755,13 +3755,13 @@
         <v>1</v>
       </c>
       <c r="AJ18">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AK18">
         <v>14</v>
       </c>
       <c r="AL18">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AM18">
         <v>0.5</v>
@@ -3803,7 +3803,7 @@
         <v>2.772727272727273</v>
       </c>
       <c r="AZ18">
-        <v>28.81818181818182</v>
+        <v>28.90909090909091</v>
       </c>
       <c r="BA18">
         <v>0.6363636363636364</v>
@@ -3916,13 +3916,13 @@
         <v>4</v>
       </c>
       <c r="AJ19">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="AK19">
         <v>17</v>
       </c>
       <c r="AL19">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AM19">
         <v>0.1</v>
@@ -3964,7 +3964,7 @@
         <v>6.3</v>
       </c>
       <c r="AZ19">
-        <v>58.25</v>
+        <v>58.35</v>
       </c>
       <c r="BA19">
         <v>0.85</v>
@@ -4077,13 +4077,13 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AK20">
         <v>7</v>
       </c>
       <c r="AL20">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AM20">
         <v>0.4166666666666667</v>
@@ -4125,7 +4125,7 @@
         <v>5.666666666666667</v>
       </c>
       <c r="AZ20">
-        <v>13.75</v>
+        <v>13.91666666666667</v>
       </c>
       <c r="BA20">
         <v>0.5833333333333334</v>
@@ -4238,13 +4238,13 @@
         <v>1</v>
       </c>
       <c r="AJ21">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AK21">
         <v>14</v>
       </c>
       <c r="AL21">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM21">
         <v>2.777777777777778</v>
@@ -4286,7 +4286,7 @@
         <v>7.888888888888889</v>
       </c>
       <c r="AZ21">
-        <v>136.6666666666667</v>
+        <v>136.5555555555555</v>
       </c>
       <c r="BA21">
         <v>1.555555555555556</v>
@@ -4399,13 +4399,13 @@
         <v>2</v>
       </c>
       <c r="AJ22">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK22">
         <v>11</v>
       </c>
       <c r="AL22">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM22">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="AZ22">
-        <v>26.33333333333333</v>
+        <v>26.4</v>
       </c>
       <c r="BA22">
         <v>0.7333333333333333</v>
@@ -4631,13 +4631,13 @@
         <v>13</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N24">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O24">
         <v>76</v>
@@ -4673,13 +4673,13 @@
         <v>9</v>
       </c>
       <c r="Z24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB24">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC24">
         <v>42</v>
@@ -4703,13 +4703,13 @@
         <v>1</v>
       </c>
       <c r="AJ24">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AK24">
         <v>11</v>
       </c>
       <c r="AL24">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AM24">
         <v>0.6666666666666666</v>
@@ -4730,13 +4730,13 @@
         <v>1.444444444444444</v>
       </c>
       <c r="AS24">
-        <v>5.888888888888889</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="AT24">
-        <v>1.555555555555556</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AU24">
-        <v>7.444444444444445</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="AV24">
         <v>8.444444444444445</v>
@@ -4751,7 +4751,7 @@
         <v>9.555555555555555</v>
       </c>
       <c r="AZ24">
-        <v>49.88888888888889</v>
+        <v>50.33333333333334</v>
       </c>
       <c r="BA24">
         <v>1.222222222222222</v>
@@ -4864,13 +4864,13 @@
         <v>4</v>
       </c>
       <c r="AJ25">
-        <v>2200</v>
+        <v>2212</v>
       </c>
       <c r="AK25">
         <v>26</v>
       </c>
       <c r="AL25">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="AM25">
         <v>0.1363636363636364</v>
@@ -4912,7 +4912,7 @@
         <v>7.590909090909091</v>
       </c>
       <c r="AZ25">
-        <v>100</v>
+        <v>100.5454545454545</v>
       </c>
       <c r="BA25">
         <v>1.181818181818182</v>
@@ -4938,10 +4938,10 @@
         <v>6</v>
       </c>
       <c r="G26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -4980,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W26">
         <v>4</v>
@@ -5025,22 +5025,22 @@
         <v>1</v>
       </c>
       <c r="AJ26">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="AK26">
         <v>8</v>
       </c>
       <c r="AL26">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AM26">
         <v>0.75</v>
       </c>
       <c r="AN26">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="AO26">
-        <v>2.125</v>
+        <v>2.25</v>
       </c>
       <c r="AP26">
         <v>1.125</v>
@@ -5073,7 +5073,7 @@
         <v>3.75</v>
       </c>
       <c r="AZ26">
-        <v>94</v>
+        <v>94.75</v>
       </c>
       <c r="BA26">
         <v>1</v>
@@ -5105,22 +5105,22 @@
         <v>22</v>
       </c>
       <c r="I27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27">
         <v>9</v>
       </c>
       <c r="K27">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N27">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O27">
         <v>136</v>
@@ -5147,22 +5147,22 @@
         <v>2</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X27">
         <v>6</v>
       </c>
       <c r="Y27">
+        <v>8</v>
+      </c>
+      <c r="Z27">
         <v>7</v>
       </c>
-      <c r="Z27">
-        <v>4</v>
-      </c>
       <c r="AA27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AB27">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AC27">
         <v>15</v>
@@ -5186,13 +5186,13 @@
         <v>8</v>
       </c>
       <c r="AJ27">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="AK27">
         <v>22</v>
       </c>
       <c r="AL27">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="AM27">
         <v>1.166666666666667</v>
@@ -5204,22 +5204,22 @@
         <v>1.833333333333333</v>
       </c>
       <c r="AP27">
-        <v>1.583333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AQ27">
         <v>0.75</v>
       </c>
       <c r="AR27">
-        <v>2.333333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="AS27">
-        <v>2.916666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="AT27">
-        <v>1.416666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="AU27">
-        <v>4.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="AV27">
         <v>11.33333333333333</v>
@@ -5234,7 +5234,7 @@
         <v>14.41666666666667</v>
       </c>
       <c r="AZ27">
-        <v>150.25</v>
+        <v>150.9166666666667</v>
       </c>
       <c r="BA27">
         <v>1.833333333333333</v>
@@ -5347,13 +5347,13 @@
         <v>3</v>
       </c>
       <c r="AJ28">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="AK28">
         <v>16</v>
       </c>
       <c r="AL28">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AM28">
         <v>0.375</v>
@@ -5395,7 +5395,7 @@
         <v>4.083333333333333</v>
       </c>
       <c r="AZ28">
-        <v>47.70833333333334</v>
+        <v>47.95833333333334</v>
       </c>
       <c r="BA28">
         <v>0.6666666666666666</v>
@@ -5508,13 +5508,13 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AK29">
         <v>8</v>
       </c>
       <c r="AL29">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AM29">
         <v>0.5714285714285714</v>
@@ -5556,7 +5556,7 @@
         <v>4.285714285714286</v>
       </c>
       <c r="AZ29">
-        <v>27.85714285714286</v>
+        <v>28.42857142857143</v>
       </c>
       <c r="BA29">
         <v>1.142857142857143</v>
@@ -5609,10 +5609,10 @@
         <v>21</v>
       </c>
       <c r="P30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R30">
         <v>7</v>
@@ -5651,10 +5651,10 @@
         <v>7</v>
       </c>
       <c r="AD30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -5708,13 +5708,13 @@
         <v>1.75</v>
       </c>
       <c r="AW30">
-        <v>1.166666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AX30">
         <v>0.5833333333333334</v>
       </c>
       <c r="AY30">
-        <v>2.916666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="AZ30">
         <v>5.916666666666667</v>
@@ -5830,13 +5830,13 @@
         <v>4</v>
       </c>
       <c r="AJ31">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="AK31">
         <v>12</v>
       </c>
       <c r="AL31">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AM31">
         <v>1.714285714285714</v>
@@ -5878,7 +5878,7 @@
         <v>5.714285714285714</v>
       </c>
       <c r="AZ31">
-        <v>68.14285714285714</v>
+        <v>68.71428571428571</v>
       </c>
       <c r="BA31">
         <v>1.714285714285714</v>
@@ -5991,13 +5991,13 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AK32">
         <v>10</v>
       </c>
       <c r="AL32">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AM32">
         <v>0.5555555555555556</v>
@@ -6039,7 +6039,7 @@
         <v>3.888888888888889</v>
       </c>
       <c r="AZ32">
-        <v>32.88888888888889</v>
+        <v>33.11111111111111</v>
       </c>
       <c r="BA32">
         <v>1.111111111111111</v>
@@ -6065,10 +6065,10 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I33">
         <v>52</v>
@@ -6107,10 +6107,10 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W33">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>14</v>
       </c>
       <c r="AJ33">
-        <v>2764</v>
+        <v>2770</v>
       </c>
       <c r="AK33">
         <v>27</v>
@@ -6164,10 +6164,10 @@
         <v>0.06896551724137931</v>
       </c>
       <c r="AN33">
-        <v>0.6896551724137931</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="AO33">
-        <v>0.7586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="AP33">
         <v>1.793103448275862</v>
@@ -6200,7 +6200,7 @@
         <v>10.3448275862069</v>
       </c>
       <c r="AZ33">
-        <v>95.31034482758621</v>
+        <v>95.51724137931035</v>
       </c>
       <c r="BA33">
         <v>0.9310344827586207</v>
@@ -6313,13 +6313,13 @@
         <v>5</v>
       </c>
       <c r="AJ34">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AK34">
         <v>7</v>
       </c>
       <c r="AL34">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AM34">
         <v>0.6666666666666666</v>
@@ -6361,7 +6361,7 @@
         <v>3.222222222222222</v>
       </c>
       <c r="AZ34">
-        <v>24.88888888888889</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="BA34">
         <v>0.7777777777777778</v>
@@ -6474,13 +6474,13 @@
         <v>1</v>
       </c>
       <c r="AJ35">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AK35">
         <v>14</v>
       </c>
       <c r="AL35">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AM35">
         <v>0.2272727272727273</v>
@@ -6522,7 +6522,7 @@
         <v>2.681818181818182</v>
       </c>
       <c r="AZ35">
-        <v>28.59090909090909</v>
+        <v>28.72727272727273</v>
       </c>
       <c r="BA35">
         <v>0.6363636363636364</v>
@@ -6635,13 +6635,13 @@
         <v>1</v>
       </c>
       <c r="AJ36">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK36">
         <v>7</v>
       </c>
       <c r="AL36">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>2.72</v>
       </c>
       <c r="AZ36">
-        <v>7.92</v>
+        <v>7.96</v>
       </c>
       <c r="BA36">
         <v>0.28</v>
@@ -6796,13 +6796,13 @@
         <v>2</v>
       </c>
       <c r="AJ37">
-        <v>1422</v>
+        <v>1429</v>
       </c>
       <c r="AK37">
         <v>19</v>
       </c>
       <c r="AL37">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AM37">
         <v>0.08571428571428572</v>
@@ -6844,7 +6844,7 @@
         <v>5.628571428571429</v>
       </c>
       <c r="AZ37">
-        <v>40.62857142857143</v>
+        <v>40.82857142857143</v>
       </c>
       <c r="BA37">
         <v>0.5428571428571428</v>
@@ -6957,13 +6957,13 @@
         <v>0</v>
       </c>
       <c r="AJ38">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="AK38">
         <v>20</v>
       </c>
       <c r="AL38">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AM38">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>3.970588235294118</v>
       </c>
       <c r="AZ38">
-        <v>33.70588235294117</v>
+        <v>33.79411764705883</v>
       </c>
       <c r="BA38">
         <v>0.5882352941176471</v>
@@ -7118,13 +7118,13 @@
         <v>6</v>
       </c>
       <c r="AJ39">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AK39">
         <v>5</v>
       </c>
       <c r="AL39">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AM39">
         <v>0.1333333333333333</v>
@@ -7166,7 +7166,7 @@
         <v>2.8</v>
       </c>
       <c r="AZ39">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BA39">
         <v>0.3333333333333333</v>
@@ -7279,13 +7279,13 @@
         <v>3</v>
       </c>
       <c r="AJ40">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="AK40">
         <v>19</v>
       </c>
       <c r="AL40">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM40">
         <v>0.2105263157894737</v>
@@ -7327,7 +7327,7 @@
         <v>3.526315789473684</v>
       </c>
       <c r="AZ40">
-        <v>59.26315789473684</v>
+        <v>59.31578947368421</v>
       </c>
       <c r="BA40">
         <v>1</v>
@@ -7377,13 +7377,13 @@
         <v>5</v>
       </c>
       <c r="O41">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P41">
         <v>25</v>
       </c>
       <c r="Q41">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R41">
         <v>14</v>
@@ -7419,13 +7419,13 @@
         <v>5</v>
       </c>
       <c r="AC41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD41">
         <v>16</v>
       </c>
       <c r="AE41">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AF41">
         <v>10</v>
@@ -7440,13 +7440,13 @@
         <v>1</v>
       </c>
       <c r="AJ41">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK41">
         <v>7</v>
       </c>
       <c r="AL41">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AM41">
         <v>0.5</v>
@@ -7476,7 +7476,7 @@
         <v>1.25</v>
       </c>
       <c r="AV41">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AW41">
         <v>6.25</v>
@@ -7485,10 +7485,10 @@
         <v>3.5</v>
       </c>
       <c r="AY41">
-        <v>14.75</v>
+        <v>15</v>
       </c>
       <c r="AZ41">
-        <v>33.75</v>
+        <v>34.5</v>
       </c>
       <c r="BA41">
         <v>1.75</v>
@@ -7601,13 +7601,13 @@
         <v>3</v>
       </c>
       <c r="AJ42">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="AK42">
         <v>19</v>
       </c>
       <c r="AL42">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AM42">
         <v>0.7142857142857143</v>
@@ -7649,7 +7649,7 @@
         <v>7.5</v>
       </c>
       <c r="AZ42">
-        <v>91.5</v>
+        <v>91.85714285714286</v>
       </c>
       <c r="BA42">
         <v>1.357142857142857</v>
@@ -7762,13 +7762,13 @@
         <v>4</v>
       </c>
       <c r="AJ43">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AK43">
         <v>9</v>
       </c>
       <c r="AL43">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AM43">
         <v>0.1</v>
@@ -7810,7 +7810,7 @@
         <v>3.9</v>
       </c>
       <c r="AZ43">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="BA43">
         <v>0.9</v>
